--- a/fcst_results/no_covid_series_IAH-Int_results.xlsx
+++ b/fcst_results/no_covid_series_IAH-Int_results.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,74 +75,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -434,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +383,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prophet</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>weighted_ensemble</t>
         </is>
@@ -474,16 +412,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>391815.1775017977</v>
+        <v>414043.827655673</v>
       </c>
       <c r="C2" t="n">
-        <v>491920.8462882977</v>
+        <v>383838.1594029665</v>
       </c>
       <c r="D2" t="n">
+        <v>491920.6334520737</v>
+      </c>
+      <c r="E2" t="n">
         <v>496783.8125174749</v>
       </c>
-      <c r="E2" t="n">
-        <v>489816.0556320283</v>
+      <c r="F2" t="n">
+        <v>483405.4613935426</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +432,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>428153.5967288017</v>
+        <v>401748.1492964029</v>
       </c>
       <c r="C3" t="n">
-        <v>442935.5764097042</v>
+        <v>396028.9215395451</v>
       </c>
       <c r="D3" t="n">
+        <v>442935.2703417128</v>
+      </c>
+      <c r="E3" t="n">
         <v>456736.2819212076</v>
       </c>
-      <c r="E3" t="n">
-        <v>449122.9132956771</v>
+      <c r="F3" t="n">
+        <v>443986.9761580501</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +452,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>404626.4179030657</v>
+        <v>400519.862990737</v>
       </c>
       <c r="C4" t="n">
-        <v>486801.3117955711</v>
+        <v>432632.4724516869</v>
       </c>
       <c r="D4" t="n">
+        <v>486801.5886616745</v>
+      </c>
+      <c r="E4" t="n">
         <v>487827.2756195136</v>
       </c>
-      <c r="E4" t="n">
-        <v>483600.3380289705</v>
+      <c r="F4" t="n">
+        <v>478097.9544721704</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +472,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>411184.8787221909</v>
+        <v>396298.985907197</v>
       </c>
       <c r="C5" t="n">
-        <v>556834.5068168781</v>
+        <v>411778.6382899284</v>
       </c>
       <c r="D5" t="n">
+        <v>556834.9363015966</v>
+      </c>
+      <c r="E5" t="n">
         <v>543894.5214213408</v>
       </c>
-      <c r="E5" t="n">
-        <v>543830.4732518016</v>
+      <c r="F5" t="n">
+        <v>532019.8274843402</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +492,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>427057.6949170828</v>
+        <v>411155.6936839819</v>
       </c>
       <c r="C6" t="n">
-        <v>552904.8483319612</v>
+        <v>435832.6227722168</v>
       </c>
       <c r="D6" t="n">
+        <v>552906.4868521146</v>
+      </c>
+      <c r="E6" t="n">
         <v>564277.0829855176</v>
       </c>
-      <c r="E6" t="n">
-        <v>552870.8662750105</v>
+      <c r="F6" t="n">
+        <v>541865.5984270292</v>
       </c>
     </row>
     <row r="7">
@@ -559,16 +512,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>455809.6000776291</v>
+        <v>415992.7208451033</v>
       </c>
       <c r="C7" t="n">
-        <v>472178.4318973128</v>
+        <v>429132.1297124624</v>
       </c>
       <c r="D7" t="n">
+        <v>472179.4791955241</v>
+      </c>
+      <c r="E7" t="n">
         <v>490381.8003307534</v>
       </c>
-      <c r="E7" t="n">
-        <v>480480.9178804589</v>
+      <c r="F7" t="n">
+        <v>474198.4272893558</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +532,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>396008.8039324284</v>
+        <v>431866.0448161364</v>
       </c>
       <c r="C8" t="n">
-        <v>373986.4784261398</v>
+        <v>375482.9447982311</v>
       </c>
       <c r="D8" t="n">
+        <v>373987.9418625854</v>
+      </c>
+      <c r="E8" t="n">
         <v>406713.3404566589</v>
       </c>
-      <c r="E8" t="n">
-        <v>391236.3189834953</v>
+      <c r="F8" t="n">
+        <v>393642.4163080453</v>
       </c>
     </row>
     <row r="9">
@@ -593,16 +552,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>422911.3158473969</v>
+        <v>410125.2949944735</v>
       </c>
       <c r="C9" t="n">
-        <v>429122.6516695996</v>
+        <v>441440.5750147104</v>
       </c>
       <c r="D9" t="n">
+        <v>429123.4354584591</v>
+      </c>
+      <c r="E9" t="n">
         <v>434978.2652592162</v>
       </c>
-      <c r="E9" t="n">
-        <v>431750.6649073598</v>
+      <c r="F9" t="n">
+        <v>430785.0501019903</v>
       </c>
     </row>
     <row r="10">
@@ -610,16 +572,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>435646.7525247335</v>
+        <v>428282.3542503119</v>
       </c>
       <c r="C10" t="n">
-        <v>452118.0376585394</v>
+        <v>423141.1208209991</v>
       </c>
       <c r="D10" t="n">
+        <v>452117.7379582022</v>
+      </c>
+      <c r="E10" t="n">
         <v>450859.7601912755</v>
       </c>
-      <c r="E10" t="n">
-        <v>450749.2978402414</v>
+      <c r="F10" t="n">
+        <v>448427.4113159506</v>
       </c>
     </row>
     <row r="11">
@@ -627,16 +592,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>421811.1825678349</v>
+        <v>408964.3011174202</v>
       </c>
       <c r="C11" t="n">
-        <v>536098.1440418881</v>
+        <v>395857.6075414419</v>
       </c>
       <c r="D11" t="n">
+        <v>536097.7829695338</v>
+      </c>
+      <c r="E11" t="n">
         <v>516959.2559868487</v>
       </c>
-      <c r="E11" t="n">
-        <v>521431.2824727829</v>
+      <c r="F11" t="n">
+        <v>511331.4473102597</v>
       </c>
     </row>
     <row r="12">
@@ -644,16 +612,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>429719.989405036</v>
+        <v>415986.8451497555</v>
       </c>
       <c r="C12" t="n">
-        <v>454152.7865094586</v>
+        <v>426706.7732439041</v>
       </c>
       <c r="D12" t="n">
+        <v>454152.4222560694</v>
+      </c>
+      <c r="E12" t="n">
         <v>476991.9684154341</v>
       </c>
-      <c r="E12" t="n">
-        <v>464393.756367388</v>
+      <c r="F12" t="n">
+        <v>460383.3942549688</v>
       </c>
     </row>
     <row r="13">
@@ -661,16 +632,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>450005.3077272177</v>
+        <v>402684.7786585093</v>
       </c>
       <c r="C13" t="n">
-        <v>391665.510104325</v>
+        <v>373862.3893336058</v>
       </c>
       <c r="D13" t="n">
+        <v>391665.2728244048</v>
+      </c>
+      <c r="E13" t="n">
         <v>435581.2033213383</v>
       </c>
-      <c r="E13" t="n">
-        <v>416112.7420945085</v>
+      <c r="F13" t="n">
+        <v>411870.446888427</v>
       </c>
     </row>
     <row r="14">
@@ -678,16 +652,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>427155.7682517767</v>
+        <v>397792.137920022</v>
       </c>
       <c r="C14" t="n">
-        <v>489228.7464881928</v>
+        <v>449074.7474989891</v>
       </c>
       <c r="D14" t="n">
+        <v>489228.1453765266</v>
+      </c>
+      <c r="E14" t="n">
         <v>506604.1397559684</v>
       </c>
-      <c r="E14" t="n">
-        <v>495056.2272369897</v>
+      <c r="F14" t="n">
+        <v>488161.6287305618</v>
       </c>
     </row>
     <row r="15">
@@ -695,16 +672,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>437958.5847560167</v>
+        <v>398535.0869539976</v>
       </c>
       <c r="C15" t="n">
-        <v>441220.2119754679</v>
+        <v>398821.8837544918</v>
       </c>
       <c r="D15" t="n">
+        <v>441219.5416687119</v>
+      </c>
+      <c r="E15" t="n">
         <v>467935.3596734282</v>
       </c>
-      <c r="E15" t="n">
-        <v>454342.3486099895</v>
+      <c r="F15" t="n">
+        <v>448237.6845067712</v>
       </c>
     </row>
     <row r="16">
@@ -712,16 +692,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>443247.290884614</v>
+        <v>421440.288366437</v>
       </c>
       <c r="C16" t="n">
-        <v>486570.5980690094</v>
+        <v>415554.1956976652</v>
       </c>
       <c r="D16" t="n">
+        <v>486570.1088192383</v>
+      </c>
+      <c r="E16" t="n">
         <v>500593.828677029</v>
       </c>
-      <c r="E16" t="n">
-        <v>491579.6924942732</v>
+      <c r="F16" t="n">
+        <v>484801.3497669926</v>
       </c>
     </row>
     <row r="17">
@@ -729,16 +712,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>450005.3319070339</v>
+        <v>423410.4839739799</v>
       </c>
       <c r="C17" t="n">
-        <v>556610.6848777183</v>
+        <v>428186.6988972425</v>
       </c>
       <c r="D17" t="n">
+        <v>556610.6427300562</v>
+      </c>
+      <c r="E17" t="n">
         <v>556121.4873542852</v>
       </c>
-      <c r="E17" t="n">
-        <v>551553.9841854121</v>
+      <c r="F17" t="n">
+        <v>540367.0708996295</v>
       </c>
     </row>
     <row r="18">
@@ -746,16 +732,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>446257.871445775</v>
+        <v>399249.2136470079</v>
       </c>
       <c r="C18" t="n">
-        <v>552239.2044400155</v>
+        <v>428422.4521056414</v>
       </c>
       <c r="D18" t="n">
+        <v>552240.6734335423</v>
+      </c>
+      <c r="E18" t="n">
         <v>574653.2051678462</v>
       </c>
-      <c r="E18" t="n">
-        <v>558586.6997161496</v>
+      <c r="F18" t="n">
+        <v>545061.6723662416</v>
       </c>
     </row>
     <row r="19">
@@ -763,16 +752,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>459155.0227341652</v>
+        <v>423744.3346968889</v>
       </c>
       <c r="C19" t="n">
-        <v>474435.430379219</v>
+        <v>422842.5242701769</v>
       </c>
       <c r="D19" t="n">
+        <v>474434.2862945913</v>
+      </c>
+      <c r="E19" t="n">
         <v>502021.4353113277</v>
       </c>
-      <c r="E19" t="n">
-        <v>487447.4192343396</v>
+      <c r="F19" t="n">
+        <v>480826.334922481</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +772,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>439513.8305369616</v>
+        <v>409140.2818200588</v>
       </c>
       <c r="C20" t="n">
-        <v>374276.69072755</v>
+        <v>449883.8283303976</v>
       </c>
       <c r="D20" t="n">
+        <v>374277.387307853</v>
+      </c>
+      <c r="E20" t="n">
         <v>417450.2518580036</v>
       </c>
-      <c r="E20" t="n">
-        <v>398666.7520613219</v>
+      <c r="F20" t="n">
+        <v>399935.1266359431</v>
       </c>
     </row>
     <row r="21">
@@ -797,16 +792,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>415227.5505599976</v>
+        <v>463958.0047140121</v>
       </c>
       <c r="C21" t="n">
-        <v>430423.675516667</v>
+        <v>439062.2482887506</v>
       </c>
       <c r="D21" t="n">
+        <v>430423.2483639616</v>
+      </c>
+      <c r="E21" t="n">
         <v>445178.3759185863</v>
       </c>
-      <c r="E21" t="n">
-        <v>437066.1611253707</v>
+      <c r="F21" t="n">
+        <v>440212.599855483</v>
       </c>
     </row>
     <row r="22">
@@ -814,16 +812,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>441324.1491994858</v>
+        <v>420391.1986789703</v>
       </c>
       <c r="C22" t="n">
-        <v>453691.4458850516</v>
+        <v>392315.5787990093</v>
       </c>
       <c r="D22" t="n">
+        <v>453689.9287241024</v>
+      </c>
+      <c r="E22" t="n">
         <v>462857.8305804161</v>
       </c>
-      <c r="E22" t="n">
-        <v>457685.9495234428</v>
+      <c r="F22" t="n">
+        <v>452657.3932986993</v>
       </c>
     </row>
     <row r="23">
@@ -831,16 +832,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>391679.6496317387</v>
+        <v>468738.8379821777</v>
       </c>
       <c r="C23" t="n">
-        <v>537835.8753237516</v>
+        <v>430419.4873092175</v>
       </c>
       <c r="D23" t="n">
+        <v>537834.2836321928</v>
+      </c>
+      <c r="E23" t="n">
         <v>530891.9215508865</v>
       </c>
-      <c r="E23" t="n">
-        <v>527787.1954966187</v>
+      <c r="F23" t="n">
+        <v>524658.7558287496</v>
       </c>
     </row>
     <row r="24">
@@ -848,16 +852,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>440237.1455601454</v>
+        <v>429785.0331107378</v>
       </c>
       <c r="C24" t="n">
-        <v>455242.570714366</v>
+        <v>397036.0592458248</v>
       </c>
       <c r="D24" t="n">
-        <v>487080.3148815041</v>
+        <v>455241.4460252578</v>
       </c>
       <c r="E24" t="n">
-        <v>470378.8151678313</v>
+        <v>487080.314881504</v>
+      </c>
+      <c r="F24" t="n">
+        <v>465325.578937697</v>
       </c>
     </row>
     <row r="25">
@@ -865,16 +872,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>437977.2032145262</v>
+        <v>444450.817058444</v>
       </c>
       <c r="C25" t="n">
-        <v>392555.77298608</v>
+        <v>443961.7560950518</v>
       </c>
       <c r="D25" t="n">
+        <v>392554.9188266798</v>
+      </c>
+      <c r="E25" t="n">
         <v>446431.882372366</v>
       </c>
-      <c r="E25" t="n">
-        <v>421367.0207022723</v>
+      <c r="F25" t="n">
+        <v>423463.8788522301</v>
       </c>
     </row>
     <row r="26">
@@ -882,16 +892,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>445228.8751856089</v>
+        <v>371434.9775806665</v>
       </c>
       <c r="C26" t="n">
-        <v>490017.8009244877</v>
+        <v>407458.9624772072</v>
       </c>
       <c r="D26" t="n">
+        <v>490016.6498512135</v>
+      </c>
+      <c r="E26" t="n">
         <v>516426.4131505235</v>
       </c>
-      <c r="E26" t="n">
-        <v>501112.5350910784</v>
+      <c r="F26" t="n">
+        <v>489137.7676751958</v>
       </c>
     </row>
     <row r="27">
@@ -899,16 +912,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>451843.6024371386</v>
+        <v>435759.1403106451</v>
       </c>
       <c r="C27" t="n">
-        <v>441819.6796264474</v>
+        <v>482413.1769243479</v>
       </c>
       <c r="D27" t="n">
+        <v>441818.570146181</v>
+      </c>
+      <c r="E27" t="n">
         <v>479200.3440425262</v>
       </c>
-      <c r="E27" t="n">
-        <v>460839.2814179112</v>
+      <c r="F27" t="n">
+        <v>460093.7345503834</v>
       </c>
     </row>
     <row r="28">
@@ -916,16 +932,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>476023.9989987612</v>
+        <v>447783.2067940235</v>
       </c>
       <c r="C28" t="n">
-        <v>486951.0037053521</v>
+        <v>457027.4407026768</v>
       </c>
       <c r="D28" t="n">
+        <v>486950.2254035133</v>
+      </c>
+      <c r="E28" t="n">
         <v>513381.0169881912</v>
       </c>
-      <c r="E28" t="n">
-        <v>499585.3874372054</v>
+      <c r="F28" t="n">
+        <v>494638.4239101708</v>
       </c>
     </row>
     <row r="29">
@@ -933,16 +952,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>456425.0247607231</v>
+        <v>411900.7463619709</v>
       </c>
       <c r="C29" t="n">
-        <v>556816.0190279636</v>
+        <v>463640.9106037617</v>
       </c>
       <c r="D29" t="n">
+        <v>556815.8486504663</v>
+      </c>
+      <c r="E29" t="n">
         <v>568301.3849021596</v>
       </c>
-      <c r="E29" t="n">
-        <v>557987.690549835</v>
+      <c r="F29" t="n">
+        <v>546566.012803721</v>
       </c>
     </row>
     <row r="30">
@@ -950,16 +972,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>431604.8544410467</v>
+        <v>439895.9925327301</v>
       </c>
       <c r="C30" t="n">
-        <v>552343.5875991565</v>
+        <v>441758.0318222046</v>
       </c>
       <c r="D30" t="n">
-        <v>584981.9038044765</v>
+        <v>552345.0518363847</v>
       </c>
       <c r="E30" t="n">
-        <v>563103.1366991582</v>
+        <v>584981.9038044766</v>
+      </c>
+      <c r="F30" t="n">
+        <v>553638.7255370016</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +992,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>442987.7689168453</v>
+        <v>460848.9155814648</v>
       </c>
       <c r="C31" t="n">
-        <v>474499.0571965544</v>
+        <v>433652.4496403933</v>
       </c>
       <c r="D31" t="n">
+        <v>474497.9658730985</v>
+      </c>
+      <c r="E31" t="n">
         <v>513652.8417002779</v>
       </c>
-      <c r="E31" t="n">
-        <v>492523.8641532899</v>
+      <c r="F31" t="n">
+        <v>489592.2132155645</v>
       </c>
     </row>
     <row r="32">
@@ -984,16 +1012,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>452355.0780901909</v>
+        <v>452548.2990018129</v>
       </c>
       <c r="C32" t="n">
-        <v>374329.104858525</v>
+        <v>428799.2703620195</v>
       </c>
       <c r="D32" t="n">
+        <v>374329.8528129966</v>
+      </c>
+      <c r="E32" t="n">
         <v>428205.8075940275</v>
       </c>
-      <c r="E32" t="n">
-        <v>404612.8906179094</v>
+      <c r="F32" t="n">
+        <v>407477.4887895538</v>
       </c>
     </row>
     <row r="33">
@@ -1001,16 +1032,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>421080.2267227173</v>
+        <v>475296.3799682856</v>
       </c>
       <c r="C33" t="n">
-        <v>430470.4884669329</v>
+        <v>451600.9579811096</v>
       </c>
       <c r="D33" t="n">
+        <v>430470.0831395212</v>
+      </c>
+      <c r="E33" t="n">
         <v>455418.1332149423</v>
       </c>
-      <c r="E33" t="n">
-        <v>442437.9706740532</v>
+      <c r="F33" t="n">
+        <v>446340.1569191866</v>
       </c>
     </row>
     <row r="34">
@@ -1018,16 +1052,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>416175.5202559233</v>
+        <v>452908.8684216738</v>
       </c>
       <c r="C34" t="n">
-        <v>453728.8477948285</v>
+        <v>462770.485578537</v>
       </c>
       <c r="D34" t="n">
+        <v>453727.3254153945</v>
+      </c>
+      <c r="E34" t="n">
         <v>474915.7304797128</v>
       </c>
-      <c r="E34" t="n">
-        <v>462556.669034483</v>
+      <c r="F34" t="n">
+        <v>463715.8218720975</v>
       </c>
     </row>
     <row r="35">
@@ -1035,16 +1072,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>488108.8777199984</v>
+        <v>457113.5208485126</v>
       </c>
       <c r="C35" t="n">
-        <v>537861.0797997668</v>
+        <v>443895.6484774351</v>
       </c>
       <c r="D35" t="n">
+        <v>537859.4730239806</v>
+      </c>
+      <c r="E35" t="n">
         <v>544766.8253263182</v>
       </c>
-      <c r="E35" t="n">
-        <v>539044.6255386166</v>
+      <c r="F35" t="n">
+        <v>530634.1498716552</v>
       </c>
     </row>
     <row r="36">
@@ -1052,16 +1092,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>460938.6952391863</v>
+        <v>474196.585206151</v>
       </c>
       <c r="C36" t="n">
-        <v>455256.9372583676</v>
+        <v>456687.2065082788</v>
       </c>
       <c r="D36" t="n">
+        <v>455255.8026702736</v>
+      </c>
+      <c r="E36" t="n">
         <v>497111.4145195366</v>
       </c>
-      <c r="E36" t="n">
-        <v>476302.6134212253</v>
+      <c r="F36" t="n">
+        <v>475954.1284826562</v>
       </c>
     </row>
     <row r="37">
@@ -1069,16 +1112,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>460649.1661194563</v>
+        <v>468227.8701052666</v>
       </c>
       <c r="C37" t="n">
-        <v>392563.1672092957</v>
+        <v>457509.1993615627</v>
       </c>
       <c r="D37" t="n">
-        <v>457287.7664077113</v>
+        <v>392562.313425776</v>
       </c>
       <c r="E37" t="n">
-        <v>427786.2681448922</v>
+        <v>457287.7664077112</v>
+      </c>
+      <c r="F37" t="n">
+        <v>430896.1457609291</v>
       </c>
     </row>
     <row r="38">
@@ -1086,16 +1132,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>449640.1199624538</v>
+        <v>445949.6513280869</v>
       </c>
       <c r="C38" t="n">
-        <v>490021.9639343567</v>
+        <v>416776.4612290859</v>
       </c>
       <c r="D38" t="n">
+        <v>490020.8202120399</v>
+      </c>
+      <c r="E38" t="n">
         <v>526252.3640622047</v>
       </c>
-      <c r="E38" t="n">
-        <v>506194.1799518576</v>
+      <c r="F38" t="n">
+        <v>499993.4336363827</v>
       </c>
     </row>
     <row r="39">
@@ -1103,16 +1152,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>466544.6405569315</v>
+        <v>433302.8336772919</v>
       </c>
       <c r="C39" t="n">
-        <v>441822.8028424711</v>
+        <v>465111.0434315205</v>
       </c>
       <c r="D39" t="n">
+        <v>441821.7017419816</v>
+      </c>
+      <c r="E39" t="n">
         <v>490531.3076392346</v>
       </c>
-      <c r="E39" t="n">
-        <v>467132.6206499779</v>
+      <c r="F39" t="n">
+        <v>464355.3442168841</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,7 +1408,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>33645.14725096367</v>
+        <v>35525.99341368655</v>
       </c>
       <c r="S2" t="n">
         <v>19305.06229460701</v>
@@ -1397,18 +1449,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weighted_ensemble</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>combo</t>
+          <t>arima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
+          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1418,7 +1470,9 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -1426,19 +1480,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>44751.14699903133</v>
+        <v>45446.14624419974</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07965798126534678</v>
+        <v>0.08444963439406128</v>
       </c>
       <c r="M3" t="n">
-        <v>37338.96922126654</v>
+        <v>39018.18701493634</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4779906108467389</v>
+        <v>0.46165077044555</v>
       </c>
       <c r="O3" t="n">
-        <v>381447.0466186213</v>
+        <v>366323.114972033</v>
       </c>
       <c r="P3" t="n">
         <v>395074</v>
@@ -1447,45 +1501,39 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>21438.85519055606</v>
+        <v>65708.77992350237</v>
       </c>
       <c r="S3" t="n">
-        <v>16237.94101433228</v>
+        <v>33087.36046373296</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03154656475634159</v>
+        <v>0.06172898561116283</v>
       </c>
       <c r="U3" t="n">
-        <v>11650.02274775152</v>
+        <v>18359.50208434222</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9569080967244035</v>
+        <v>0.8598288580565563</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>['prophet', 'arima', 'lstm']</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>(0.4967000025543045, 0.45814545175894045, 0.045154545686754956)</t>
-        </is>
-      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>44751.14699903133</v>
+        <v>45446.14624419974</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.07965798126534678</v>
+        <v>0.08444963439406128</v>
       </c>
       <c r="AE3" t="n">
-        <v>37338.96922126654</v>
+        <v>39018.18701493634</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4779906108467389</v>
+        <v>0.46165077044555</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1494,18 +1542,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>weighted_ensemble</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arima</t>
+          <t>combo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'order': (4, 0, 2), 'seasonal_order': (0, 1, 2, 12), 'trend': None}</t>
+          <t>{'how': 'weighted', 'determine_best_by': 'TestSetMAPE'}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1515,9 +1563,7 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -1525,19 +1571,19 @@
         <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>45446.15300213042</v>
+        <v>49244.47638972209</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08444965100958637</v>
+        <v>0.08784676798917167</v>
       </c>
       <c r="M4" t="n">
-        <v>39018.1945336659</v>
+        <v>41175.98882931354</v>
       </c>
       <c r="N4" t="n">
-        <v>0.461650610338375</v>
+        <v>0.3679011204438247</v>
       </c>
       <c r="O4" t="n">
-        <v>366323.1025829923</v>
+        <v>377203.6948909077</v>
       </c>
       <c r="P4" t="n">
         <v>395074</v>
@@ -1546,39 +1592,45 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>49444.08046445571</v>
+        <v>25310.30506634342</v>
       </c>
       <c r="S4" t="n">
-        <v>33087.89275824317</v>
+        <v>17443.86488636235</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06172960993904969</v>
+        <v>0.03312760673077787</v>
       </c>
       <c r="U4" t="n">
-        <v>18359.68278607337</v>
+        <v>12482.27206888901</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8598243480002409</v>
+        <v>0.9502699168143964</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['prophet', 'arima', 'lstm_reg', 'lstm']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>(0.45678924120242465, 0.4214506229449124, 0.08023384119789707, 0.04152629465476588)</t>
+        </is>
+      </c>
       <c r="AC4" t="n">
-        <v>45446.15300213042</v>
+        <v>49244.47638972209</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08444965100958637</v>
+        <v>0.08784676798917167</v>
       </c>
       <c r="AE4" t="n">
-        <v>39018.1945336659</v>
+        <v>41175.98882931354</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.461650610338375</v>
+        <v>0.3679011204438247</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1587,7 +1639,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1598,7 +1650,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 10, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 10, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1622,19 +1674,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>145549.8886416626</v>
+        <v>131528.1602995399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2500590555330862</v>
+        <v>0.2337292491206818</v>
       </c>
       <c r="M5" t="n">
-        <v>114342.653729967</v>
+        <v>106611.1718030451</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.521965990177504</v>
+        <v>-3.509282704154794</v>
       </c>
       <c r="O5" t="n">
-        <v>278237.6056236029</v>
+        <v>331347.9655709267</v>
       </c>
       <c r="P5" t="n">
         <v>395074</v>
@@ -1643,19 +1695,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>83564.15404035393</v>
+        <v>108406.9525056262</v>
       </c>
       <c r="S5" t="n">
-        <v>59201.10272577848</v>
+        <v>59083.51889006834</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1201749033438224</v>
+        <v>0.1341218544215612</v>
       </c>
       <c r="U5" t="n">
-        <v>46072.58058377375</v>
+        <v>47456.61404217185</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4272127396548653</v>
+        <v>0.4294857931963739</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1666,18 +1718,115 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>145549.8886416626</v>
+        <v>131528.1602995399</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2500590555330862</v>
+        <v>0.2337292491206818</v>
       </c>
       <c r="AE5" t="n">
-        <v>114342.653729967</v>
+        <v>106611.1718030451</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.521965990177504</v>
+        <v>-3.509282704154794</v>
       </c>
       <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rnn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'lags': 36, 'epochs': 10, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>230</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>145454.1347386117</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.250663491350466</v>
+      </c>
+      <c r="M6" t="n">
+        <v>112420.3976199315</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-4.514702832852132</v>
+      </c>
+      <c r="O6" t="n">
+        <v>272893.267460227</v>
+      </c>
+      <c r="P6" t="n">
+        <v>395074</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>106950.1832011359</v>
+      </c>
+      <c r="S6" t="n">
+        <v>60652.21463337039</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1258387453905273</v>
+      </c>
+      <c r="U6" t="n">
+        <v>47114.94399284853</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3987887705481841</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>145454.1347386117</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.250663491350466</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>112420.3976199315</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-4.514702832852132</v>
+      </c>
+      <c r="AG6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4998,7 +5147,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>487080.3148815041</v>
+        <v>487080.314881504</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5076,7 +5225,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>584981.9038044765</v>
+        <v>584981.9038044766</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5167,7 +5316,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>457287.7664077113</v>
+        <v>457287.7664077112</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5212,7 +5361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5238,15 +5387,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>weighted_ensemble</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>lstm</t>
         </is>
@@ -5263,13 +5417,16 @@
         <v>443411.126171467</v>
       </c>
       <c r="D2" t="n">
-        <v>445426.5509330689</v>
+        <v>454458.7635146558</v>
       </c>
       <c r="E2" t="n">
-        <v>454458.7607974557</v>
+        <v>444780.2334709312</v>
       </c>
       <c r="F2" t="n">
-        <v>375953.9355683327</v>
+        <v>385913.7638750076</v>
+      </c>
+      <c r="G2" t="n">
+        <v>475350.1158146858</v>
       </c>
     </row>
     <row r="3">
@@ -5283,13 +5440,16 @@
         <v>461569.1959499707</v>
       </c>
       <c r="D3" t="n">
-        <v>460351.410622619</v>
+        <v>470928.2172833594</v>
       </c>
       <c r="E3" t="n">
-        <v>470928.2104958872</v>
+        <v>449741.6825696399</v>
       </c>
       <c r="F3" t="n">
-        <v>339641.8198513985</v>
+        <v>369001.7877280712</v>
+      </c>
+      <c r="G3" t="n">
+        <v>260616.038692832</v>
       </c>
     </row>
     <row r="4">
@@ -5303,13 +5463,16 @@
         <v>405461.704916404</v>
       </c>
       <c r="D4" t="n">
-        <v>399928.2563787445</v>
+        <v>391747.9082187068</v>
       </c>
       <c r="E4" t="n">
-        <v>391747.9074246186</v>
+        <v>396747.6818781986</v>
       </c>
       <c r="F4" t="n">
-        <v>422059.4892179966</v>
+        <v>375166.2450015545</v>
+      </c>
+      <c r="G4" t="n">
+        <v>393334.1177723408</v>
       </c>
     </row>
     <row r="5">
@@ -5320,16 +5483,19 @@
         <v>333479</v>
       </c>
       <c r="C5" t="n">
-        <v>321562.5200228271</v>
+        <v>321562.520022827</v>
       </c>
       <c r="D5" t="n">
-        <v>321163.6508162794</v>
+        <v>315533.1331239149</v>
       </c>
       <c r="E5" t="n">
-        <v>315533.1317671346</v>
+        <v>318686.2389228117</v>
       </c>
       <c r="F5" t="n">
-        <v>373904.2624485493</v>
+        <v>348116.5743603706</v>
+      </c>
+      <c r="G5" t="n">
+        <v>262185.0572640896</v>
       </c>
     </row>
     <row r="6">
@@ -5343,13 +5509,16 @@
         <v>342001.5982973963</v>
       </c>
       <c r="D6" t="n">
-        <v>342245.7073264261</v>
+        <v>339359.02615217</v>
       </c>
       <c r="E6" t="n">
-        <v>339359.0250663427</v>
+        <v>342346.41365336</v>
       </c>
       <c r="F6" t="n">
-        <v>374219.6599266529</v>
+        <v>350264.0149872303</v>
+      </c>
+      <c r="G6" t="n">
+        <v>361160.6302013397</v>
       </c>
     </row>
     <row r="7">
@@ -5363,13 +5532,16 @@
         <v>362560.1693955543</v>
       </c>
       <c r="D7" t="n">
-        <v>357020.6887049989</v>
+        <v>359159.0026022624</v>
       </c>
       <c r="E7" t="n">
-        <v>359159.0015294025</v>
+        <v>345347.4212064921</v>
       </c>
       <c r="F7" t="n">
-        <v>274390.7272838354</v>
+        <v>177110.0053035021</v>
+      </c>
+      <c r="G7" t="n">
+        <v>340888.4715740681</v>
       </c>
     </row>
     <row r="8">
@@ -5383,13 +5555,16 @@
         <v>421637.6141827931</v>
       </c>
       <c r="D8" t="n">
-        <v>429658.5581518175</v>
+        <v>429829.2384443466</v>
       </c>
       <c r="E8" t="n">
-        <v>429829.235957252</v>
+        <v>392684.1355719907</v>
       </c>
       <c r="F8" t="n">
-        <v>516157.2167081833</v>
+        <v>149370.130507648</v>
+      </c>
+      <c r="G8" t="n">
+        <v>167322.1786733046</v>
       </c>
     </row>
     <row r="9">
@@ -5403,13 +5578,16 @@
         <v>385126.6448134776</v>
       </c>
       <c r="D9" t="n">
-        <v>385945.8199887975</v>
+        <v>388580.6236324051</v>
       </c>
       <c r="E9" t="n">
-        <v>388580.620469865</v>
+        <v>373953.6366978834</v>
       </c>
       <c r="F9" t="n">
-        <v>368223.6276192665</v>
+        <v>294130.1350951195</v>
+      </c>
+      <c r="G9" t="n">
+        <v>256829.8590189219</v>
       </c>
     </row>
     <row r="10">
@@ -5423,13 +5601,16 @@
         <v>354916.9091541613</v>
       </c>
       <c r="D10" t="n">
-        <v>353307.0947680947</v>
+        <v>343768.2785036436</v>
       </c>
       <c r="E10" t="n">
-        <v>343768.2757448051</v>
+        <v>344793.0701402437</v>
       </c>
       <c r="F10" t="n">
-        <v>432381.5641641617</v>
+        <v>262008.1726779938</v>
+      </c>
+      <c r="G10" t="n">
+        <v>403781.9269440174</v>
       </c>
     </row>
     <row r="11">
@@ -5443,13 +5624,16 @@
         <v>416408.4620430165</v>
       </c>
       <c r="D11" t="n">
-        <v>416656.5595861331</v>
+        <v>423162.8946007421</v>
       </c>
       <c r="E11" t="n">
-        <v>423162.8896538133</v>
+        <v>418562.0211026518</v>
       </c>
       <c r="F11" t="n">
-        <v>353371.3369271755</v>
+        <v>368888.9214055538</v>
+      </c>
+      <c r="G11" t="n">
+        <v>491531.3342804909</v>
       </c>
     </row>
     <row r="12">
@@ -5463,13 +5647,16 @@
         <v>383231.9970069904</v>
       </c>
       <c r="D12" t="n">
-        <v>384619.4099581661</v>
+        <v>391278.9790254072</v>
       </c>
       <c r="E12" t="n">
-        <v>391278.9725957551</v>
+        <v>388357.6226833174</v>
       </c>
       <c r="F12" t="n">
-        <v>332311.9339156151</v>
+        <v>377916.0498363972</v>
+      </c>
+      <c r="G12" t="n">
+        <v>435265.0274255276</v>
       </c>
     </row>
     <row r="13">
@@ -5483,13 +5670,16 @@
         <v>413235.5695056491</v>
       </c>
       <c r="D13" t="n">
-        <v>421299.8877934858</v>
+        <v>436430.011997146</v>
       </c>
       <c r="E13" t="n">
-        <v>436430.0005445514</v>
+        <v>420693.98878603</v>
       </c>
       <c r="F13" t="n">
-        <v>356494.7749786377</v>
+        <v>389958.265362978</v>
+      </c>
+      <c r="G13" t="n">
+        <v>402416.7513048649</v>
       </c>
     </row>
     <row r="14">
@@ -5503,13 +5693,16 @@
         <v>451993.5849226756</v>
       </c>
       <c r="D14" t="n">
-        <v>462994.5580421672</v>
+        <v>459656.7221104982</v>
       </c>
       <c r="E14" t="n">
-        <v>459656.7169888857</v>
+        <v>442322.7323064876</v>
       </c>
       <c r="F14" t="n">
-        <v>617871.5470018387</v>
+        <v>361485.5759847164</v>
+      </c>
+      <c r="G14" t="n">
+        <v>316207.7800893784</v>
       </c>
     </row>
     <row r="15">
@@ -5523,13 +5716,16 @@
         <v>469172.6462442987</v>
       </c>
       <c r="D15" t="n">
-        <v>468740.327998227</v>
+        <v>476926.5254205023</v>
       </c>
       <c r="E15" t="n">
-        <v>476926.5186659442</v>
+        <v>454692.2540995671</v>
       </c>
       <c r="F15" t="n">
-        <v>380926.3895504475</v>
+        <v>346331.7373189926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>279117.8522859812</v>
       </c>
     </row>
     <row r="16">
@@ -5543,13 +5739,16 @@
         <v>413502.3094877188</v>
       </c>
       <c r="D16" t="n">
-        <v>410706.2548605053</v>
+        <v>398792.1011427606</v>
       </c>
       <c r="E16" t="n">
-        <v>398792.099704044</v>
+        <v>395196.9771333109</v>
       </c>
       <c r="F16" t="n">
-        <v>500832.6329274178</v>
+        <v>226887.5203716159</v>
+      </c>
+      <c r="G16" t="n">
+        <v>482545.6829738617</v>
       </c>
     </row>
     <row r="17">
@@ -5563,13 +5762,16 @@
         <v>335757.2992728552</v>
       </c>
       <c r="D17" t="n">
-        <v>332715.8795742306</v>
+        <v>322541.2706627597</v>
       </c>
       <c r="E17" t="n">
-        <v>322541.2678179986</v>
+        <v>327819.2330707561</v>
       </c>
       <c r="F17" t="n">
-        <v>402493.5482349396</v>
+        <v>412581.9841823578</v>
+      </c>
+      <c r="G17" t="n">
+        <v>130294.6556260586</v>
       </c>
     </row>
     <row r="18">
@@ -5583,13 +5785,16 @@
         <v>351010.4420337112</v>
       </c>
       <c r="D18" t="n">
-        <v>350379.2598403556</v>
+        <v>345449.8123124092</v>
       </c>
       <c r="E18" t="n">
-        <v>345449.8097636063</v>
+        <v>341232.1432367385</v>
       </c>
       <c r="F18" t="n">
-        <v>393451.2674467564</v>
+        <v>366441.1821160316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>142158.7841047347</v>
       </c>
     </row>
     <row r="19">
@@ -5603,13 +5808,16 @@
         <v>372871.9619812834</v>
       </c>
       <c r="D19" t="n">
-        <v>370649.3245763312</v>
+        <v>365218.462664695</v>
       </c>
       <c r="E19" t="n">
-        <v>365218.4600322582</v>
+        <v>368885.8590160209</v>
       </c>
       <c r="F19" t="n">
-        <v>401302.7585599422</v>
+        <v>344515.9352128506</v>
+      </c>
+      <c r="G19" t="n">
+        <v>409344.805290699</v>
       </c>
     </row>
     <row r="20">
@@ -5623,13 +5831,16 @@
         <v>432094.988607766</v>
       </c>
       <c r="D20" t="n">
-        <v>417421.6848199012</v>
+        <v>434633.2143393638</v>
       </c>
       <c r="E20" t="n">
-        <v>434633.210398759</v>
+        <v>416286.9216865511</v>
       </c>
       <c r="F20" t="n">
-        <v>81384.37207710743</v>
+        <v>242640.2474837303</v>
+      </c>
+      <c r="G20" t="n">
+        <v>391707.9967660904</v>
       </c>
     </row>
     <row r="21">
@@ -5643,13 +5854,16 @@
         <v>392164.8343249017</v>
       </c>
       <c r="D21" t="n">
-        <v>391965.4313593358</v>
+        <v>392924.9342466789</v>
       </c>
       <c r="E21" t="n">
-        <v>392924.92946448</v>
+        <v>389164.1397962469</v>
       </c>
       <c r="F21" t="n">
-        <v>380036.7730557919</v>
+        <v>357797.7170841694</v>
+      </c>
+      <c r="G21" t="n">
+        <v>378591.9092240334</v>
       </c>
     </row>
     <row r="22">
@@ -5663,13 +5877,16 @@
         <v>365316.3399208492</v>
       </c>
       <c r="D22" t="n">
-        <v>348986.0024393262</v>
+        <v>347726.8752354097</v>
       </c>
       <c r="E22" t="n">
-        <v>347726.8710747825</v>
+        <v>357048.9307718295</v>
       </c>
       <c r="F22" t="n">
-        <v>182127.6441863179</v>
+        <v>369047.1020216942</v>
+      </c>
+      <c r="G22" t="n">
+        <v>337535.1067621708</v>
       </c>
     </row>
     <row r="23">
@@ -5683,13 +5900,16 @@
         <v>427649.2369187173</v>
       </c>
       <c r="D23" t="n">
-        <v>416558.2987622353</v>
+        <v>426925.7752459442</v>
       </c>
       <c r="E23" t="n">
-        <v>426925.7682162392</v>
+        <v>420437.4656193334</v>
       </c>
       <c r="F23" t="n">
-        <v>189367.927754581</v>
+        <v>377372.0819926262</v>
+      </c>
+      <c r="G23" t="n">
+        <v>358465.6344234943</v>
       </c>
     </row>
     <row r="24">
@@ -5703,13 +5923,16 @@
         <v>392758.585211982</v>
       </c>
       <c r="D24" t="n">
-        <v>392308.3503551373</v>
+        <v>393721.2342804577</v>
       </c>
       <c r="E24" t="n">
-        <v>393721.225827291</v>
+        <v>384239.3379234805</v>
       </c>
       <c r="F24" t="n">
-        <v>373020.4998681545</v>
+        <v>333520.160402298</v>
+      </c>
+      <c r="G24" t="n">
+        <v>292291.3992090225</v>
       </c>
     </row>
     <row r="25">
@@ -5723,13 +5946,16 @@
         <v>414269.9569060401</v>
       </c>
       <c r="D25" t="n">
-        <v>422357.109366807</v>
+        <v>436264.1156165041</v>
       </c>
       <c r="E25" t="n">
-        <v>436264.1015193505</v>
+        <v>419692.8284073346</v>
       </c>
       <c r="F25" t="n">
-        <v>370213.1553394794</v>
+        <v>468407.0165553093</v>
+      </c>
+      <c r="G25" t="n">
+        <v>217040.5940820575</v>
       </c>
     </row>
     <row r="26">
@@ -5743,13 +5969,16 @@
         <v>465432.7059714758</v>
       </c>
       <c r="D26" t="n">
-        <v>460901.5469176866</v>
+        <v>464576.5592228039</v>
       </c>
       <c r="E26" t="n">
-        <v>464576.5525253778</v>
+        <v>448916.1934598378</v>
       </c>
       <c r="F26" t="n">
-        <v>373771.5856235027</v>
+        <v>305817.4392223358</v>
+      </c>
+      <c r="G26" t="n">
+        <v>384781.5668845177</v>
       </c>
     </row>
     <row r="27">
@@ -5763,13 +5992,16 @@
         <v>485756.8757061925</v>
       </c>
       <c r="D27" t="n">
-        <v>477578.8722145346</v>
+        <v>482592.2832690969</v>
       </c>
       <c r="E27" t="n">
-        <v>482592.2754314698</v>
+        <v>476877.3249278931</v>
       </c>
       <c r="F27" t="n">
-        <v>336754.0196962357</v>
+        <v>437502.0614962578</v>
+      </c>
+      <c r="G27" t="n">
+        <v>397278.9063975811</v>
       </c>
     </row>
     <row r="28">
@@ -5783,13 +6015,16 @@
         <v>429115.6173426721</v>
       </c>
       <c r="D28" t="n">
-        <v>414669.7778281322</v>
+        <v>404670.0056854853</v>
       </c>
       <c r="E28" t="n">
-        <v>404670.0026317368</v>
+        <v>414063.4696619175</v>
       </c>
       <c r="F28" t="n">
-        <v>357224.9080042839</v>
+        <v>375136.3150801659</v>
+      </c>
+      <c r="G28" t="n">
+        <v>419036.1566698551</v>
       </c>
     </row>
     <row r="29">
@@ -5803,13 +6038,16 @@
         <v>332829.1395482615</v>
       </c>
       <c r="D29" t="n">
-        <v>328002.723065307</v>
+        <v>328419.3810184805</v>
       </c>
       <c r="E29" t="n">
-        <v>328419.3763697555</v>
+        <v>336503.4668186369</v>
       </c>
       <c r="F29" t="n">
-        <v>270684.70875597</v>
+        <v>358618.3894605637</v>
+      </c>
+      <c r="G29" t="n">
+        <v>416237.7893328667</v>
       </c>
     </row>
     <row r="30">
@@ -5823,13 +6061,16 @@
         <v>363344.8395846998</v>
       </c>
       <c r="D30" t="n">
-        <v>359567.1894135665</v>
+        <v>351286.2676700093</v>
       </c>
       <c r="E30" t="n">
-        <v>351286.263228898</v>
+        <v>354146.5167315323</v>
       </c>
       <c r="F30" t="n">
-        <v>402032.6774179935</v>
+        <v>303578.3080939054</v>
+      </c>
+      <c r="G30" t="n">
+        <v>379697.5672800541</v>
       </c>
     </row>
     <row r="31">
@@ -5843,13 +6084,16 @@
         <v>381392.7424635316</v>
       </c>
       <c r="D31" t="n">
-        <v>380519.1391773573</v>
+        <v>370993.3152592115</v>
       </c>
       <c r="E31" t="n">
-        <v>370993.3106960059</v>
+        <v>371714.9282871464</v>
       </c>
       <c r="F31" t="n">
-        <v>467560.1264958382</v>
+        <v>359459.675467968</v>
+      </c>
+      <c r="G31" t="n">
+        <v>296261.2632901669</v>
       </c>
     </row>
     <row r="32">
@@ -5863,13 +6107,16 @@
         <v>439970.9007663491</v>
       </c>
       <c r="D32" t="n">
-        <v>437567.7121163552</v>
+        <v>440350.2997595286</v>
       </c>
       <c r="E32" t="n">
-        <v>440350.2938692857</v>
+        <v>432511.3113757239</v>
       </c>
       <c r="F32" t="n">
-        <v>382900.1045632362</v>
+        <v>313760.1657309532</v>
+      </c>
+      <c r="G32" t="n">
+        <v>500339.5120401382</v>
       </c>
     </row>
     <row r="33">
@@ -5883,13 +6130,16 @@
         <v>410490.981457045</v>
       </c>
       <c r="D33" t="n">
-        <v>394703.3948970222</v>
+        <v>398577.1365139891</v>
       </c>
       <c r="E33" t="n">
-        <v>398577.1297680287</v>
+        <v>406598.2454077452</v>
       </c>
       <c r="F33" t="n">
-        <v>181736.3912231922</v>
+        <v>363037.2023625374</v>
+      </c>
+      <c r="G33" t="n">
+        <v>529349.6549978256</v>
       </c>
     </row>
     <row r="34">
@@ -5903,13 +6153,16 @@
         <v>373743.3800095718</v>
       </c>
       <c r="D34" t="n">
-        <v>373664.3111119969</v>
+        <v>353321.4012317979</v>
       </c>
       <c r="E34" t="n">
-        <v>353321.3950973975</v>
+        <v>352848.7907134844</v>
       </c>
       <c r="F34" t="n">
-        <v>579197.1270184517</v>
+        <v>197941.3644447327</v>
+      </c>
+      <c r="G34" t="n">
+        <v>417511.7295765877</v>
       </c>
     </row>
     <row r="35">
@@ -5923,13 +6176,16 @@
         <v>437056.0736547119</v>
       </c>
       <c r="D35" t="n">
-        <v>432693.7327170387</v>
+        <v>432456.4165961769</v>
       </c>
       <c r="E35" t="n">
-        <v>432456.4075820218</v>
+        <v>427152.4016650908</v>
       </c>
       <c r="F35" t="n">
-        <v>387115.9222798347</v>
+        <v>411077.135576725</v>
+      </c>
+      <c r="G35" t="n">
+        <v>295440.8943178654</v>
       </c>
     </row>
     <row r="36">
@@ -5943,13 +6199,16 @@
         <v>402684.9768144935</v>
       </c>
       <c r="D36" t="n">
-        <v>400641.720864535</v>
+        <v>399195.422751599</v>
       </c>
       <c r="E36" t="n">
-        <v>399195.4123056469</v>
+        <v>384513.7785612849</v>
       </c>
       <c r="F36" t="n">
-        <v>392840.3900768757</v>
+        <v>226760.2334310412</v>
+      </c>
+      <c r="G36" t="n">
+        <v>340425.4947757721</v>
       </c>
     </row>
     <row r="37">
@@ -5963,13 +6222,16 @@
         <v>427110.3966262986</v>
       </c>
       <c r="D37" t="n">
-        <v>430661.0365517781</v>
+        <v>441675.700639364</v>
       </c>
       <c r="E37" t="n">
-        <v>441675.684539863</v>
+        <v>437432.2814769075</v>
       </c>
       <c r="F37" t="n">
-        <v>357961.6445307732</v>
+        <v>417015.039229393</v>
+      </c>
+      <c r="G37" t="n">
+        <v>547355.1173424721</v>
       </c>
     </row>
     <row r="38">
@@ -5983,13 +6245,16 @@
         <v>474200.0209882658</v>
       </c>
       <c r="D38" t="n">
-        <v>465711.2822620393</v>
+        <v>469932.9700560742</v>
       </c>
       <c r="E38" t="n">
-        <v>469932.9613488857</v>
+        <v>458311.2567900395</v>
       </c>
       <c r="F38" t="n">
-        <v>329501.3054838181</v>
+        <v>333464.6374533176</v>
+      </c>
+      <c r="G38" t="n">
+        <v>406804.8311569691</v>
       </c>
     </row>
     <row r="39">
@@ -6003,13 +6268,16 @@
         <v>493407.4759276186</v>
       </c>
       <c r="D39" t="n">
-        <v>479640.8215996078</v>
+        <v>487887.366268062</v>
       </c>
       <c r="E39" t="n">
-        <v>487887.3564119709</v>
+        <v>479237.8326341082</v>
       </c>
       <c r="F39" t="n">
-        <v>244536.9246279001</v>
+        <v>343932.2928221226</v>
+      </c>
+      <c r="G39" t="n">
+        <v>497014.3102669716</v>
       </c>
     </row>
     <row r="40">
@@ -6023,13 +6291,16 @@
         <v>436975.9763197164</v>
       </c>
       <c r="D40" t="n">
-        <v>416649.2501921037</v>
+        <v>409911.1714885664</v>
       </c>
       <c r="E40" t="n">
-        <v>409911.1664097595</v>
+        <v>405569.0879161407</v>
       </c>
       <c r="F40" t="n">
-        <v>261420.9697510004</v>
+        <v>347963.5337665081</v>
+      </c>
+      <c r="G40" t="n">
+        <v>127326.4043062329</v>
       </c>
     </row>
     <row r="41">
@@ -6043,13 +6314,16 @@
         <v>346894.1214470243</v>
       </c>
       <c r="D41" t="n">
-        <v>346455.8565504486</v>
+        <v>333600.4687910293</v>
       </c>
       <c r="E41" t="n">
-        <v>333600.4621093526</v>
+        <v>336434.472153698</v>
       </c>
       <c r="F41" t="n">
-        <v>472067.8903388977</v>
+        <v>295069.3403116465</v>
+      </c>
+      <c r="G41" t="n">
+        <v>330063.1027798653</v>
       </c>
     </row>
     <row r="42">
@@ -6063,13 +6337,16 @@
         <v>372421.7353714617</v>
       </c>
       <c r="D42" t="n">
-        <v>367695.8205257721</v>
+        <v>356414.6685488056</v>
       </c>
       <c r="E42" t="n">
-        <v>356414.6620689318</v>
+        <v>365543.886268427</v>
       </c>
       <c r="F42" t="n">
-        <v>430171.2475008965</v>
+        <v>303949.9156420231</v>
+      </c>
+      <c r="G42" t="n">
+        <v>501547.0603294373</v>
       </c>
     </row>
     <row r="43">
@@ -6083,13 +6360,16 @@
         <v>391708.9551379248</v>
       </c>
       <c r="D43" t="n">
-        <v>388747.5521921216</v>
+        <v>376062.8611899387</v>
       </c>
       <c r="E43" t="n">
-        <v>376062.854580853</v>
+        <v>378147.9668126263</v>
       </c>
       <c r="F43" t="n">
-        <v>484873.1493115425</v>
+        <v>381252.7452704906</v>
+      </c>
+      <c r="G43" t="n">
+        <v>244140.0363799334</v>
       </c>
     </row>
     <row r="44">
@@ -6103,13 +6383,16 @@
         <v>450571.7832284339</v>
       </c>
       <c r="D44" t="n">
-        <v>444508.6302410634</v>
+        <v>445368.3625878504</v>
       </c>
       <c r="E44" t="n">
-        <v>445368.3546466689</v>
+        <v>444753.4413671831</v>
       </c>
       <c r="F44" t="n">
-        <v>369091.0420732498</v>
+        <v>417850.8461158276</v>
+      </c>
+      <c r="G44" t="n">
+        <v>426489.9207119942</v>
       </c>
     </row>
     <row r="45">
@@ -6123,13 +6406,16 @@
         <v>417545.4424899386</v>
       </c>
       <c r="D45" t="n">
-        <v>408500.0790328674</v>
+        <v>403537.5412247317</v>
       </c>
       <c r="E45" t="n">
-        <v>403537.5324214606</v>
+        <v>402093.8308026686</v>
       </c>
       <c r="F45" t="n">
-        <v>359351.8956258297</v>
+        <v>408651.4555494785</v>
+      </c>
+      <c r="G45" t="n">
+        <v>204803.7492917776</v>
       </c>
     </row>
     <row r="46">
@@ -6143,13 +6429,16 @@
         <v>384034.9444168463</v>
       </c>
       <c r="D46" t="n">
-        <v>380777.377875152</v>
+        <v>358231.5006629398</v>
       </c>
       <c r="E46" t="n">
-        <v>358231.4924668933</v>
+        <v>364412.3554676507</v>
       </c>
       <c r="F46" t="n">
-        <v>573698.4097137451</v>
+        <v>298871.618249774</v>
+      </c>
+      <c r="G46" t="n">
+        <v>337926.0697066784</v>
       </c>
     </row>
     <row r="47">
@@ -6163,13 +6452,16 @@
         <v>446463.6158652085</v>
       </c>
       <c r="D47" t="n">
-        <v>439481.9177116388</v>
+        <v>437310.0290455736</v>
       </c>
       <c r="E47" t="n">
-        <v>437310.0179641169</v>
+        <v>433460.6142828994</v>
       </c>
       <c r="F47" t="n">
-        <v>384719.6902968884</v>
+        <v>377792.6357598305</v>
+      </c>
+      <c r="G47" t="n">
+        <v>358917.1532554626</v>
       </c>
     </row>
     <row r="48">
@@ -6183,13 +6475,16 @@
         <v>412664.2281573075</v>
       </c>
       <c r="D48" t="n">
-        <v>407247.310242</v>
+        <v>403999.8823325612</v>
       </c>
       <c r="E48" t="n">
-        <v>403999.8698156667</v>
+        <v>385359.2983811981</v>
       </c>
       <c r="F48" t="n">
-        <v>380610.2781803608</v>
+        <v>223654.2634240389</v>
+      </c>
+      <c r="G48" t="n">
+        <v>208255.4214915633</v>
       </c>
     </row>
     <row r="49">
@@ -6203,13 +6498,16 @@
         <v>439921.288412521</v>
       </c>
       <c r="D49" t="n">
-        <v>444591.0104563098</v>
+        <v>446424.8192321518</v>
       </c>
       <c r="E49" t="n">
-        <v>446424.8010567412</v>
+        <v>448236.3403528855</v>
       </c>
       <c r="F49" t="n">
-        <v>477352.0117135048</v>
+        <v>484011.0533528328</v>
+      </c>
+      <c r="G49" t="n">
+        <v>488965.9634394646</v>
       </c>
     </row>
     <row r="50">
@@ -6223,13 +6521,16 @@
         <v>482874.5116123249</v>
       </c>
       <c r="D50" t="n">
-        <v>472994.3729442882</v>
+        <v>474634.0633267714</v>
       </c>
       <c r="E50" t="n">
-        <v>474634.0525406993</v>
+        <v>463070.7420739759</v>
       </c>
       <c r="F50" t="n">
-        <v>347676.388563633</v>
+        <v>264850.6763868332</v>
+      </c>
+      <c r="G50" t="n">
+        <v>510858.2820749283</v>
       </c>
     </row>
     <row r="51">
@@ -6243,13 +6544,16 @@
         <v>501032.5813908274</v>
       </c>
       <c r="D51" t="n">
-        <v>484664.5780460307</v>
+        <v>492534.2399429058</v>
       </c>
       <c r="E51" t="n">
-        <v>492534.2280036251</v>
+        <v>483850.4682918782</v>
       </c>
       <c r="F51" t="n">
-        <v>224769.7776512504</v>
+        <v>384954.2038133144</v>
+      </c>
+      <c r="G51" t="n">
+        <v>397795.1573851109</v>
       </c>
     </row>
     <row r="52">
@@ -6263,13 +6567,16 @@
         <v>444925.0903572576</v>
       </c>
       <c r="D52" t="n">
-        <v>422158.9329172746</v>
+        <v>414511.1230580254</v>
       </c>
       <c r="E52" t="n">
-        <v>414511.1158936948</v>
+        <v>431476.1398816019</v>
       </c>
       <c r="F52" t="n">
-        <v>249327.2112232447</v>
+        <v>377665.6522233486</v>
+      </c>
+      <c r="G52" t="n">
+        <v>559684.1389732361</v>
       </c>
     </row>
     <row r="53">
@@ -6283,13 +6590,16 @@
         <v>361025.9054636739</v>
       </c>
       <c r="D53" t="n">
-        <v>351094.811953823</v>
+        <v>338147.2980851127</v>
       </c>
       <c r="E53" t="n">
-        <v>338147.289314241</v>
+        <v>356675.9642929561</v>
       </c>
       <c r="F53" t="n">
-        <v>373220.4788599014</v>
+        <v>493415.4023075104</v>
+      </c>
+      <c r="G53" t="n">
+        <v>232676.9701864123</v>
       </c>
     </row>
     <row r="54">
@@ -6303,13 +6613,16 @@
         <v>381464.9837382494</v>
       </c>
       <c r="D54" t="n">
-        <v>365293.7963771949</v>
+        <v>360915.6551482477</v>
       </c>
       <c r="E54" t="n">
-        <v>360915.6465774589</v>
+        <v>397930.5270736982</v>
       </c>
       <c r="F54" t="n">
-        <v>231832.1637991667</v>
+        <v>639910.8559966087</v>
+      </c>
+      <c r="G54" t="n">
+        <v>487180.3054223061</v>
       </c>
     </row>
     <row r="55">
@@ -6323,13 +6636,16 @@
         <v>402023.5548364178</v>
       </c>
       <c r="D55" t="n">
-        <v>394206.8000016391</v>
+        <v>380511.7992806552</v>
       </c>
       <c r="E55" t="n">
-        <v>380511.7905775924</v>
+        <v>379063.6648563814</v>
       </c>
       <c r="F55" t="n">
-        <v>447174.3162648678</v>
+        <v>235021.6279354095</v>
+      </c>
+      <c r="G55" t="n">
+        <v>390114.4470815659</v>
       </c>
     </row>
     <row r="56">
@@ -6343,13 +6659,16 @@
         <v>461100.9996236513</v>
       </c>
       <c r="D56" t="n">
-        <v>452287.2729257977</v>
+        <v>449772.5141011128</v>
       </c>
       <c r="E56" t="n">
-        <v>449772.5040648234</v>
+        <v>436354.9444003653</v>
       </c>
       <c r="F56" t="n">
-        <v>380851.5379760265</v>
+        <v>380021.2280578613</v>
+      </c>
+      <c r="G56" t="n">
+        <v>136816.9155614376</v>
       </c>
     </row>
     <row r="57">
@@ -6363,13 +6682,16 @@
         <v>424590.0302543045</v>
       </c>
       <c r="D57" t="n">
-        <v>409906.8892152085</v>
+        <v>407890.6949489577</v>
       </c>
       <c r="E57" t="n">
-        <v>407890.6840481011</v>
+        <v>401345.1614997466</v>
       </c>
       <c r="F57" t="n">
-        <v>268849.087223649</v>
+        <v>388203.5367159843</v>
+      </c>
+      <c r="G57" t="n">
+        <v>104612.1595215797</v>
       </c>
     </row>
     <row r="58">
@@ -6383,13 +6705,16 @@
         <v>394380.2945950254</v>
       </c>
       <c r="D58" t="n">
-        <v>384048.5649519132</v>
+        <v>362540.9011347211</v>
       </c>
       <c r="E58" t="n">
-        <v>362540.8908405227</v>
+        <v>385719.0285089071</v>
       </c>
       <c r="F58" t="n">
-        <v>488619.9399952888</v>
+        <v>463594.5636138916</v>
+      </c>
+      <c r="G58" t="n">
+        <v>375215.0752131939</v>
       </c>
     </row>
     <row r="59">
@@ -6403,13 +6728,16 @@
         <v>455871.847483884</v>
       </c>
       <c r="D59" t="n">
-        <v>443810.2491809318</v>
+        <v>441569.4598970053</v>
       </c>
       <c r="E59" t="n">
-        <v>441569.4467154796</v>
+        <v>439856.5184860735</v>
       </c>
       <c r="F59" t="n">
-        <v>333868.2184386253</v>
+        <v>369741.4333643913</v>
+      </c>
+      <c r="G59" t="n">
+        <v>381774.1005856991</v>
       </c>
     </row>
     <row r="60">
@@ -6423,13 +6751,16 @@
         <v>422695.382447861</v>
       </c>
       <c r="D60" t="n">
-        <v>417742.1135871052</v>
+        <v>408216.5709549669</v>
       </c>
       <c r="E60" t="n">
-        <v>408216.556337978</v>
+        <v>417736.7374178898</v>
       </c>
       <c r="F60" t="n">
-        <v>459904.0276184082</v>
+        <v>400616.5655858517</v>
+      </c>
+      <c r="G60" t="n">
+        <v>492890.1205863953</v>
       </c>
     </row>
     <row r="61">
@@ -6443,13 +6774,16 @@
         <v>452698.9549465121</v>
       </c>
       <c r="D61" t="n">
-        <v>447069.6434069105</v>
+        <v>450592.5443371767</v>
       </c>
       <c r="E61" t="n">
-        <v>450592.524060292</v>
+        <v>443008.9003544702</v>
       </c>
       <c r="F61" t="n">
-        <v>349403.4895908833</v>
+        <v>367222.3227238655</v>
+      </c>
+      <c r="G61" t="n">
+        <v>405880.7158322334</v>
       </c>
     </row>
     <row r="62">
@@ -6463,13 +6797,16 @@
         <v>491456.9703635307</v>
       </c>
       <c r="D62" t="n">
-        <v>483103.4097182011</v>
+        <v>478760.0354046272</v>
       </c>
       <c r="E62" t="n">
-        <v>478760.0225175738</v>
+        <v>491822.9651415742</v>
       </c>
       <c r="F62" t="n">
-        <v>435282.9639616013</v>
+        <v>537245.3360247612</v>
+      </c>
+      <c r="G62" t="n">
+        <v>540663.1295881271</v>
       </c>
     </row>
     <row r="63">
@@ -6483,13 +6820,16 @@
         <v>508636.0316851817</v>
       </c>
       <c r="D63" t="n">
-        <v>498974.9813948765</v>
+        <v>496612.2330154718</v>
       </c>
       <c r="E63" t="n">
-        <v>496612.218974345</v>
+        <v>487785.3791411834</v>
       </c>
       <c r="F63" t="n">
-        <v>416676.4045672417</v>
+        <v>389880.0584962368</v>
+      </c>
+      <c r="G63" t="n">
+        <v>358009.3682098389</v>
       </c>
     </row>
     <row r="64">
@@ -6503,13 +6843,16 @@
         <v>452965.6949285701</v>
       </c>
       <c r="D64" t="n">
-        <v>425771.6280584459</v>
+        <v>418548.3309534155</v>
       </c>
       <c r="E64" t="n">
-        <v>418548.3216882279</v>
+        <v>432902.480990269</v>
       </c>
       <c r="F64" t="n">
-        <v>199925.7476808429</v>
+        <v>373373.7336213589</v>
+      </c>
+      <c r="G64" t="n">
+        <v>472904.2504916191</v>
       </c>
     </row>
     <row r="65">
@@ -6523,13 +6866,16 @@
         <v>375220.6847137131</v>
       </c>
       <c r="D65" t="n">
-        <v>359081.2846126968</v>
+        <v>342137.4903610469</v>
       </c>
       <c r="E65" t="n">
-        <v>342137.4794889466</v>
+        <v>352240.7634014879</v>
       </c>
       <c r="F65" t="n">
-        <v>353462.5187807083</v>
+        <v>253896.369776845</v>
+      </c>
+      <c r="G65" t="n">
+        <v>392013.1141996384</v>
       </c>
     </row>
     <row r="66">
@@ -6543,13 +6889,16 @@
         <v>390473.8274745587</v>
       </c>
       <c r="D66" t="n">
-        <v>369096.4969314131</v>
+        <v>364866.0092047243</v>
       </c>
       <c r="E66" t="n">
-        <v>364865.9985341708</v>
+        <v>373953.0445132531</v>
       </c>
       <c r="F66" t="n">
-        <v>176869.1939212382</v>
+        <v>393250.00344944</v>
+      </c>
+      <c r="G66" t="n">
+        <v>247164.7431701422</v>
       </c>
     </row>
     <row r="67">
@@ -6563,13 +6912,16 @@
         <v>412335.3474221443</v>
       </c>
       <c r="D67" t="n">
-        <v>401581.9517092907</v>
+        <v>384416.0804318743</v>
       </c>
       <c r="E67" t="n">
-        <v>384416.0696291471</v>
+        <v>370982.6070767077</v>
       </c>
       <c r="F67" t="n">
-        <v>457462.4634945393</v>
+        <v>200120.4126391411</v>
+      </c>
+      <c r="G67" t="n">
+        <v>109892.5552724004</v>
       </c>
     </row>
     <row r="68">
@@ -6583,13 +6935,16 @@
         <v>471558.3740486196</v>
       </c>
       <c r="D68" t="n">
-        <v>460248.332977284</v>
+        <v>453637.8835480156</v>
       </c>
       <c r="E68" t="n">
-        <v>453637.8714139797</v>
+        <v>454123.3240584186</v>
       </c>
       <c r="F68" t="n">
-        <v>402908.712117672</v>
+        <v>407137.1478750706</v>
+      </c>
+      <c r="G68" t="n">
+        <v>358047.5078890324</v>
       </c>
     </row>
     <row r="69">
@@ -6603,13 +6958,16 @@
         <v>431628.2197657671</v>
       </c>
       <c r="D69" t="n">
-        <v>425636.5447872651</v>
+        <v>411710.9139780026</v>
       </c>
       <c r="E69" t="n">
-        <v>411710.9009799515</v>
+        <v>416947.8852077823</v>
       </c>
       <c r="F69" t="n">
-        <v>501019.9938783646</v>
+        <v>383002.9228560925</v>
+      </c>
+      <c r="G69" t="n">
+        <v>374200.0457444191</v>
       </c>
     </row>
     <row r="70">
@@ -6623,13 +6981,16 @@
         <v>404779.7253617166</v>
       </c>
       <c r="D70" t="n">
-        <v>381447.0466186213</v>
+        <v>366323.114972033</v>
       </c>
       <c r="E70" t="n">
-        <v>366323.1025829923</v>
+        <v>377203.6948909077</v>
       </c>
       <c r="F70" t="n">
-        <v>278237.6056236029</v>
+        <v>331347.9655709267</v>
+      </c>
+      <c r="G70" t="n">
+        <v>272893.267460227</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +7004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6669,15 +7030,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>weighted_ensemble</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>lstm</t>
         </is>
@@ -6694,13 +7060,16 @@
         <v>443411.126171467</v>
       </c>
       <c r="D2" t="n">
-        <v>445426.5509330689</v>
+        <v>454458.7635146558</v>
       </c>
       <c r="E2" t="n">
-        <v>454458.7607974557</v>
+        <v>444780.2334709312</v>
       </c>
       <c r="F2" t="n">
-        <v>375953.9355683327</v>
+        <v>385913.7638750076</v>
+      </c>
+      <c r="G2" t="n">
+        <v>475350.1158146858</v>
       </c>
     </row>
     <row r="3">
@@ -6714,13 +7083,16 @@
         <v>461569.1959499707</v>
       </c>
       <c r="D3" t="n">
-        <v>460351.410622619</v>
+        <v>470928.2172833594</v>
       </c>
       <c r="E3" t="n">
-        <v>470928.2104958872</v>
+        <v>449741.6825696399</v>
       </c>
       <c r="F3" t="n">
-        <v>339641.8198513985</v>
+        <v>369001.7877280712</v>
+      </c>
+      <c r="G3" t="n">
+        <v>260616.038692832</v>
       </c>
     </row>
     <row r="4">
@@ -6734,13 +7106,16 @@
         <v>405461.704916404</v>
       </c>
       <c r="D4" t="n">
-        <v>399928.2563787445</v>
+        <v>391747.9082187068</v>
       </c>
       <c r="E4" t="n">
-        <v>391747.9074246186</v>
+        <v>396747.6818781986</v>
       </c>
       <c r="F4" t="n">
-        <v>422059.4892179966</v>
+        <v>375166.2450015545</v>
+      </c>
+      <c r="G4" t="n">
+        <v>393334.1177723408</v>
       </c>
     </row>
     <row r="5">
@@ -6751,16 +7126,19 @@
         <v>333479</v>
       </c>
       <c r="C5" t="n">
-        <v>321562.5200228271</v>
+        <v>321562.520022827</v>
       </c>
       <c r="D5" t="n">
-        <v>321163.6508162794</v>
+        <v>315533.1331239149</v>
       </c>
       <c r="E5" t="n">
-        <v>315533.1317671346</v>
+        <v>318686.2389228117</v>
       </c>
       <c r="F5" t="n">
-        <v>373904.2624485493</v>
+        <v>348116.5743603706</v>
+      </c>
+      <c r="G5" t="n">
+        <v>262185.0572640896</v>
       </c>
     </row>
     <row r="6">
@@ -6774,13 +7152,16 @@
         <v>342001.5982973963</v>
       </c>
       <c r="D6" t="n">
-        <v>342245.7073264261</v>
+        <v>339359.02615217</v>
       </c>
       <c r="E6" t="n">
-        <v>339359.0250663427</v>
+        <v>342346.41365336</v>
       </c>
       <c r="F6" t="n">
-        <v>374219.6599266529</v>
+        <v>350264.0149872303</v>
+      </c>
+      <c r="G6" t="n">
+        <v>361160.6302013397</v>
       </c>
     </row>
     <row r="7">
@@ -6794,13 +7175,16 @@
         <v>362560.1693955543</v>
       </c>
       <c r="D7" t="n">
-        <v>357020.6887049989</v>
+        <v>359159.0026022624</v>
       </c>
       <c r="E7" t="n">
-        <v>359159.0015294025</v>
+        <v>345347.4212064921</v>
       </c>
       <c r="F7" t="n">
-        <v>274390.7272838354</v>
+        <v>177110.0053035021</v>
+      </c>
+      <c r="G7" t="n">
+        <v>340888.4715740681</v>
       </c>
     </row>
     <row r="8">
@@ -6814,13 +7198,16 @@
         <v>421637.6141827931</v>
       </c>
       <c r="D8" t="n">
-        <v>429658.5581518175</v>
+        <v>429829.2384443466</v>
       </c>
       <c r="E8" t="n">
-        <v>429829.235957252</v>
+        <v>392684.1355719907</v>
       </c>
       <c r="F8" t="n">
-        <v>516157.2167081833</v>
+        <v>149370.130507648</v>
+      </c>
+      <c r="G8" t="n">
+        <v>167322.1786733046</v>
       </c>
     </row>
     <row r="9">
@@ -6834,13 +7221,16 @@
         <v>385126.6448134776</v>
       </c>
       <c r="D9" t="n">
-        <v>385945.8199887975</v>
+        <v>388580.6236324051</v>
       </c>
       <c r="E9" t="n">
-        <v>388580.620469865</v>
+        <v>373953.6366978834</v>
       </c>
       <c r="F9" t="n">
-        <v>368223.6276192665</v>
+        <v>294130.1350951195</v>
+      </c>
+      <c r="G9" t="n">
+        <v>256829.8590189219</v>
       </c>
     </row>
     <row r="10">
@@ -6854,13 +7244,16 @@
         <v>354916.9091541613</v>
       </c>
       <c r="D10" t="n">
-        <v>353307.0947680947</v>
+        <v>343768.2785036436</v>
       </c>
       <c r="E10" t="n">
-        <v>343768.2757448051</v>
+        <v>344793.0701402437</v>
       </c>
       <c r="F10" t="n">
-        <v>432381.5641641617</v>
+        <v>262008.1726779938</v>
+      </c>
+      <c r="G10" t="n">
+        <v>403781.9269440174</v>
       </c>
     </row>
     <row r="11">
@@ -6874,13 +7267,16 @@
         <v>416408.4620430165</v>
       </c>
       <c r="D11" t="n">
-        <v>416656.5595861331</v>
+        <v>423162.8946007421</v>
       </c>
       <c r="E11" t="n">
-        <v>423162.8896538133</v>
+        <v>418562.0211026518</v>
       </c>
       <c r="F11" t="n">
-        <v>353371.3369271755</v>
+        <v>368888.9214055538</v>
+      </c>
+      <c r="G11" t="n">
+        <v>491531.3342804909</v>
       </c>
     </row>
     <row r="12">
@@ -6894,13 +7290,16 @@
         <v>383231.9970069904</v>
       </c>
       <c r="D12" t="n">
-        <v>384619.4099581661</v>
+        <v>391278.9790254072</v>
       </c>
       <c r="E12" t="n">
-        <v>391278.9725957551</v>
+        <v>388357.6226833174</v>
       </c>
       <c r="F12" t="n">
-        <v>332311.9339156151</v>
+        <v>377916.0498363972</v>
+      </c>
+      <c r="G12" t="n">
+        <v>435265.0274255276</v>
       </c>
     </row>
     <row r="13">
@@ -6914,13 +7313,16 @@
         <v>413235.5695056491</v>
       </c>
       <c r="D13" t="n">
-        <v>421299.8877934858</v>
+        <v>436430.011997146</v>
       </c>
       <c r="E13" t="n">
-        <v>436430.0005445514</v>
+        <v>420693.98878603</v>
       </c>
       <c r="F13" t="n">
-        <v>356494.7749786377</v>
+        <v>389958.265362978</v>
+      </c>
+      <c r="G13" t="n">
+        <v>402416.7513048649</v>
       </c>
     </row>
     <row r="14">
@@ -6934,13 +7336,16 @@
         <v>451993.5849226756</v>
       </c>
       <c r="D14" t="n">
-        <v>462994.5580421672</v>
+        <v>459656.7221104982</v>
       </c>
       <c r="E14" t="n">
-        <v>459656.7169888857</v>
+        <v>442322.7323064876</v>
       </c>
       <c r="F14" t="n">
-        <v>617871.5470018387</v>
+        <v>361485.5759847164</v>
+      </c>
+      <c r="G14" t="n">
+        <v>316207.7800893784</v>
       </c>
     </row>
     <row r="15">
@@ -6954,13 +7359,16 @@
         <v>469172.6462442987</v>
       </c>
       <c r="D15" t="n">
-        <v>468740.327998227</v>
+        <v>476926.5254205023</v>
       </c>
       <c r="E15" t="n">
-        <v>476926.5186659442</v>
+        <v>454692.2540995671</v>
       </c>
       <c r="F15" t="n">
-        <v>380926.3895504475</v>
+        <v>346331.7373189926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>279117.8522859812</v>
       </c>
     </row>
     <row r="16">
@@ -6974,13 +7382,16 @@
         <v>413502.3094877188</v>
       </c>
       <c r="D16" t="n">
-        <v>410706.2548605053</v>
+        <v>398792.1011427606</v>
       </c>
       <c r="E16" t="n">
-        <v>398792.099704044</v>
+        <v>395196.9771333109</v>
       </c>
       <c r="F16" t="n">
-        <v>500832.6329274178</v>
+        <v>226887.5203716159</v>
+      </c>
+      <c r="G16" t="n">
+        <v>482545.6829738617</v>
       </c>
     </row>
     <row r="17">
@@ -6994,13 +7405,16 @@
         <v>335757.2992728552</v>
       </c>
       <c r="D17" t="n">
-        <v>332715.8795742306</v>
+        <v>322541.2706627597</v>
       </c>
       <c r="E17" t="n">
-        <v>322541.2678179986</v>
+        <v>327819.2330707561</v>
       </c>
       <c r="F17" t="n">
-        <v>402493.5482349396</v>
+        <v>412581.9841823578</v>
+      </c>
+      <c r="G17" t="n">
+        <v>130294.6556260586</v>
       </c>
     </row>
     <row r="18">
@@ -7014,13 +7428,16 @@
         <v>351010.4420337112</v>
       </c>
       <c r="D18" t="n">
-        <v>350379.2598403556</v>
+        <v>345449.8123124092</v>
       </c>
       <c r="E18" t="n">
-        <v>345449.8097636063</v>
+        <v>341232.1432367385</v>
       </c>
       <c r="F18" t="n">
-        <v>393451.2674467564</v>
+        <v>366441.1821160316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>142158.7841047347</v>
       </c>
     </row>
     <row r="19">
@@ -7034,13 +7451,16 @@
         <v>372871.9619812834</v>
       </c>
       <c r="D19" t="n">
-        <v>370649.3245763312</v>
+        <v>365218.462664695</v>
       </c>
       <c r="E19" t="n">
-        <v>365218.4600322582</v>
+        <v>368885.8590160209</v>
       </c>
       <c r="F19" t="n">
-        <v>401302.7585599422</v>
+        <v>344515.9352128506</v>
+      </c>
+      <c r="G19" t="n">
+        <v>409344.805290699</v>
       </c>
     </row>
     <row r="20">
@@ -7054,13 +7474,16 @@
         <v>432094.988607766</v>
       </c>
       <c r="D20" t="n">
-        <v>417421.6848199012</v>
+        <v>434633.2143393638</v>
       </c>
       <c r="E20" t="n">
-        <v>434633.210398759</v>
+        <v>416286.9216865511</v>
       </c>
       <c r="F20" t="n">
-        <v>81384.37207710743</v>
+        <v>242640.2474837303</v>
+      </c>
+      <c r="G20" t="n">
+        <v>391707.9967660904</v>
       </c>
     </row>
     <row r="21">
@@ -7074,13 +7497,16 @@
         <v>392164.8343249017</v>
       </c>
       <c r="D21" t="n">
-        <v>391965.4313593358</v>
+        <v>392924.9342466789</v>
       </c>
       <c r="E21" t="n">
-        <v>392924.92946448</v>
+        <v>389164.1397962469</v>
       </c>
       <c r="F21" t="n">
-        <v>380036.7730557919</v>
+        <v>357797.7170841694</v>
+      </c>
+      <c r="G21" t="n">
+        <v>378591.9092240334</v>
       </c>
     </row>
     <row r="22">
@@ -7094,13 +7520,16 @@
         <v>365316.3399208492</v>
       </c>
       <c r="D22" t="n">
-        <v>348986.0024393262</v>
+        <v>347726.8752354097</v>
       </c>
       <c r="E22" t="n">
-        <v>347726.8710747825</v>
+        <v>357048.9307718295</v>
       </c>
       <c r="F22" t="n">
-        <v>182127.6441863179</v>
+        <v>369047.1020216942</v>
+      </c>
+      <c r="G22" t="n">
+        <v>337535.1067621708</v>
       </c>
     </row>
     <row r="23">
@@ -7114,13 +7543,16 @@
         <v>427649.2369187173</v>
       </c>
       <c r="D23" t="n">
-        <v>416558.2987622353</v>
+        <v>426925.7752459442</v>
       </c>
       <c r="E23" t="n">
-        <v>426925.7682162392</v>
+        <v>420437.4656193334</v>
       </c>
       <c r="F23" t="n">
-        <v>189367.927754581</v>
+        <v>377372.0819926262</v>
+      </c>
+      <c r="G23" t="n">
+        <v>358465.6344234943</v>
       </c>
     </row>
     <row r="24">
@@ -7134,13 +7566,16 @@
         <v>392758.585211982</v>
       </c>
       <c r="D24" t="n">
-        <v>392308.3503551373</v>
+        <v>393721.2342804577</v>
       </c>
       <c r="E24" t="n">
-        <v>393721.225827291</v>
+        <v>384239.3379234805</v>
       </c>
       <c r="F24" t="n">
-        <v>373020.4998681545</v>
+        <v>333520.160402298</v>
+      </c>
+      <c r="G24" t="n">
+        <v>292291.3992090225</v>
       </c>
     </row>
     <row r="25">
@@ -7154,13 +7589,16 @@
         <v>414269.9569060401</v>
       </c>
       <c r="D25" t="n">
-        <v>422357.109366807</v>
+        <v>436264.1156165041</v>
       </c>
       <c r="E25" t="n">
-        <v>436264.1015193505</v>
+        <v>419692.8284073346</v>
       </c>
       <c r="F25" t="n">
-        <v>370213.1553394794</v>
+        <v>468407.0165553093</v>
+      </c>
+      <c r="G25" t="n">
+        <v>217040.5940820575</v>
       </c>
     </row>
     <row r="26">
@@ -7174,13 +7612,16 @@
         <v>465432.7059714758</v>
       </c>
       <c r="D26" t="n">
-        <v>460901.5469176866</v>
+        <v>464576.5592228039</v>
       </c>
       <c r="E26" t="n">
-        <v>464576.5525253778</v>
+        <v>448916.1934598378</v>
       </c>
       <c r="F26" t="n">
-        <v>373771.5856235027</v>
+        <v>305817.4392223358</v>
+      </c>
+      <c r="G26" t="n">
+        <v>384781.5668845177</v>
       </c>
     </row>
     <row r="27">
@@ -7194,13 +7635,16 @@
         <v>485756.8757061925</v>
       </c>
       <c r="D27" t="n">
-        <v>477578.8722145346</v>
+        <v>482592.2832690969</v>
       </c>
       <c r="E27" t="n">
-        <v>482592.2754314698</v>
+        <v>476877.3249278931</v>
       </c>
       <c r="F27" t="n">
-        <v>336754.0196962357</v>
+        <v>437502.0614962578</v>
+      </c>
+      <c r="G27" t="n">
+        <v>397278.9063975811</v>
       </c>
     </row>
     <row r="28">
@@ -7214,13 +7658,16 @@
         <v>429115.6173426721</v>
       </c>
       <c r="D28" t="n">
-        <v>414669.7778281322</v>
+        <v>404670.0056854853</v>
       </c>
       <c r="E28" t="n">
-        <v>404670.0026317368</v>
+        <v>414063.4696619175</v>
       </c>
       <c r="F28" t="n">
-        <v>357224.9080042839</v>
+        <v>375136.3150801659</v>
+      </c>
+      <c r="G28" t="n">
+        <v>419036.1566698551</v>
       </c>
     </row>
     <row r="29">
@@ -7234,13 +7681,16 @@
         <v>332829.1395482615</v>
       </c>
       <c r="D29" t="n">
-        <v>328002.723065307</v>
+        <v>328419.3810184805</v>
       </c>
       <c r="E29" t="n">
-        <v>328419.3763697555</v>
+        <v>336503.4668186369</v>
       </c>
       <c r="F29" t="n">
-        <v>270684.70875597</v>
+        <v>358618.3894605637</v>
+      </c>
+      <c r="G29" t="n">
+        <v>416237.7893328667</v>
       </c>
     </row>
     <row r="30">
@@ -7254,13 +7704,16 @@
         <v>363344.8395846998</v>
       </c>
       <c r="D30" t="n">
-        <v>359567.1894135665</v>
+        <v>351286.2676700093</v>
       </c>
       <c r="E30" t="n">
-        <v>351286.263228898</v>
+        <v>354146.5167315323</v>
       </c>
       <c r="F30" t="n">
-        <v>402032.6774179935</v>
+        <v>303578.3080939054</v>
+      </c>
+      <c r="G30" t="n">
+        <v>379697.5672800541</v>
       </c>
     </row>
     <row r="31">
@@ -7274,13 +7727,16 @@
         <v>381392.7424635316</v>
       </c>
       <c r="D31" t="n">
-        <v>380519.1391773573</v>
+        <v>370993.3152592115</v>
       </c>
       <c r="E31" t="n">
-        <v>370993.3106960059</v>
+        <v>371714.9282871464</v>
       </c>
       <c r="F31" t="n">
-        <v>467560.1264958382</v>
+        <v>359459.675467968</v>
+      </c>
+      <c r="G31" t="n">
+        <v>296261.2632901669</v>
       </c>
     </row>
     <row r="32">
@@ -7294,13 +7750,16 @@
         <v>439970.9007663491</v>
       </c>
       <c r="D32" t="n">
-        <v>437567.7121163552</v>
+        <v>440350.2997595286</v>
       </c>
       <c r="E32" t="n">
-        <v>440350.2938692857</v>
+        <v>432511.3113757239</v>
       </c>
       <c r="F32" t="n">
-        <v>382900.1045632362</v>
+        <v>313760.1657309532</v>
+      </c>
+      <c r="G32" t="n">
+        <v>500339.5120401382</v>
       </c>
     </row>
     <row r="33">
@@ -7314,13 +7773,16 @@
         <v>410490.981457045</v>
       </c>
       <c r="D33" t="n">
-        <v>394703.3948970222</v>
+        <v>398577.1365139891</v>
       </c>
       <c r="E33" t="n">
-        <v>398577.1297680287</v>
+        <v>406598.2454077452</v>
       </c>
       <c r="F33" t="n">
-        <v>181736.3912231922</v>
+        <v>363037.2023625374</v>
+      </c>
+      <c r="G33" t="n">
+        <v>529349.6549978256</v>
       </c>
     </row>
     <row r="34">
@@ -7334,13 +7796,16 @@
         <v>373743.3800095718</v>
       </c>
       <c r="D34" t="n">
-        <v>373664.3111119969</v>
+        <v>353321.4012317979</v>
       </c>
       <c r="E34" t="n">
-        <v>353321.3950973975</v>
+        <v>352848.7907134844</v>
       </c>
       <c r="F34" t="n">
-        <v>579197.1270184517</v>
+        <v>197941.3644447327</v>
+      </c>
+      <c r="G34" t="n">
+        <v>417511.7295765877</v>
       </c>
     </row>
     <row r="35">
@@ -7354,13 +7819,16 @@
         <v>437056.0736547119</v>
       </c>
       <c r="D35" t="n">
-        <v>432693.7327170387</v>
+        <v>432456.4165961769</v>
       </c>
       <c r="E35" t="n">
-        <v>432456.4075820218</v>
+        <v>427152.4016650908</v>
       </c>
       <c r="F35" t="n">
-        <v>387115.9222798347</v>
+        <v>411077.135576725</v>
+      </c>
+      <c r="G35" t="n">
+        <v>295440.8943178654</v>
       </c>
     </row>
     <row r="36">
@@ -7374,13 +7842,16 @@
         <v>402684.9768144935</v>
       </c>
       <c r="D36" t="n">
-        <v>400641.720864535</v>
+        <v>399195.422751599</v>
       </c>
       <c r="E36" t="n">
-        <v>399195.4123056469</v>
+        <v>384513.7785612849</v>
       </c>
       <c r="F36" t="n">
-        <v>392840.3900768757</v>
+        <v>226760.2334310412</v>
+      </c>
+      <c r="G36" t="n">
+        <v>340425.4947757721</v>
       </c>
     </row>
     <row r="37">
@@ -7394,13 +7865,16 @@
         <v>427110.3966262986</v>
       </c>
       <c r="D37" t="n">
-        <v>430661.0365517781</v>
+        <v>441675.700639364</v>
       </c>
       <c r="E37" t="n">
-        <v>441675.684539863</v>
+        <v>437432.2814769075</v>
       </c>
       <c r="F37" t="n">
-        <v>357961.6445307732</v>
+        <v>417015.039229393</v>
+      </c>
+      <c r="G37" t="n">
+        <v>547355.1173424721</v>
       </c>
     </row>
     <row r="38">
@@ -7414,13 +7888,16 @@
         <v>474200.0209882658</v>
       </c>
       <c r="D38" t="n">
-        <v>465711.2822620393</v>
+        <v>469932.9700560742</v>
       </c>
       <c r="E38" t="n">
-        <v>469932.9613488857</v>
+        <v>458311.2567900395</v>
       </c>
       <c r="F38" t="n">
-        <v>329501.3054838181</v>
+        <v>333464.6374533176</v>
+      </c>
+      <c r="G38" t="n">
+        <v>406804.8311569691</v>
       </c>
     </row>
     <row r="39">
@@ -7434,13 +7911,16 @@
         <v>493407.4759276186</v>
       </c>
       <c r="D39" t="n">
-        <v>479640.8215996078</v>
+        <v>487887.366268062</v>
       </c>
       <c r="E39" t="n">
-        <v>487887.3564119709</v>
+        <v>479237.8326341082</v>
       </c>
       <c r="F39" t="n">
-        <v>244536.9246279001</v>
+        <v>343932.2928221226</v>
+      </c>
+      <c r="G39" t="n">
+        <v>497014.3102669716</v>
       </c>
     </row>
     <row r="40">
@@ -7454,13 +7934,16 @@
         <v>436975.9763197164</v>
       </c>
       <c r="D40" t="n">
-        <v>416649.2501921037</v>
+        <v>409911.1714885664</v>
       </c>
       <c r="E40" t="n">
-        <v>409911.1664097595</v>
+        <v>405569.0879161407</v>
       </c>
       <c r="F40" t="n">
-        <v>261420.9697510004</v>
+        <v>347963.5337665081</v>
+      </c>
+      <c r="G40" t="n">
+        <v>127326.4043062329</v>
       </c>
     </row>
     <row r="41">
@@ -7474,13 +7957,16 @@
         <v>346894.1214470243</v>
       </c>
       <c r="D41" t="n">
-        <v>346455.8565504486</v>
+        <v>333600.4687910293</v>
       </c>
       <c r="E41" t="n">
-        <v>333600.4621093526</v>
+        <v>336434.472153698</v>
       </c>
       <c r="F41" t="n">
-        <v>472067.8903388977</v>
+        <v>295069.3403116465</v>
+      </c>
+      <c r="G41" t="n">
+        <v>330063.1027798653</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7980,16 @@
         <v>372421.7353714617</v>
       </c>
       <c r="D42" t="n">
-        <v>367695.8205257721</v>
+        <v>356414.6685488056</v>
       </c>
       <c r="E42" t="n">
-        <v>356414.6620689318</v>
+        <v>365543.886268427</v>
       </c>
       <c r="F42" t="n">
-        <v>430171.2475008965</v>
+        <v>303949.9156420231</v>
+      </c>
+      <c r="G42" t="n">
+        <v>501547.0603294373</v>
       </c>
     </row>
     <row r="43">
@@ -7514,13 +8003,16 @@
         <v>391708.9551379248</v>
       </c>
       <c r="D43" t="n">
-        <v>388747.5521921216</v>
+        <v>376062.8611899387</v>
       </c>
       <c r="E43" t="n">
-        <v>376062.854580853</v>
+        <v>378147.9668126263</v>
       </c>
       <c r="F43" t="n">
-        <v>484873.1493115425</v>
+        <v>381252.7452704906</v>
+      </c>
+      <c r="G43" t="n">
+        <v>244140.0363799334</v>
       </c>
     </row>
     <row r="44">
@@ -7534,13 +8026,16 @@
         <v>450571.7832284339</v>
       </c>
       <c r="D44" t="n">
-        <v>444508.6302410634</v>
+        <v>445368.3625878504</v>
       </c>
       <c r="E44" t="n">
-        <v>445368.3546466689</v>
+        <v>444753.4413671831</v>
       </c>
       <c r="F44" t="n">
-        <v>369091.0420732498</v>
+        <v>417850.8461158276</v>
+      </c>
+      <c r="G44" t="n">
+        <v>426489.9207119942</v>
       </c>
     </row>
     <row r="45">
@@ -7554,13 +8049,16 @@
         <v>417545.4424899386</v>
       </c>
       <c r="D45" t="n">
-        <v>408500.0790328674</v>
+        <v>403537.5412247317</v>
       </c>
       <c r="E45" t="n">
-        <v>403537.5324214606</v>
+        <v>402093.8308026686</v>
       </c>
       <c r="F45" t="n">
-        <v>359351.8956258297</v>
+        <v>408651.4555494785</v>
+      </c>
+      <c r="G45" t="n">
+        <v>204803.7492917776</v>
       </c>
     </row>
     <row r="46">
@@ -7574,13 +8072,16 @@
         <v>384034.9444168463</v>
       </c>
       <c r="D46" t="n">
-        <v>380777.377875152</v>
+        <v>358231.5006629398</v>
       </c>
       <c r="E46" t="n">
-        <v>358231.4924668933</v>
+        <v>364412.3554676507</v>
       </c>
       <c r="F46" t="n">
-        <v>573698.4097137451</v>
+        <v>298871.618249774</v>
+      </c>
+      <c r="G46" t="n">
+        <v>337926.0697066784</v>
       </c>
     </row>
     <row r="47">
@@ -7594,13 +8095,16 @@
         <v>446463.6158652085</v>
       </c>
       <c r="D47" t="n">
-        <v>439481.9177116388</v>
+        <v>437310.0290455736</v>
       </c>
       <c r="E47" t="n">
-        <v>437310.0179641169</v>
+        <v>433460.6142828994</v>
       </c>
       <c r="F47" t="n">
-        <v>384719.6902968884</v>
+        <v>377792.6357598305</v>
+      </c>
+      <c r="G47" t="n">
+        <v>358917.1532554626</v>
       </c>
     </row>
     <row r="48">
@@ -7614,13 +8118,16 @@
         <v>412664.2281573075</v>
       </c>
       <c r="D48" t="n">
-        <v>407247.310242</v>
+        <v>403999.8823325612</v>
       </c>
       <c r="E48" t="n">
-        <v>403999.8698156667</v>
+        <v>385359.2983811981</v>
       </c>
       <c r="F48" t="n">
-        <v>380610.2781803608</v>
+        <v>223654.2634240389</v>
+      </c>
+      <c r="G48" t="n">
+        <v>208255.4214915633</v>
       </c>
     </row>
     <row r="49">
@@ -7634,13 +8141,16 @@
         <v>439921.288412521</v>
       </c>
       <c r="D49" t="n">
-        <v>444591.0104563098</v>
+        <v>446424.8192321518</v>
       </c>
       <c r="E49" t="n">
-        <v>446424.8010567412</v>
+        <v>448236.3403528855</v>
       </c>
       <c r="F49" t="n">
-        <v>477352.0117135048</v>
+        <v>484011.0533528328</v>
+      </c>
+      <c r="G49" t="n">
+        <v>488965.9634394646</v>
       </c>
     </row>
     <row r="50">
@@ -7654,13 +8164,16 @@
         <v>482874.5116123249</v>
       </c>
       <c r="D50" t="n">
-        <v>472994.3729442882</v>
+        <v>474634.0633267714</v>
       </c>
       <c r="E50" t="n">
-        <v>474634.0525406993</v>
+        <v>463070.7420739759</v>
       </c>
       <c r="F50" t="n">
-        <v>347676.388563633</v>
+        <v>264850.6763868332</v>
+      </c>
+      <c r="G50" t="n">
+        <v>510858.2820749283</v>
       </c>
     </row>
     <row r="51">
@@ -7674,13 +8187,16 @@
         <v>501032.5813908274</v>
       </c>
       <c r="D51" t="n">
-        <v>484664.5780460307</v>
+        <v>492534.2399429058</v>
       </c>
       <c r="E51" t="n">
-        <v>492534.2280036251</v>
+        <v>483850.4682918782</v>
       </c>
       <c r="F51" t="n">
-        <v>224769.7776512504</v>
+        <v>384954.2038133144</v>
+      </c>
+      <c r="G51" t="n">
+        <v>397795.1573851109</v>
       </c>
     </row>
     <row r="52">
@@ -7694,13 +8210,16 @@
         <v>444925.0903572576</v>
       </c>
       <c r="D52" t="n">
-        <v>422158.9329172746</v>
+        <v>414511.1230580254</v>
       </c>
       <c r="E52" t="n">
-        <v>414511.1158936948</v>
+        <v>431476.1398816019</v>
       </c>
       <c r="F52" t="n">
-        <v>249327.2112232447</v>
+        <v>377665.6522233486</v>
+      </c>
+      <c r="G52" t="n">
+        <v>559684.1389732361</v>
       </c>
     </row>
     <row r="53">
@@ -7714,13 +8233,16 @@
         <v>361025.9054636739</v>
       </c>
       <c r="D53" t="n">
-        <v>351094.811953823</v>
+        <v>338147.2980851127</v>
       </c>
       <c r="E53" t="n">
-        <v>338147.289314241</v>
+        <v>356675.9642929561</v>
       </c>
       <c r="F53" t="n">
-        <v>373220.4788599014</v>
+        <v>493415.4023075104</v>
+      </c>
+      <c r="G53" t="n">
+        <v>232676.9701864123</v>
       </c>
     </row>
     <row r="54">
@@ -7734,13 +8256,16 @@
         <v>381464.9837382494</v>
       </c>
       <c r="D54" t="n">
-        <v>365293.7963771949</v>
+        <v>360915.6551482477</v>
       </c>
       <c r="E54" t="n">
-        <v>360915.6465774589</v>
+        <v>397930.5270736982</v>
       </c>
       <c r="F54" t="n">
-        <v>231832.1637991667</v>
+        <v>639910.8559966087</v>
+      </c>
+      <c r="G54" t="n">
+        <v>487180.3054223061</v>
       </c>
     </row>
     <row r="55">
@@ -7754,13 +8279,16 @@
         <v>402023.5548364178</v>
       </c>
       <c r="D55" t="n">
-        <v>394206.8000016391</v>
+        <v>380511.7992806552</v>
       </c>
       <c r="E55" t="n">
-        <v>380511.7905775924</v>
+        <v>379063.6648563814</v>
       </c>
       <c r="F55" t="n">
-        <v>447174.3162648678</v>
+        <v>235021.6279354095</v>
+      </c>
+      <c r="G55" t="n">
+        <v>390114.4470815659</v>
       </c>
     </row>
     <row r="56">
@@ -7774,13 +8302,16 @@
         <v>461100.9996236513</v>
       </c>
       <c r="D56" t="n">
-        <v>452287.2729257977</v>
+        <v>449772.5141011128</v>
       </c>
       <c r="E56" t="n">
-        <v>449772.5040648234</v>
+        <v>436354.9444003653</v>
       </c>
       <c r="F56" t="n">
-        <v>380851.5379760265</v>
+        <v>380021.2280578613</v>
+      </c>
+      <c r="G56" t="n">
+        <v>136816.9155614376</v>
       </c>
     </row>
     <row r="57">
@@ -7794,13 +8325,16 @@
         <v>424590.0302543045</v>
       </c>
       <c r="D57" t="n">
-        <v>409906.8892152085</v>
+        <v>407890.6949489577</v>
       </c>
       <c r="E57" t="n">
-        <v>407890.6840481011</v>
+        <v>401345.1614997466</v>
       </c>
       <c r="F57" t="n">
-        <v>268849.087223649</v>
+        <v>388203.5367159843</v>
+      </c>
+      <c r="G57" t="n">
+        <v>104612.1595215797</v>
       </c>
     </row>
     <row r="58">
@@ -7814,13 +8348,16 @@
         <v>394380.2945950254</v>
       </c>
       <c r="D58" t="n">
-        <v>384048.5649519132</v>
+        <v>362540.9011347211</v>
       </c>
       <c r="E58" t="n">
-        <v>362540.8908405227</v>
+        <v>385719.0285089071</v>
       </c>
       <c r="F58" t="n">
-        <v>488619.9399952888</v>
+        <v>463594.5636138916</v>
+      </c>
+      <c r="G58" t="n">
+        <v>375215.0752131939</v>
       </c>
     </row>
     <row r="59">
@@ -7834,13 +8371,16 @@
         <v>455871.847483884</v>
       </c>
       <c r="D59" t="n">
-        <v>443810.2491809318</v>
+        <v>441569.4598970053</v>
       </c>
       <c r="E59" t="n">
-        <v>441569.4467154796</v>
+        <v>439856.5184860735</v>
       </c>
       <c r="F59" t="n">
-        <v>333868.2184386253</v>
+        <v>369741.4333643913</v>
+      </c>
+      <c r="G59" t="n">
+        <v>381774.1005856991</v>
       </c>
     </row>
     <row r="60">
@@ -7854,13 +8394,16 @@
         <v>422695.382447861</v>
       </c>
       <c r="D60" t="n">
-        <v>417742.1135871052</v>
+        <v>408216.5709549669</v>
       </c>
       <c r="E60" t="n">
-        <v>408216.556337978</v>
+        <v>417736.7374178898</v>
       </c>
       <c r="F60" t="n">
-        <v>459904.0276184082</v>
+        <v>400616.5655858517</v>
+      </c>
+      <c r="G60" t="n">
+        <v>492890.1205863953</v>
       </c>
     </row>
     <row r="61">
@@ -7874,13 +8417,16 @@
         <v>452698.9549465121</v>
       </c>
       <c r="D61" t="n">
-        <v>447069.6434069105</v>
+        <v>450592.5443371767</v>
       </c>
       <c r="E61" t="n">
-        <v>450592.524060292</v>
+        <v>443008.9003544702</v>
       </c>
       <c r="F61" t="n">
-        <v>349403.4895908833</v>
+        <v>367222.3227238655</v>
+      </c>
+      <c r="G61" t="n">
+        <v>405880.7158322334</v>
       </c>
     </row>
     <row r="62">
@@ -7894,13 +8440,16 @@
         <v>491456.9703635307</v>
       </c>
       <c r="D62" t="n">
-        <v>483103.4097182011</v>
+        <v>478760.0354046272</v>
       </c>
       <c r="E62" t="n">
-        <v>478760.0225175738</v>
+        <v>491822.9651415742</v>
       </c>
       <c r="F62" t="n">
-        <v>435282.9639616013</v>
+        <v>537245.3360247612</v>
+      </c>
+      <c r="G62" t="n">
+        <v>540663.1295881271</v>
       </c>
     </row>
     <row r="63">
@@ -7914,13 +8463,16 @@
         <v>508636.0316851817</v>
       </c>
       <c r="D63" t="n">
-        <v>498974.9813948765</v>
+        <v>496612.2330154718</v>
       </c>
       <c r="E63" t="n">
-        <v>496612.218974345</v>
+        <v>487785.3791411834</v>
       </c>
       <c r="F63" t="n">
-        <v>416676.4045672417</v>
+        <v>389880.0584962368</v>
+      </c>
+      <c r="G63" t="n">
+        <v>358009.3682098389</v>
       </c>
     </row>
     <row r="64">
@@ -7934,13 +8486,16 @@
         <v>452965.6949285701</v>
       </c>
       <c r="D64" t="n">
-        <v>425771.6280584459</v>
+        <v>418548.3309534155</v>
       </c>
       <c r="E64" t="n">
-        <v>418548.3216882279</v>
+        <v>432902.480990269</v>
       </c>
       <c r="F64" t="n">
-        <v>199925.7476808429</v>
+        <v>373373.7336213589</v>
+      </c>
+      <c r="G64" t="n">
+        <v>472904.2504916191</v>
       </c>
     </row>
     <row r="65">
@@ -7954,13 +8509,16 @@
         <v>375220.6847137131</v>
       </c>
       <c r="D65" t="n">
-        <v>359081.2846126968</v>
+        <v>342137.4903610469</v>
       </c>
       <c r="E65" t="n">
-        <v>342137.4794889466</v>
+        <v>352240.7634014879</v>
       </c>
       <c r="F65" t="n">
-        <v>353462.5187807083</v>
+        <v>253896.369776845</v>
+      </c>
+      <c r="G65" t="n">
+        <v>392013.1141996384</v>
       </c>
     </row>
     <row r="66">
@@ -7974,13 +8532,16 @@
         <v>390473.8274745587</v>
       </c>
       <c r="D66" t="n">
-        <v>369096.4969314131</v>
+        <v>364866.0092047243</v>
       </c>
       <c r="E66" t="n">
-        <v>364865.9985341708</v>
+        <v>373953.0445132531</v>
       </c>
       <c r="F66" t="n">
-        <v>176869.1939212382</v>
+        <v>393250.00344944</v>
+      </c>
+      <c r="G66" t="n">
+        <v>247164.7431701422</v>
       </c>
     </row>
     <row r="67">
@@ -7994,13 +8555,16 @@
         <v>412335.3474221443</v>
       </c>
       <c r="D67" t="n">
-        <v>401581.9517092907</v>
+        <v>384416.0804318743</v>
       </c>
       <c r="E67" t="n">
-        <v>384416.0696291471</v>
+        <v>370982.6070767077</v>
       </c>
       <c r="F67" t="n">
-        <v>457462.4634945393</v>
+        <v>200120.4126391411</v>
+      </c>
+      <c r="G67" t="n">
+        <v>109892.5552724004</v>
       </c>
     </row>
     <row r="68">
@@ -8014,13 +8578,16 @@
         <v>471558.3740486196</v>
       </c>
       <c r="D68" t="n">
-        <v>460248.332977284</v>
+        <v>453637.8835480156</v>
       </c>
       <c r="E68" t="n">
-        <v>453637.8714139797</v>
+        <v>454123.3240584186</v>
       </c>
       <c r="F68" t="n">
-        <v>402908.712117672</v>
+        <v>407137.1478750706</v>
+      </c>
+      <c r="G68" t="n">
+        <v>358047.5078890324</v>
       </c>
     </row>
     <row r="69">
@@ -8034,13 +8601,16 @@
         <v>431628.2197657671</v>
       </c>
       <c r="D69" t="n">
-        <v>425636.5447872651</v>
+        <v>411710.9139780026</v>
       </c>
       <c r="E69" t="n">
-        <v>411710.9009799515</v>
+        <v>416947.8852077823</v>
       </c>
       <c r="F69" t="n">
-        <v>501019.9938783646</v>
+        <v>383002.9228560925</v>
+      </c>
+      <c r="G69" t="n">
+        <v>374200.0457444191</v>
       </c>
     </row>
     <row r="70">
@@ -8054,13 +8624,16 @@
         <v>404779.7253617166</v>
       </c>
       <c r="D70" t="n">
-        <v>381447.0466186213</v>
+        <v>366323.114972033</v>
       </c>
       <c r="E70" t="n">
-        <v>366323.1025829923</v>
+        <v>377203.6948909077</v>
       </c>
       <c r="F70" t="n">
-        <v>278237.6056236029</v>
+        <v>331347.9655709267</v>
+      </c>
+      <c r="G70" t="n">
+        <v>272893.267460227</v>
       </c>
     </row>
   </sheetData>
@@ -8074,7 +8647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8095,15 +8668,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>arima</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>weighted_ensemble</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>arima</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>lstm</t>
         </is>
@@ -8117,13 +8695,16 @@
         <v>496783.8125174749</v>
       </c>
       <c r="C2" t="n">
-        <v>489816.0556320283</v>
+        <v>491920.6334520737</v>
       </c>
       <c r="D2" t="n">
-        <v>491920.8462882977</v>
+        <v>483405.4613935426</v>
       </c>
       <c r="E2" t="n">
-        <v>391815.1775017977</v>
+        <v>414043.827655673</v>
+      </c>
+      <c r="F2" t="n">
+        <v>383838.1594029665</v>
       </c>
     </row>
     <row r="3">
@@ -8134,13 +8715,16 @@
         <v>456736.2819212076</v>
       </c>
       <c r="C3" t="n">
-        <v>449122.9132956771</v>
+        <v>442935.2703417128</v>
       </c>
       <c r="D3" t="n">
-        <v>442935.5764097042</v>
+        <v>443986.9761580501</v>
       </c>
       <c r="E3" t="n">
-        <v>428153.5967288017</v>
+        <v>401748.1492964029</v>
+      </c>
+      <c r="F3" t="n">
+        <v>396028.9215395451</v>
       </c>
     </row>
     <row r="4">
@@ -8151,13 +8735,16 @@
         <v>487827.2756195136</v>
       </c>
       <c r="C4" t="n">
-        <v>483600.3380289705</v>
+        <v>486801.5886616745</v>
       </c>
       <c r="D4" t="n">
-        <v>486801.3117955711</v>
+        <v>478097.9544721704</v>
       </c>
       <c r="E4" t="n">
-        <v>404626.4179030657</v>
+        <v>400519.862990737</v>
+      </c>
+      <c r="F4" t="n">
+        <v>432632.4724516869</v>
       </c>
     </row>
     <row r="5">
@@ -8168,13 +8755,16 @@
         <v>543894.5214213408</v>
       </c>
       <c r="C5" t="n">
-        <v>543830.4732518016</v>
+        <v>556834.9363015966</v>
       </c>
       <c r="D5" t="n">
-        <v>556834.5068168781</v>
+        <v>532019.8274843402</v>
       </c>
       <c r="E5" t="n">
-        <v>411184.8787221909</v>
+        <v>396298.985907197</v>
+      </c>
+      <c r="F5" t="n">
+        <v>411778.6382899284</v>
       </c>
     </row>
     <row r="6">
@@ -8185,13 +8775,16 @@
         <v>564277.0829855176</v>
       </c>
       <c r="C6" t="n">
-        <v>552870.8662750105</v>
+        <v>552906.4868521146</v>
       </c>
       <c r="D6" t="n">
-        <v>552904.8483319612</v>
+        <v>541865.5984270292</v>
       </c>
       <c r="E6" t="n">
-        <v>427057.6949170828</v>
+        <v>411155.6936839819</v>
+      </c>
+      <c r="F6" t="n">
+        <v>435832.6227722168</v>
       </c>
     </row>
     <row r="7">
@@ -8202,13 +8795,16 @@
         <v>490381.8003307534</v>
       </c>
       <c r="C7" t="n">
-        <v>480480.9178804589</v>
+        <v>472179.4791955241</v>
       </c>
       <c r="D7" t="n">
-        <v>472178.4318973128</v>
+        <v>474198.4272893558</v>
       </c>
       <c r="E7" t="n">
-        <v>455809.6000776291</v>
+        <v>415992.7208451033</v>
+      </c>
+      <c r="F7" t="n">
+        <v>429132.1297124624</v>
       </c>
     </row>
     <row r="8">
@@ -8219,13 +8815,16 @@
         <v>406713.3404566589</v>
       </c>
       <c r="C8" t="n">
-        <v>391236.3189834953</v>
+        <v>373987.9418625854</v>
       </c>
       <c r="D8" t="n">
-        <v>373986.4784261398</v>
+        <v>393642.4163080453</v>
       </c>
       <c r="E8" t="n">
-        <v>396008.8039324284</v>
+        <v>431866.0448161364</v>
+      </c>
+      <c r="F8" t="n">
+        <v>375482.9447982311</v>
       </c>
     </row>
     <row r="9">
@@ -8236,13 +8835,16 @@
         <v>434978.2652592162</v>
       </c>
       <c r="C9" t="n">
-        <v>431750.6649073598</v>
+        <v>429123.4354584591</v>
       </c>
       <c r="D9" t="n">
-        <v>429122.6516695996</v>
+        <v>430785.0501019903</v>
       </c>
       <c r="E9" t="n">
-        <v>422911.3158473969</v>
+        <v>410125.2949944735</v>
+      </c>
+      <c r="F9" t="n">
+        <v>441440.5750147104</v>
       </c>
     </row>
     <row r="10">
@@ -8253,13 +8855,16 @@
         <v>450859.7601912755</v>
       </c>
       <c r="C10" t="n">
-        <v>450749.2978402414</v>
+        <v>452117.7379582022</v>
       </c>
       <c r="D10" t="n">
-        <v>452118.0376585394</v>
+        <v>448427.4113159506</v>
       </c>
       <c r="E10" t="n">
-        <v>435646.7525247335</v>
+        <v>428282.3542503119</v>
+      </c>
+      <c r="F10" t="n">
+        <v>423141.1208209991</v>
       </c>
     </row>
     <row r="11">
@@ -8270,13 +8875,16 @@
         <v>516959.2559868487</v>
       </c>
       <c r="C11" t="n">
-        <v>521431.2824727829</v>
+        <v>536097.7829695338</v>
       </c>
       <c r="D11" t="n">
-        <v>536098.1440418881</v>
+        <v>511331.4473102597</v>
       </c>
       <c r="E11" t="n">
-        <v>421811.1825678349</v>
+        <v>408964.3011174202</v>
+      </c>
+      <c r="F11" t="n">
+        <v>395857.6075414419</v>
       </c>
     </row>
     <row r="12">
@@ -8287,13 +8895,16 @@
         <v>476991.9684154341</v>
       </c>
       <c r="C12" t="n">
-        <v>464393.756367388</v>
+        <v>454152.4222560694</v>
       </c>
       <c r="D12" t="n">
-        <v>454152.7865094586</v>
+        <v>460383.3942549688</v>
       </c>
       <c r="E12" t="n">
-        <v>429719.989405036</v>
+        <v>415986.8451497555</v>
+      </c>
+      <c r="F12" t="n">
+        <v>426706.7732439041</v>
       </c>
     </row>
     <row r="13">
@@ -8304,13 +8915,16 @@
         <v>435581.2033213383</v>
       </c>
       <c r="C13" t="n">
-        <v>416112.7420945085</v>
+        <v>391665.2728244048</v>
       </c>
       <c r="D13" t="n">
-        <v>391665.510104325</v>
+        <v>411870.446888427</v>
       </c>
       <c r="E13" t="n">
-        <v>450005.3077272177</v>
+        <v>402684.7786585093</v>
+      </c>
+      <c r="F13" t="n">
+        <v>373862.3893336058</v>
       </c>
     </row>
     <row r="14">
@@ -8321,13 +8935,16 @@
         <v>506604.1397559684</v>
       </c>
       <c r="C14" t="n">
-        <v>495056.2272369897</v>
+        <v>489228.1453765266</v>
       </c>
       <c r="D14" t="n">
-        <v>489228.7464881928</v>
+        <v>488161.6287305618</v>
       </c>
       <c r="E14" t="n">
-        <v>427155.7682517767</v>
+        <v>397792.137920022</v>
+      </c>
+      <c r="F14" t="n">
+        <v>449074.7474989891</v>
       </c>
     </row>
     <row r="15">
@@ -8338,13 +8955,16 @@
         <v>467935.3596734282</v>
       </c>
       <c r="C15" t="n">
-        <v>454342.3486099895</v>
+        <v>441219.5416687119</v>
       </c>
       <c r="D15" t="n">
-        <v>441220.2119754679</v>
+        <v>448237.6845067712</v>
       </c>
       <c r="E15" t="n">
-        <v>437958.5847560167</v>
+        <v>398535.0869539976</v>
+      </c>
+      <c r="F15" t="n">
+        <v>398821.8837544918</v>
       </c>
     </row>
     <row r="16">
@@ -8355,13 +8975,16 @@
         <v>500593.828677029</v>
       </c>
       <c r="C16" t="n">
-        <v>491579.6924942732</v>
+        <v>486570.1088192383</v>
       </c>
       <c r="D16" t="n">
-        <v>486570.5980690094</v>
+        <v>484801.3497669926</v>
       </c>
       <c r="E16" t="n">
-        <v>443247.290884614</v>
+        <v>421440.288366437</v>
+      </c>
+      <c r="F16" t="n">
+        <v>415554.1956976652</v>
       </c>
     </row>
     <row r="17">
@@ -8372,13 +8995,16 @@
         <v>556121.4873542852</v>
       </c>
       <c r="C17" t="n">
-        <v>551553.9841854121</v>
+        <v>556610.6427300562</v>
       </c>
       <c r="D17" t="n">
-        <v>556610.6848777183</v>
+        <v>540367.0708996295</v>
       </c>
       <c r="E17" t="n">
-        <v>450005.3319070339</v>
+        <v>423410.4839739799</v>
+      </c>
+      <c r="F17" t="n">
+        <v>428186.6988972425</v>
       </c>
     </row>
     <row r="18">
@@ -8389,13 +9015,16 @@
         <v>574653.2051678462</v>
       </c>
       <c r="C18" t="n">
-        <v>558586.6997161496</v>
+        <v>552240.6734335423</v>
       </c>
       <c r="D18" t="n">
-        <v>552239.2044400155</v>
+        <v>545061.6723662416</v>
       </c>
       <c r="E18" t="n">
-        <v>446257.871445775</v>
+        <v>399249.2136470079</v>
+      </c>
+      <c r="F18" t="n">
+        <v>428422.4521056414</v>
       </c>
     </row>
     <row r="19">
@@ -8406,13 +9035,16 @@
         <v>502021.4353113277</v>
       </c>
       <c r="C19" t="n">
-        <v>487447.4192343396</v>
+        <v>474434.2862945913</v>
       </c>
       <c r="D19" t="n">
-        <v>474435.430379219</v>
+        <v>480826.334922481</v>
       </c>
       <c r="E19" t="n">
-        <v>459155.0227341652</v>
+        <v>423744.3346968889</v>
+      </c>
+      <c r="F19" t="n">
+        <v>422842.5242701769</v>
       </c>
     </row>
     <row r="20">
@@ -8423,13 +9055,16 @@
         <v>417450.2518580036</v>
       </c>
       <c r="C20" t="n">
-        <v>398666.7520613219</v>
+        <v>374277.387307853</v>
       </c>
       <c r="D20" t="n">
-        <v>374276.69072755</v>
+        <v>399935.1266359431</v>
       </c>
       <c r="E20" t="n">
-        <v>439513.8305369616</v>
+        <v>409140.2818200588</v>
+      </c>
+      <c r="F20" t="n">
+        <v>449883.8283303976</v>
       </c>
     </row>
     <row r="21">
@@ -8440,13 +9075,16 @@
         <v>445178.3759185863</v>
       </c>
       <c r="C21" t="n">
-        <v>437066.1611253707</v>
+        <v>430423.2483639616</v>
       </c>
       <c r="D21" t="n">
-        <v>430423.675516667</v>
+        <v>440212.599855483</v>
       </c>
       <c r="E21" t="n">
-        <v>415227.5505599976</v>
+        <v>463958.0047140121</v>
+      </c>
+      <c r="F21" t="n">
+        <v>439062.2482887506</v>
       </c>
     </row>
     <row r="22">
@@ -8457,13 +9095,16 @@
         <v>462857.8305804161</v>
       </c>
       <c r="C22" t="n">
-        <v>457685.9495234428</v>
+        <v>453689.9287241024</v>
       </c>
       <c r="D22" t="n">
-        <v>453691.4458850516</v>
+        <v>452657.3932986993</v>
       </c>
       <c r="E22" t="n">
-        <v>441324.1491994858</v>
+        <v>420391.1986789703</v>
+      </c>
+      <c r="F22" t="n">
+        <v>392315.5787990093</v>
       </c>
     </row>
     <row r="23">
@@ -8474,13 +9115,16 @@
         <v>530891.9215508865</v>
       </c>
       <c r="C23" t="n">
-        <v>527787.1954966187</v>
+        <v>537834.2836321928</v>
       </c>
       <c r="D23" t="n">
-        <v>537835.8753237516</v>
+        <v>524658.7558287496</v>
       </c>
       <c r="E23" t="n">
-        <v>391679.6496317387</v>
+        <v>468738.8379821777</v>
+      </c>
+      <c r="F23" t="n">
+        <v>430419.4873092175</v>
       </c>
     </row>
     <row r="24">
@@ -8488,16 +9132,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>487080.3148815041</v>
+        <v>487080.314881504</v>
       </c>
       <c r="C24" t="n">
-        <v>470378.8151678313</v>
+        <v>455241.4460252578</v>
       </c>
       <c r="D24" t="n">
-        <v>455242.570714366</v>
+        <v>465325.578937697</v>
       </c>
       <c r="E24" t="n">
-        <v>440237.1455601454</v>
+        <v>429785.0331107378</v>
+      </c>
+      <c r="F24" t="n">
+        <v>397036.0592458248</v>
       </c>
     </row>
     <row r="25">
@@ -8508,13 +9155,16 @@
         <v>446431.882372366</v>
       </c>
       <c r="C25" t="n">
-        <v>421367.0207022723</v>
+        <v>392554.9188266798</v>
       </c>
       <c r="D25" t="n">
-        <v>392555.77298608</v>
+        <v>423463.8788522301</v>
       </c>
       <c r="E25" t="n">
-        <v>437977.2032145262</v>
+        <v>444450.817058444</v>
+      </c>
+      <c r="F25" t="n">
+        <v>443961.7560950518</v>
       </c>
     </row>
     <row r="26">
@@ -8525,13 +9175,16 @@
         <v>516426.4131505235</v>
       </c>
       <c r="C26" t="n">
-        <v>501112.5350910784</v>
+        <v>490016.6498512135</v>
       </c>
       <c r="D26" t="n">
-        <v>490017.8009244877</v>
+        <v>489137.7676751958</v>
       </c>
       <c r="E26" t="n">
-        <v>445228.8751856089</v>
+        <v>371434.9775806665</v>
+      </c>
+      <c r="F26" t="n">
+        <v>407458.9624772072</v>
       </c>
     </row>
     <row r="27">
@@ -8542,13 +9195,16 @@
         <v>479200.3440425262</v>
       </c>
       <c r="C27" t="n">
-        <v>460839.2814179112</v>
+        <v>441818.570146181</v>
       </c>
       <c r="D27" t="n">
-        <v>441819.6796264474</v>
+        <v>460093.7345503834</v>
       </c>
       <c r="E27" t="n">
-        <v>451843.6024371386</v>
+        <v>435759.1403106451</v>
+      </c>
+      <c r="F27" t="n">
+        <v>482413.1769243479</v>
       </c>
     </row>
     <row r="28">
@@ -8559,13 +9215,16 @@
         <v>513381.0169881912</v>
       </c>
       <c r="C28" t="n">
-        <v>499585.3874372054</v>
+        <v>486950.2254035133</v>
       </c>
       <c r="D28" t="n">
-        <v>486951.0037053521</v>
+        <v>494638.4239101708</v>
       </c>
       <c r="E28" t="n">
-        <v>476023.9989987612</v>
+        <v>447783.2067940235</v>
+      </c>
+      <c r="F28" t="n">
+        <v>457027.4407026768</v>
       </c>
     </row>
     <row r="29">
@@ -8576,13 +9235,16 @@
         <v>568301.3849021596</v>
       </c>
       <c r="C29" t="n">
-        <v>557987.690549835</v>
+        <v>556815.8486504663</v>
       </c>
       <c r="D29" t="n">
-        <v>556816.0190279636</v>
+        <v>546566.012803721</v>
       </c>
       <c r="E29" t="n">
-        <v>456425.0247607231</v>
+        <v>411900.7463619709</v>
+      </c>
+      <c r="F29" t="n">
+        <v>463640.9106037617</v>
       </c>
     </row>
     <row r="30">
@@ -8590,16 +9252,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>584981.9038044765</v>
+        <v>584981.9038044766</v>
       </c>
       <c r="C30" t="n">
-        <v>563103.1366991582</v>
+        <v>552345.0518363847</v>
       </c>
       <c r="D30" t="n">
-        <v>552343.5875991565</v>
+        <v>553638.7255370016</v>
       </c>
       <c r="E30" t="n">
-        <v>431604.8544410467</v>
+        <v>439895.9925327301</v>
+      </c>
+      <c r="F30" t="n">
+        <v>441758.0318222046</v>
       </c>
     </row>
     <row r="31">
@@ -8610,13 +9275,16 @@
         <v>513652.8417002779</v>
       </c>
       <c r="C31" t="n">
-        <v>492523.8641532899</v>
+        <v>474497.9658730985</v>
       </c>
       <c r="D31" t="n">
-        <v>474499.0571965544</v>
+        <v>489592.2132155645</v>
       </c>
       <c r="E31" t="n">
-        <v>442987.7689168453</v>
+        <v>460848.9155814648</v>
+      </c>
+      <c r="F31" t="n">
+        <v>433652.4496403933</v>
       </c>
     </row>
     <row r="32">
@@ -8627,13 +9295,16 @@
         <v>428205.8075940275</v>
       </c>
       <c r="C32" t="n">
-        <v>404612.8906179094</v>
+        <v>374329.8528129966</v>
       </c>
       <c r="D32" t="n">
-        <v>374329.104858525</v>
+        <v>407477.4887895538</v>
       </c>
       <c r="E32" t="n">
-        <v>452355.0780901909</v>
+        <v>452548.2990018129</v>
+      </c>
+      <c r="F32" t="n">
+        <v>428799.2703620195</v>
       </c>
     </row>
     <row r="33">
@@ -8644,13 +9315,16 @@
         <v>455418.1332149423</v>
       </c>
       <c r="C33" t="n">
-        <v>442437.9706740532</v>
+        <v>430470.0831395212</v>
       </c>
       <c r="D33" t="n">
-        <v>430470.4884669329</v>
+        <v>446340.1569191866</v>
       </c>
       <c r="E33" t="n">
-        <v>421080.2267227173</v>
+        <v>475296.3799682856</v>
+      </c>
+      <c r="F33" t="n">
+        <v>451600.9579811096</v>
       </c>
     </row>
     <row r="34">
@@ -8661,13 +9335,16 @@
         <v>474915.7304797128</v>
       </c>
       <c r="C34" t="n">
-        <v>462556.669034483</v>
+        <v>453727.3254153945</v>
       </c>
       <c r="D34" t="n">
-        <v>453728.8477948285</v>
+        <v>463715.8218720975</v>
       </c>
       <c r="E34" t="n">
-        <v>416175.5202559233</v>
+        <v>452908.8684216738</v>
+      </c>
+      <c r="F34" t="n">
+        <v>462770.485578537</v>
       </c>
     </row>
     <row r="35">
@@ -8678,13 +9355,16 @@
         <v>544766.8253263182</v>
       </c>
       <c r="C35" t="n">
-        <v>539044.6255386166</v>
+        <v>537859.4730239806</v>
       </c>
       <c r="D35" t="n">
-        <v>537861.0797997668</v>
+        <v>530634.1498716552</v>
       </c>
       <c r="E35" t="n">
-        <v>488108.8777199984</v>
+        <v>457113.5208485126</v>
+      </c>
+      <c r="F35" t="n">
+        <v>443895.6484774351</v>
       </c>
     </row>
     <row r="36">
@@ -8695,13 +9375,16 @@
         <v>497111.4145195366</v>
       </c>
       <c r="C36" t="n">
-        <v>476302.6134212253</v>
+        <v>455255.8026702736</v>
       </c>
       <c r="D36" t="n">
-        <v>455256.9372583676</v>
+        <v>475954.1284826562</v>
       </c>
       <c r="E36" t="n">
-        <v>460938.6952391863</v>
+        <v>474196.585206151</v>
+      </c>
+      <c r="F36" t="n">
+        <v>456687.2065082788</v>
       </c>
     </row>
     <row r="37">
@@ -8709,16 +9392,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>457287.7664077113</v>
+        <v>457287.7664077112</v>
       </c>
       <c r="C37" t="n">
-        <v>427786.2681448922</v>
+        <v>392562.313425776</v>
       </c>
       <c r="D37" t="n">
-        <v>392563.1672092957</v>
+        <v>430896.1457609291</v>
       </c>
       <c r="E37" t="n">
-        <v>460649.1661194563</v>
+        <v>468227.8701052666</v>
+      </c>
+      <c r="F37" t="n">
+        <v>457509.1993615627</v>
       </c>
     </row>
     <row r="38">
@@ -8729,13 +9415,16 @@
         <v>526252.3640622047</v>
       </c>
       <c r="C38" t="n">
-        <v>506194.1799518576</v>
+        <v>490020.8202120399</v>
       </c>
       <c r="D38" t="n">
-        <v>490021.9639343567</v>
+        <v>499993.4336363827</v>
       </c>
       <c r="E38" t="n">
-        <v>449640.1199624538</v>
+        <v>445949.6513280869</v>
+      </c>
+      <c r="F38" t="n">
+        <v>416776.4612290859</v>
       </c>
     </row>
     <row r="39">
@@ -8746,13 +9435,16 @@
         <v>490531.3076392346</v>
       </c>
       <c r="C39" t="n">
-        <v>467132.6206499779</v>
+        <v>441821.7017419816</v>
       </c>
       <c r="D39" t="n">
-        <v>441822.8028424711</v>
+        <v>464355.3442168841</v>
       </c>
       <c r="E39" t="n">
-        <v>466544.6405569315</v>
+        <v>433302.8336772919</v>
+      </c>
+      <c r="F39" t="n">
+        <v>465111.0434315205</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/no_covid_series_IAH-Int_results.xlsx
+++ b/fcst_results/no_covid_series_IAH-Int_results.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,6 +74,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,19 +479,19 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>414043.827655673</v>
+        <v>433564.0965918303</v>
       </c>
       <c r="C2" t="n">
-        <v>383838.1594029665</v>
+        <v>425324.7274867296</v>
       </c>
       <c r="D2" t="n">
-        <v>491920.6334520737</v>
+        <v>491920.8462882977</v>
       </c>
       <c r="E2" t="n">
         <v>496783.8125174749</v>
       </c>
       <c r="F2" t="n">
-        <v>483405.4613935426</v>
+        <v>486252.9848087049</v>
       </c>
     </row>
     <row r="3">
@@ -432,19 +499,19 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>401748.1492964029</v>
+        <v>424399.075761199</v>
       </c>
       <c r="C3" t="n">
-        <v>396028.9215395451</v>
+        <v>421311.2648669481</v>
       </c>
       <c r="D3" t="n">
-        <v>442935.2703417128</v>
+        <v>442935.5764097042</v>
       </c>
       <c r="E3" t="n">
         <v>456736.2819212076</v>
       </c>
       <c r="F3" t="n">
-        <v>443986.9761580501</v>
+        <v>446661.8676645595</v>
       </c>
     </row>
     <row r="4">
@@ -452,19 +519,19 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>400519.862990737</v>
+        <v>427890.9555647373</v>
       </c>
       <c r="C4" t="n">
-        <v>432632.4724516869</v>
+        <v>385434.5834109783</v>
       </c>
       <c r="D4" t="n">
-        <v>486801.5886616745</v>
+        <v>486801.3117955711</v>
       </c>
       <c r="E4" t="n">
         <v>487827.2756195136</v>
       </c>
       <c r="F4" t="n">
-        <v>478097.9544721704</v>
+        <v>477918.1321556754</v>
       </c>
     </row>
     <row r="5">
@@ -472,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>396298.985907197</v>
+        <v>400034.2597410679</v>
       </c>
       <c r="C5" t="n">
-        <v>411778.6382899284</v>
+        <v>423508.6056683064</v>
       </c>
       <c r="D5" t="n">
-        <v>556834.9363015966</v>
+        <v>556834.5068168781</v>
       </c>
       <c r="E5" t="n">
         <v>543894.5214213408</v>
       </c>
       <c r="F5" t="n">
-        <v>532019.8274843402</v>
+        <v>531713.5719772634</v>
       </c>
     </row>
     <row r="6">
@@ -492,19 +559,19 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>411155.6936839819</v>
+        <v>388003.2052907944</v>
       </c>
       <c r="C6" t="n">
-        <v>435832.6227722168</v>
+        <v>406315.3297082186</v>
       </c>
       <c r="D6" t="n">
-        <v>552906.4868521146</v>
+        <v>552904.8483319612</v>
       </c>
       <c r="E6" t="n">
         <v>564277.0829855176</v>
       </c>
       <c r="F6" t="n">
-        <v>541865.5984270292</v>
+        <v>537527.8407652797</v>
       </c>
     </row>
     <row r="7">
@@ -512,19 +579,19 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>415992.7208451033</v>
+        <v>415040.2537033558</v>
       </c>
       <c r="C7" t="n">
-        <v>429132.1297124624</v>
+        <v>426934.3536744118</v>
       </c>
       <c r="D7" t="n">
-        <v>472179.4791955241</v>
+        <v>472178.4318973128</v>
       </c>
       <c r="E7" t="n">
         <v>490381.8003307534</v>
       </c>
       <c r="F7" t="n">
-        <v>474198.4272893558</v>
+        <v>473532.7262522716</v>
       </c>
     </row>
     <row r="8">
@@ -532,19 +599,19 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>431866.0448161364</v>
+        <v>403317.5644496679</v>
       </c>
       <c r="C8" t="n">
-        <v>375482.9447982311</v>
+        <v>403386.2593076229</v>
       </c>
       <c r="D8" t="n">
-        <v>373987.9418625854</v>
+        <v>373986.4784261398</v>
       </c>
       <c r="E8" t="n">
         <v>406713.3404566589</v>
       </c>
       <c r="F8" t="n">
-        <v>393642.4163080453</v>
+        <v>392583.0342394926</v>
       </c>
     </row>
     <row r="9">
@@ -552,19 +619,19 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>410125.2949944735</v>
+        <v>426763.4749130011</v>
       </c>
       <c r="C9" t="n">
-        <v>441440.5750147104</v>
+        <v>438654.0688107014</v>
       </c>
       <c r="D9" t="n">
-        <v>429123.4354584591</v>
+        <v>429122.6516695996</v>
       </c>
       <c r="E9" t="n">
         <v>434978.2652592162</v>
       </c>
       <c r="F9" t="n">
-        <v>430785.0501019903</v>
+        <v>431957.1428452297</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +639,19 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>428282.3542503119</v>
+        <v>437576.3985804319</v>
       </c>
       <c r="C10" t="n">
-        <v>423141.1208209991</v>
+        <v>424029.3663707972</v>
       </c>
       <c r="D10" t="n">
-        <v>452117.7379582022</v>
+        <v>452118.0376585394</v>
       </c>
       <c r="E10" t="n">
         <v>450859.7601912755</v>
       </c>
       <c r="F10" t="n">
-        <v>448427.4113159506</v>
+        <v>449115.1305681706</v>
       </c>
     </row>
     <row r="11">
@@ -592,19 +659,19 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>408964.3011174202</v>
+        <v>393854.8659012318</v>
       </c>
       <c r="C11" t="n">
-        <v>395857.6075414419</v>
+        <v>433679.3859556913</v>
       </c>
       <c r="D11" t="n">
-        <v>536097.7829695338</v>
+        <v>536098.1440418881</v>
       </c>
       <c r="E11" t="n">
         <v>516959.2559868487</v>
       </c>
       <c r="F11" t="n">
-        <v>511331.4473102597</v>
+        <v>510722.9457064469</v>
       </c>
     </row>
     <row r="12">
@@ -612,19 +679,19 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>415986.8451497555</v>
+        <v>469912.6229820251</v>
       </c>
       <c r="C12" t="n">
-        <v>426706.7732439041</v>
+        <v>461381.7903718948</v>
       </c>
       <c r="D12" t="n">
-        <v>454152.4222560694</v>
+        <v>454152.7865094586</v>
       </c>
       <c r="E12" t="n">
         <v>476991.9684154341</v>
       </c>
       <c r="F12" t="n">
-        <v>460383.3942549688</v>
+        <v>466170.2599612679</v>
       </c>
     </row>
     <row r="13">
@@ -632,19 +699,19 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>402684.7786585093</v>
+        <v>425585.8695021868</v>
       </c>
       <c r="C13" t="n">
-        <v>373862.3893336058</v>
+        <v>420830.9328172207</v>
       </c>
       <c r="D13" t="n">
-        <v>391665.2728244048</v>
+        <v>391665.510104325</v>
       </c>
       <c r="E13" t="n">
         <v>435581.2033213383</v>
       </c>
       <c r="F13" t="n">
-        <v>411870.446888427</v>
+        <v>415718.8429370738</v>
       </c>
     </row>
     <row r="14">
@@ -652,19 +719,19 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>397792.137920022</v>
+        <v>453065.1425740719</v>
       </c>
       <c r="C14" t="n">
-        <v>449074.7474989891</v>
+        <v>410714.6780154705</v>
       </c>
       <c r="D14" t="n">
-        <v>489228.1453765266</v>
+        <v>489228.7464881928</v>
       </c>
       <c r="E14" t="n">
         <v>506604.1397559684</v>
       </c>
       <c r="F14" t="n">
-        <v>488161.6287305618</v>
+        <v>490683.1286699229</v>
       </c>
     </row>
     <row r="15">
@@ -672,19 +739,19 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>398535.0869539976</v>
+        <v>447373.141290307</v>
       </c>
       <c r="C15" t="n">
-        <v>398821.8837544918</v>
+        <v>462229.7765276432</v>
       </c>
       <c r="D15" t="n">
-        <v>441219.5416687119</v>
+        <v>441220.2119754679</v>
       </c>
       <c r="E15" t="n">
         <v>467935.3596734282</v>
       </c>
       <c r="F15" t="n">
-        <v>448237.6845067712</v>
+        <v>454714.1778739695</v>
       </c>
     </row>
     <row r="16">
@@ -692,19 +759,19 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>421440.288366437</v>
+        <v>418782.6847628355</v>
       </c>
       <c r="C16" t="n">
-        <v>415554.1956976652</v>
+        <v>417032.6463822126</v>
       </c>
       <c r="D16" t="n">
-        <v>486570.1088192383</v>
+        <v>486570.5980690094</v>
       </c>
       <c r="E16" t="n">
         <v>500593.828677029</v>
       </c>
       <c r="F16" t="n">
-        <v>484801.3497669926</v>
+        <v>484097.9660333614</v>
       </c>
     </row>
     <row r="17">
@@ -712,19 +779,19 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>423410.4839739799</v>
+        <v>417417.0087412596</v>
       </c>
       <c r="C17" t="n">
-        <v>428186.6988972425</v>
+        <v>408271.7670003176</v>
       </c>
       <c r="D17" t="n">
-        <v>556610.6427300562</v>
+        <v>556610.6848777183</v>
       </c>
       <c r="E17" t="n">
         <v>556121.4873542852</v>
       </c>
       <c r="F17" t="n">
-        <v>540367.0708996295</v>
+        <v>538053.6764008724</v>
       </c>
     </row>
     <row r="18">
@@ -732,19 +799,19 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>399249.2136470079</v>
+        <v>419581.0781154633</v>
       </c>
       <c r="C18" t="n">
-        <v>428422.4521056414</v>
+        <v>439949.7926238775</v>
       </c>
       <c r="D18" t="n">
-        <v>552240.6734335423</v>
+        <v>552239.2044400155</v>
       </c>
       <c r="E18" t="n">
         <v>574653.2051678462</v>
       </c>
       <c r="F18" t="n">
-        <v>545061.6723662416</v>
+        <v>546103.5416772723</v>
       </c>
     </row>
     <row r="19">
@@ -752,19 +819,19 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>423744.3346968889</v>
+        <v>458510.7998899221</v>
       </c>
       <c r="C19" t="n">
-        <v>422842.5242701769</v>
+        <v>425568.7260124683</v>
       </c>
       <c r="D19" t="n">
-        <v>474434.2862945913</v>
+        <v>474435.430379219</v>
       </c>
       <c r="E19" t="n">
         <v>502021.4353113277</v>
       </c>
       <c r="F19" t="n">
-        <v>480826.334922481</v>
+        <v>483508.6012353486</v>
       </c>
     </row>
     <row r="20">
@@ -772,19 +839,19 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>409140.2818200588</v>
+        <v>421460.8895698786</v>
       </c>
       <c r="C20" t="n">
-        <v>449883.8283303976</v>
+        <v>456889.3981317282</v>
       </c>
       <c r="D20" t="n">
-        <v>374277.387307853</v>
+        <v>374276.69072755</v>
       </c>
       <c r="E20" t="n">
         <v>417450.2518580036</v>
       </c>
       <c r="F20" t="n">
-        <v>399935.1266359431</v>
+        <v>401358.6077282519</v>
       </c>
     </row>
     <row r="21">
@@ -792,19 +859,19 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>463958.0047140121</v>
+        <v>394054.7604421377</v>
       </c>
       <c r="C21" t="n">
-        <v>439062.2482887506</v>
+        <v>464456.9794020653</v>
       </c>
       <c r="D21" t="n">
-        <v>430423.2483639616</v>
+        <v>430423.675516667</v>
       </c>
       <c r="E21" t="n">
         <v>445178.3759185863</v>
       </c>
       <c r="F21" t="n">
-        <v>440212.599855483</v>
+        <v>435304.0299969942</v>
       </c>
     </row>
     <row r="22">
@@ -812,19 +879,19 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>420391.1986789703</v>
+        <v>484037.5044403076</v>
       </c>
       <c r="C22" t="n">
-        <v>392315.5787990093</v>
+        <v>483312.2066721916</v>
       </c>
       <c r="D22" t="n">
-        <v>453689.9287241024</v>
+        <v>453691.4458850516</v>
       </c>
       <c r="E22" t="n">
         <v>462857.8305804161</v>
       </c>
       <c r="F22" t="n">
-        <v>452657.3932986993</v>
+        <v>461724.8995170518</v>
       </c>
     </row>
     <row r="23">
@@ -832,19 +899,19 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>468738.8379821777</v>
+        <v>442341.7084065676</v>
       </c>
       <c r="C23" t="n">
-        <v>430419.4873092175</v>
+        <v>451880.1623193026</v>
       </c>
       <c r="D23" t="n">
-        <v>537834.2836321928</v>
+        <v>537835.8753237516</v>
       </c>
       <c r="E23" t="n">
         <v>530891.9215508865</v>
       </c>
       <c r="F23" t="n">
-        <v>524658.7558287496</v>
+        <v>522764.9305739696</v>
       </c>
     </row>
     <row r="24">
@@ -852,19 +919,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>429785.0331107378</v>
+        <v>433498.617649436</v>
       </c>
       <c r="C24" t="n">
-        <v>397036.0592458248</v>
+        <v>405425.6333694458</v>
       </c>
       <c r="D24" t="n">
-        <v>455241.4460252578</v>
+        <v>455242.570714366</v>
       </c>
       <c r="E24" t="n">
-        <v>487080.314881504</v>
+        <v>487080.3148815041</v>
       </c>
       <c r="F24" t="n">
-        <v>465325.578937697</v>
+        <v>465689.1693651812</v>
       </c>
     </row>
     <row r="25">
@@ -872,19 +939,19 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>444450.817058444</v>
+        <v>425976.059196949</v>
       </c>
       <c r="C25" t="n">
-        <v>443961.7560950518</v>
+        <v>489118.6026666164</v>
       </c>
       <c r="D25" t="n">
-        <v>392554.9188266798</v>
+        <v>392555.77298608</v>
       </c>
       <c r="E25" t="n">
         <v>446431.882372366</v>
       </c>
       <c r="F25" t="n">
-        <v>423463.8788522301</v>
+        <v>423844.9194362788</v>
       </c>
     </row>
     <row r="26">
@@ -892,19 +959,19 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>371434.9775806665</v>
+        <v>440338.8700470924</v>
       </c>
       <c r="C26" t="n">
-        <v>407458.9624772072</v>
+        <v>494290.8588001728</v>
       </c>
       <c r="D26" t="n">
-        <v>490016.6498512135</v>
+        <v>490017.8009244877</v>
       </c>
       <c r="E26" t="n">
         <v>516426.4131505235</v>
       </c>
       <c r="F26" t="n">
-        <v>489137.7676751958</v>
+        <v>497777.6471232391</v>
       </c>
     </row>
     <row r="27">
@@ -912,19 +979,19 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>435759.1403106451</v>
+        <v>402363.8157776594</v>
       </c>
       <c r="C27" t="n">
-        <v>482413.1769243479</v>
+        <v>465706.1328891516</v>
       </c>
       <c r="D27" t="n">
-        <v>441818.570146181</v>
+        <v>441819.6796264474</v>
       </c>
       <c r="E27" t="n">
         <v>479200.3440425262</v>
       </c>
       <c r="F27" t="n">
-        <v>460093.7345503834</v>
+        <v>456249.8325530263</v>
       </c>
     </row>
     <row r="28">
@@ -932,19 +999,19 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>447783.2067940235</v>
+        <v>428149.3894407749</v>
       </c>
       <c r="C28" t="n">
-        <v>457027.4407026768</v>
+        <v>480217.7463284731</v>
       </c>
       <c r="D28" t="n">
-        <v>486950.2254035133</v>
+        <v>486951.0037053521</v>
       </c>
       <c r="E28" t="n">
         <v>513381.0169881912</v>
       </c>
       <c r="F28" t="n">
-        <v>494638.4239101708</v>
+        <v>493465.9944160714</v>
       </c>
     </row>
     <row r="29">
@@ -952,19 +1019,19 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>411900.7463619709</v>
+        <v>424839.9463508129</v>
       </c>
       <c r="C29" t="n">
-        <v>463640.9106037617</v>
+        <v>416976.4283094406</v>
       </c>
       <c r="D29" t="n">
-        <v>556815.8486504663</v>
+        <v>556816.0190279636</v>
       </c>
       <c r="E29" t="n">
         <v>568301.3849021596</v>
       </c>
       <c r="F29" t="n">
-        <v>546566.012803721</v>
+        <v>544661.6190653476</v>
       </c>
     </row>
     <row r="30">
@@ -972,19 +1039,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>439895.9925327301</v>
+        <v>438741.8415436745</v>
       </c>
       <c r="C30" t="n">
-        <v>441758.0318222046</v>
+        <v>419944.6941921711</v>
       </c>
       <c r="D30" t="n">
-        <v>552345.0518363847</v>
+        <v>552343.5875991565</v>
       </c>
       <c r="E30" t="n">
-        <v>584981.9038044766</v>
+        <v>584981.9038044765</v>
       </c>
       <c r="F30" t="n">
-        <v>553638.7255370016</v>
+        <v>551682.1102828748</v>
       </c>
     </row>
     <row r="31">
@@ -992,19 +1059,19 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>460848.9155814648</v>
+        <v>465747.0209584236</v>
       </c>
       <c r="C31" t="n">
-        <v>433652.4496403933</v>
+        <v>437359.1429314613</v>
       </c>
       <c r="D31" t="n">
-        <v>474497.9658730985</v>
+        <v>474499.0571965544</v>
       </c>
       <c r="E31" t="n">
         <v>513652.8417002779</v>
       </c>
       <c r="F31" t="n">
-        <v>489592.2132155645</v>
+        <v>489919.5758898265</v>
       </c>
     </row>
     <row r="32">
@@ -1012,19 +1079,19 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>452548.2990018129</v>
+        <v>426626.665512681</v>
       </c>
       <c r="C32" t="n">
-        <v>428799.2703620195</v>
+        <v>442400.6104389429</v>
       </c>
       <c r="D32" t="n">
-        <v>374329.8528129966</v>
+        <v>374329.104858525</v>
       </c>
       <c r="E32" t="n">
         <v>428205.8075940275</v>
       </c>
       <c r="F32" t="n">
-        <v>407477.4887895538</v>
+        <v>406105.532315477</v>
       </c>
     </row>
     <row r="33">
@@ -1032,19 +1099,19 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>475296.3799682856</v>
+        <v>455165.3530535698</v>
       </c>
       <c r="C33" t="n">
-        <v>451600.9579811096</v>
+        <v>500897.1472958326</v>
       </c>
       <c r="D33" t="n">
-        <v>430470.0831395212</v>
+        <v>430470.4884669329</v>
       </c>
       <c r="E33" t="n">
         <v>455418.1332149423</v>
       </c>
       <c r="F33" t="n">
-        <v>446340.1569191866</v>
+        <v>446827.1319141872</v>
       </c>
     </row>
     <row r="34">
@@ -1052,19 +1119,19 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>452908.8684216738</v>
+        <v>426710.6661943197</v>
       </c>
       <c r="C34" t="n">
-        <v>462770.485578537</v>
+        <v>434029.2678967714</v>
       </c>
       <c r="D34" t="n">
-        <v>453727.3254153945</v>
+        <v>453728.8477948285</v>
       </c>
       <c r="E34" t="n">
         <v>474915.7304797128</v>
       </c>
       <c r="F34" t="n">
-        <v>463715.8218720975</v>
+        <v>460131.218449718</v>
       </c>
     </row>
     <row r="35">
@@ -1072,19 +1139,19 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>457113.5208485126</v>
+        <v>450938.0441389084</v>
       </c>
       <c r="C35" t="n">
-        <v>443895.6484774351</v>
+        <v>488953.938117981</v>
       </c>
       <c r="D35" t="n">
-        <v>537859.4730239806</v>
+        <v>537861.0797997668</v>
       </c>
       <c r="E35" t="n">
         <v>544766.8253263182</v>
       </c>
       <c r="F35" t="n">
-        <v>530634.1498716552</v>
+        <v>531334.665674526</v>
       </c>
     </row>
     <row r="36">
@@ -1092,19 +1159,19 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>474196.585206151</v>
+        <v>455301.6788575649</v>
       </c>
       <c r="C36" t="n">
-        <v>456687.2065082788</v>
+        <v>487722.7260545492</v>
       </c>
       <c r="D36" t="n">
-        <v>455255.8026702736</v>
+        <v>455256.9372583676</v>
       </c>
       <c r="E36" t="n">
         <v>497111.4145195366</v>
       </c>
       <c r="F36" t="n">
-        <v>475954.1284826562</v>
+        <v>475536.0772945691</v>
       </c>
     </row>
     <row r="37">
@@ -1112,19 +1179,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>468227.8701052666</v>
+        <v>462229.3896505833</v>
       </c>
       <c r="C37" t="n">
-        <v>457509.1993615627</v>
+        <v>467191.6924396753</v>
       </c>
       <c r="D37" t="n">
-        <v>392562.313425776</v>
+        <v>392563.1672092957</v>
       </c>
       <c r="E37" t="n">
-        <v>457287.7664077112</v>
+        <v>457287.7664077113</v>
       </c>
       <c r="F37" t="n">
-        <v>430896.1457609291</v>
+        <v>431044.6205864066</v>
       </c>
     </row>
     <row r="38">
@@ -1132,19 +1199,19 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>445949.6513280869</v>
+        <v>425587.9006067514</v>
       </c>
       <c r="C38" t="n">
-        <v>416776.4612290859</v>
+        <v>454798.5210613012</v>
       </c>
       <c r="D38" t="n">
-        <v>490020.8202120399</v>
+        <v>490021.9639343567</v>
       </c>
       <c r="E38" t="n">
         <v>526252.3640622047</v>
       </c>
       <c r="F38" t="n">
-        <v>499993.4336363827</v>
+        <v>499304.7119706097</v>
       </c>
     </row>
     <row r="39">
@@ -1152,19 +1219,19 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>433302.8336772919</v>
+        <v>436317.6215264797</v>
       </c>
       <c r="C39" t="n">
-        <v>465111.0434315205</v>
+        <v>454113.1199899912</v>
       </c>
       <c r="D39" t="n">
-        <v>441821.7017419816</v>
+        <v>441822.8028424711</v>
       </c>
       <c r="E39" t="n">
         <v>490531.3076392346</v>
       </c>
       <c r="F39" t="n">
-        <v>464355.3442168841</v>
+        <v>463885.7366834442</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>35525.99341368655</v>
+        <v>36410.73864074977</v>
       </c>
       <c r="S2" t="n">
         <v>19305.06229460701</v>
@@ -1480,19 +1547,19 @@
         <v>69</v>
       </c>
       <c r="K3" t="n">
-        <v>45446.14624419974</v>
+        <v>45446.15300213042</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08444963439406128</v>
+        <v>0.08444965100958637</v>
       </c>
       <c r="M3" t="n">
-        <v>39018.18701493634</v>
+        <v>39018.1945336659</v>
       </c>
       <c r="N3" t="n">
-        <v>0.46165077044555</v>
+        <v>0.461650610338375</v>
       </c>
       <c r="O3" t="n">
-        <v>366323.114972033</v>
+        <v>366323.1025829923</v>
       </c>
       <c r="P3" t="n">
         <v>395074</v>
@@ -1501,19 +1568,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>65708.77992350237</v>
+        <v>36134.69754876393</v>
       </c>
       <c r="S3" t="n">
-        <v>33087.36046373296</v>
+        <v>33087.89275824317</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06172898561116283</v>
+        <v>0.06172960993904969</v>
       </c>
       <c r="U3" t="n">
-        <v>18359.50208434222</v>
+        <v>18359.68278607337</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8598288580565563</v>
+        <v>0.8598243480002409</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1524,16 +1591,16 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>45446.14624419974</v>
+        <v>45446.15300213042</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.08444963439406128</v>
+        <v>0.08444965100958637</v>
       </c>
       <c r="AE3" t="n">
-        <v>39018.18701493634</v>
+        <v>39018.1945336659</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.46165077044555</v>
+        <v>0.461650610338375</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1571,19 +1638,19 @@
         <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>49244.47638972209</v>
+        <v>51207.39498386809</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08784676798917167</v>
+        <v>0.08940970101773259</v>
       </c>
       <c r="M4" t="n">
-        <v>41175.98882931354</v>
+        <v>42335.66290484158</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3679011204438247</v>
+        <v>0.3165050053078755</v>
       </c>
       <c r="O4" t="n">
-        <v>377203.6948909077</v>
+        <v>389790.2956416034</v>
       </c>
       <c r="P4" t="n">
         <v>395074</v>
@@ -1592,19 +1659,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>25310.30506634342</v>
+        <v>27728.11470647642</v>
       </c>
       <c r="S4" t="n">
-        <v>17443.86488636235</v>
+        <v>17425.69872103642</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03312760673077787</v>
+        <v>0.0339978428233145</v>
       </c>
       <c r="U4" t="n">
-        <v>12482.27206888901</v>
+        <v>12718.40402681366</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9502699168143964</v>
+        <v>0.9503734414074317</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1617,20 +1684,20 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>(0.45678924120242465, 0.4214506229449124, 0.08023384119789707, 0.04152629465476588)</t>
+          <t>(0.45251188154224853, 0.4184633709575583, 0.08788730372362508, 0.04113744377656805)</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>49244.47638972209</v>
+        <v>51207.39498386809</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08784676798917167</v>
+        <v>0.08940970101773259</v>
       </c>
       <c r="AE4" t="n">
-        <v>41175.98882931354</v>
+        <v>42335.66290484158</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3679011204438247</v>
+        <v>0.3165050053078755</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1674,19 +1741,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>131528.1602995399</v>
+        <v>137157.4662780334</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2337292491206818</v>
+        <v>0.2345540583416474</v>
       </c>
       <c r="M5" t="n">
-        <v>106611.1718030451</v>
+        <v>109598.1685351422</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.509282704154794</v>
+        <v>-3.903530489151577</v>
       </c>
       <c r="O5" t="n">
-        <v>331347.9655709267</v>
+        <v>400484.2100121975</v>
       </c>
       <c r="P5" t="n">
         <v>395074</v>
@@ -1695,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>108406.9525056262</v>
+        <v>117881.7402079388</v>
       </c>
       <c r="S5" t="n">
-        <v>59083.51889006834</v>
+        <v>56942.98207965606</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1341218544215612</v>
+        <v>0.1281636679896074</v>
       </c>
       <c r="U5" t="n">
-        <v>47456.61404217185</v>
+        <v>45768.92731859338</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4294857931963739</v>
+        <v>0.4700752887089311</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1718,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>131528.1602995399</v>
+        <v>137157.4662780334</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2337292491206818</v>
+        <v>0.2345540583416474</v>
       </c>
       <c r="AE5" t="n">
-        <v>106611.1718030451</v>
+        <v>109598.1685351422</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.509282704154794</v>
+        <v>-3.903530489151577</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1771,19 +1838,19 @@
         <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>145454.1347386117</v>
+        <v>154511.6913194076</v>
       </c>
       <c r="L6" t="n">
-        <v>0.250663491350466</v>
+        <v>0.2557817294157424</v>
       </c>
       <c r="M6" t="n">
-        <v>112420.3976199315</v>
+        <v>118844.7809119643</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.514702832852132</v>
+        <v>-5.222897754548985</v>
       </c>
       <c r="O6" t="n">
-        <v>272893.267460227</v>
+        <v>440775.6310317516</v>
       </c>
       <c r="P6" t="n">
         <v>395074</v>
@@ -1792,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>106950.1832011359</v>
+        <v>127949.5205976663</v>
       </c>
       <c r="S6" t="n">
-        <v>60652.21463337039</v>
+        <v>59491.14632687197</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1258387453905273</v>
+        <v>0.1384537060582073</v>
       </c>
       <c r="U6" t="n">
-        <v>47114.94399284853</v>
+        <v>48600.63823956715</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3987887705481841</v>
+        <v>0.4215864847418891</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1815,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>145454.1347386117</v>
+        <v>154511.6913194076</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.250663491350466</v>
+        <v>0.2557817294157424</v>
       </c>
       <c r="AE6" t="n">
-        <v>112420.3976199315</v>
+        <v>118844.7809119643</v>
       </c>
       <c r="AF6" t="n">
-        <v>-4.514702832852132</v>
+        <v>-5.222897754548985</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -5147,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>487080.314881504</v>
+        <v>487080.3148815041</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5225,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>584981.9038044766</v>
+        <v>584981.9038044765</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5316,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>457287.7664077112</v>
+        <v>457287.7664077113</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5417,16 +5484,16 @@
         <v>443411.126171467</v>
       </c>
       <c r="D2" t="n">
-        <v>454458.7635146558</v>
+        <v>454458.7607974557</v>
       </c>
       <c r="E2" t="n">
-        <v>444780.2334709312</v>
+        <v>430381.3529754714</v>
       </c>
       <c r="F2" t="n">
-        <v>385913.7638750076</v>
+        <v>287873.9605491161</v>
       </c>
       <c r="G2" t="n">
-        <v>475350.1158146858</v>
+        <v>346587.863915205</v>
       </c>
     </row>
     <row r="3">
@@ -5440,16 +5507,16 @@
         <v>461569.1959499707</v>
       </c>
       <c r="D3" t="n">
-        <v>470928.2172833594</v>
+        <v>470928.2104958872</v>
       </c>
       <c r="E3" t="n">
-        <v>449741.6825696399</v>
+        <v>447909.5872926688</v>
       </c>
       <c r="F3" t="n">
-        <v>369001.7877280712</v>
+        <v>354156.3325517178</v>
       </c>
       <c r="G3" t="n">
-        <v>260616.038692832</v>
+        <v>263798.3639092445</v>
       </c>
     </row>
     <row r="4">
@@ -5463,16 +5530,16 @@
         <v>405461.704916404</v>
       </c>
       <c r="D4" t="n">
-        <v>391747.9082187068</v>
+        <v>391747.9074246186</v>
       </c>
       <c r="E4" t="n">
-        <v>396747.6818781986</v>
+        <v>388993.2355161059</v>
       </c>
       <c r="F4" t="n">
-        <v>375166.2450015545</v>
+        <v>288593.3227294683</v>
       </c>
       <c r="G4" t="n">
-        <v>393334.1177723408</v>
+        <v>394316.1297369003</v>
       </c>
     </row>
     <row r="5">
@@ -5483,19 +5550,19 @@
         <v>333479</v>
       </c>
       <c r="C5" t="n">
-        <v>321562.520022827</v>
+        <v>321562.5200228271</v>
       </c>
       <c r="D5" t="n">
-        <v>315533.1331239149</v>
+        <v>315533.1317671346</v>
       </c>
       <c r="E5" t="n">
-        <v>318686.2389228117</v>
+        <v>311101.9523399483</v>
       </c>
       <c r="F5" t="n">
-        <v>348116.5743603706</v>
+        <v>269852.328551054</v>
       </c>
       <c r="G5" t="n">
-        <v>262185.0572640896</v>
+        <v>239087.287397027</v>
       </c>
     </row>
     <row r="6">
@@ -5509,16 +5576,16 @@
         <v>342001.5982973963</v>
       </c>
       <c r="D6" t="n">
-        <v>339359.02615217</v>
+        <v>339359.0250663427</v>
       </c>
       <c r="E6" t="n">
-        <v>342346.41365336</v>
+        <v>341102.3945717608</v>
       </c>
       <c r="F6" t="n">
-        <v>350264.0149872303</v>
+        <v>375079.846224308</v>
       </c>
       <c r="G6" t="n">
-        <v>361160.6302013397</v>
+        <v>276354.7958312035</v>
       </c>
     </row>
     <row r="7">
@@ -5532,16 +5599,16 @@
         <v>362560.1693955543</v>
       </c>
       <c r="D7" t="n">
-        <v>359159.0026022624</v>
+        <v>359159.0015294025</v>
       </c>
       <c r="E7" t="n">
-        <v>345347.4212064921</v>
+        <v>374929.2986776468</v>
       </c>
       <c r="F7" t="n">
-        <v>177110.0053035021</v>
+        <v>506802.6617193222</v>
       </c>
       <c r="G7" t="n">
-        <v>340888.4715740681</v>
+        <v>389671.9589831829</v>
       </c>
     </row>
     <row r="8">
@@ -5555,16 +5622,16 @@
         <v>421637.6141827931</v>
       </c>
       <c r="D8" t="n">
-        <v>429829.2384443466</v>
+        <v>429829.235957252</v>
       </c>
       <c r="E8" t="n">
-        <v>392684.1355719907</v>
+        <v>417232.0732088959</v>
       </c>
       <c r="F8" t="n">
-        <v>149370.130507648</v>
+        <v>355943.6146731377</v>
       </c>
       <c r="G8" t="n">
-        <v>167322.1786733046</v>
+        <v>371567.265652895</v>
       </c>
     </row>
     <row r="9">
@@ -5578,16 +5645,16 @@
         <v>385126.6448134776</v>
       </c>
       <c r="D9" t="n">
-        <v>388580.6236324051</v>
+        <v>388580.620469865</v>
       </c>
       <c r="E9" t="n">
-        <v>373953.6366978834</v>
+        <v>362784.6317742328</v>
       </c>
       <c r="F9" t="n">
-        <v>294130.1350951195</v>
+        <v>159636.7990700081</v>
       </c>
       <c r="G9" t="n">
-        <v>256829.8590189219</v>
+        <v>288628.6514589787</v>
       </c>
     </row>
     <row r="10">
@@ -5601,16 +5668,16 @@
         <v>354916.9091541613</v>
       </c>
       <c r="D10" t="n">
-        <v>343768.2785036436</v>
+        <v>343768.2757448051</v>
       </c>
       <c r="E10" t="n">
-        <v>344793.0701402437</v>
+        <v>349369.8677156816</v>
       </c>
       <c r="F10" t="n">
-        <v>262008.1726779938</v>
+        <v>359824.3493402004</v>
       </c>
       <c r="G10" t="n">
-        <v>403781.9269440174</v>
+        <v>322998.3384792805</v>
       </c>
     </row>
     <row r="11">
@@ -5624,16 +5691,16 @@
         <v>416408.4620430165</v>
       </c>
       <c r="D11" t="n">
-        <v>423162.8946007421</v>
+        <v>423162.8896538133</v>
       </c>
       <c r="E11" t="n">
-        <v>418562.0211026518</v>
+        <v>409296.9109168236</v>
       </c>
       <c r="F11" t="n">
-        <v>368888.9214055538</v>
+        <v>358605.3252372742</v>
       </c>
       <c r="G11" t="n">
-        <v>491531.3342804909</v>
+        <v>298319.699434042</v>
       </c>
     </row>
     <row r="12">
@@ -5647,16 +5714,16 @@
         <v>383231.9970069904</v>
       </c>
       <c r="D12" t="n">
-        <v>391278.9790254072</v>
+        <v>391278.9725957551</v>
       </c>
       <c r="E12" t="n">
-        <v>388357.6226833174</v>
+        <v>381717.0452642614</v>
       </c>
       <c r="F12" t="n">
-        <v>377916.0498363972</v>
+        <v>350191.3050887585</v>
       </c>
       <c r="G12" t="n">
-        <v>435265.0274255276</v>
+        <v>335138.1251926422</v>
       </c>
     </row>
     <row r="13">
@@ -5670,16 +5737,16 @@
         <v>413235.5695056491</v>
       </c>
       <c r="D13" t="n">
-        <v>436430.011997146</v>
+        <v>436430.0005445514</v>
       </c>
       <c r="E13" t="n">
-        <v>420693.98878603</v>
+        <v>415268.7276870538</v>
       </c>
       <c r="F13" t="n">
-        <v>389958.265362978</v>
+        <v>352665.494076252</v>
       </c>
       <c r="G13" t="n">
-        <v>402416.7513048649</v>
+        <v>356121.6414864063</v>
       </c>
     </row>
     <row r="14">
@@ -5693,16 +5760,16 @@
         <v>451993.5849226756</v>
       </c>
       <c r="D14" t="n">
-        <v>459656.7221104982</v>
+        <v>459656.7169888857</v>
       </c>
       <c r="E14" t="n">
-        <v>442322.7323064876</v>
+        <v>439049.3849726142</v>
       </c>
       <c r="F14" t="n">
-        <v>361485.5759847164</v>
+        <v>300374.4947288036</v>
       </c>
       <c r="G14" t="n">
-        <v>316207.7800893784</v>
+        <v>383308.05813694</v>
       </c>
     </row>
     <row r="15">
@@ -5716,16 +5783,16 @@
         <v>469172.6462442987</v>
       </c>
       <c r="D15" t="n">
-        <v>476926.5254205023</v>
+        <v>476926.5186659442</v>
       </c>
       <c r="E15" t="n">
-        <v>454692.2540995671</v>
+        <v>467359.493869859</v>
       </c>
       <c r="F15" t="n">
-        <v>346331.7373189926</v>
+        <v>444407.7349684238</v>
       </c>
       <c r="G15" t="n">
-        <v>279117.8522859812</v>
+        <v>399130.7957434654</v>
       </c>
     </row>
     <row r="16">
@@ -5739,16 +5806,16 @@
         <v>413502.3094877188</v>
       </c>
       <c r="D16" t="n">
-        <v>398792.1011427606</v>
+        <v>398792.099704044</v>
       </c>
       <c r="E16" t="n">
-        <v>395196.9771333109</v>
+        <v>388948.5612048521</v>
       </c>
       <c r="F16" t="n">
-        <v>226887.5203716159</v>
+        <v>253636.8343464136</v>
       </c>
       <c r="G16" t="n">
-        <v>482545.6829738617</v>
+        <v>307809.8225104809</v>
       </c>
     </row>
     <row r="17">
@@ -5762,16 +5829,16 @@
         <v>335757.2992728552</v>
       </c>
       <c r="D17" t="n">
-        <v>322541.2706627597</v>
+        <v>322541.2678179986</v>
       </c>
       <c r="E17" t="n">
-        <v>327819.2330707561</v>
+        <v>337153.117954831</v>
       </c>
       <c r="F17" t="n">
-        <v>412581.9841823578</v>
+        <v>393375.0416302681</v>
       </c>
       <c r="G17" t="n">
-        <v>130294.6556260586</v>
+        <v>381029.3327744007</v>
       </c>
     </row>
     <row r="18">
@@ -5785,16 +5852,16 @@
         <v>351010.4420337112</v>
       </c>
       <c r="D18" t="n">
-        <v>345449.8123124092</v>
+        <v>345449.8097636063</v>
       </c>
       <c r="E18" t="n">
-        <v>341232.1432367385</v>
+        <v>352744.5588381253</v>
       </c>
       <c r="F18" t="n">
-        <v>366441.1821160316</v>
+        <v>412178.153334856</v>
       </c>
       <c r="G18" t="n">
-        <v>142158.7841047347</v>
+        <v>319048.6239993572</v>
       </c>
     </row>
     <row r="19">
@@ -5808,16 +5875,16 @@
         <v>372871.9619812834</v>
       </c>
       <c r="D19" t="n">
-        <v>365218.462664695</v>
+        <v>365218.4600322582</v>
       </c>
       <c r="E19" t="n">
-        <v>368885.8590160209</v>
+        <v>369453.0873992816</v>
       </c>
       <c r="F19" t="n">
-        <v>344515.9352128506</v>
+        <v>369676.023011446</v>
       </c>
       <c r="G19" t="n">
-        <v>409344.805290699</v>
+        <v>374445.1784040928</v>
       </c>
     </row>
     <row r="20">
@@ -5831,16 +5898,16 @@
         <v>432094.988607766</v>
       </c>
       <c r="D20" t="n">
-        <v>434633.2143393638</v>
+        <v>434633.210398759</v>
       </c>
       <c r="E20" t="n">
-        <v>416286.9216865511</v>
+        <v>421168.5333637781</v>
       </c>
       <c r="F20" t="n">
-        <v>242640.2474837303</v>
+        <v>337310.9982213974</v>
       </c>
       <c r="G20" t="n">
-        <v>391707.9967660904</v>
+        <v>343166.3045716286</v>
       </c>
     </row>
     <row r="21">
@@ -5854,16 +5921,16 @@
         <v>392164.8343249017</v>
       </c>
       <c r="D21" t="n">
-        <v>392924.9342466789</v>
+        <v>392924.92946448</v>
       </c>
       <c r="E21" t="n">
-        <v>389164.1397962469</v>
+        <v>394512.1737796864</v>
       </c>
       <c r="F21" t="n">
-        <v>357797.7170841694</v>
+        <v>401285.642999649</v>
       </c>
       <c r="G21" t="n">
-        <v>378591.9092240334</v>
+        <v>422007.8212857246</v>
       </c>
     </row>
     <row r="22">
@@ -5877,16 +5944,16 @@
         <v>365316.3399208492</v>
       </c>
       <c r="D22" t="n">
-        <v>347726.8752354097</v>
+        <v>347726.8710747825</v>
       </c>
       <c r="E22" t="n">
-        <v>357048.9307718295</v>
+        <v>363553.6231396084</v>
       </c>
       <c r="F22" t="n">
-        <v>369047.1020216942</v>
+        <v>332481.1441628933</v>
       </c>
       <c r="G22" t="n">
-        <v>337535.1067621708</v>
+        <v>571542.7771763802</v>
       </c>
     </row>
     <row r="23">
@@ -5900,16 +5967,16 @@
         <v>427649.2369187173</v>
       </c>
       <c r="D23" t="n">
-        <v>426925.7752459442</v>
+        <v>426925.7682162392</v>
       </c>
       <c r="E23" t="n">
-        <v>420437.4656193334</v>
+        <v>411689.1456525816</v>
       </c>
       <c r="F23" t="n">
-        <v>377372.0819926262</v>
+        <v>296807.8725342751</v>
       </c>
       <c r="G23" t="n">
-        <v>358465.6344234943</v>
+        <v>326572.1888301373</v>
       </c>
     </row>
     <row r="24">
@@ -5923,16 +5990,16 @@
         <v>392758.585211982</v>
       </c>
       <c r="D24" t="n">
-        <v>393721.2342804577</v>
+        <v>393721.225827291</v>
       </c>
       <c r="E24" t="n">
-        <v>384239.3379234805</v>
+        <v>376839.0813474865</v>
       </c>
       <c r="F24" t="n">
-        <v>333520.160402298</v>
+        <v>248134.4494216442</v>
       </c>
       <c r="G24" t="n">
-        <v>292291.3992090225</v>
+        <v>304962.4554125071</v>
       </c>
     </row>
     <row r="25">
@@ -5946,16 +6013,16 @@
         <v>414269.9569060401</v>
       </c>
       <c r="D25" t="n">
-        <v>436264.1156165041</v>
+        <v>436264.1015193505</v>
       </c>
       <c r="E25" t="n">
-        <v>419692.8284073346</v>
+        <v>414790.909689861</v>
       </c>
       <c r="F25" t="n">
-        <v>468407.0165553093</v>
+        <v>326887.5684609413</v>
       </c>
       <c r="G25" t="n">
-        <v>217040.5940820575</v>
+        <v>389888.5538108349</v>
       </c>
     </row>
     <row r="26">
@@ -5969,16 +6036,16 @@
         <v>465432.7059714758</v>
       </c>
       <c r="D26" t="n">
-        <v>464576.5592228039</v>
+        <v>464576.5525253778</v>
       </c>
       <c r="E26" t="n">
-        <v>448916.1934598378</v>
+        <v>444882.4542811886</v>
       </c>
       <c r="F26" t="n">
-        <v>305817.4392223358</v>
+        <v>347027.7641551495</v>
       </c>
       <c r="G26" t="n">
-        <v>384781.5668845177</v>
+        <v>227554.7327426076</v>
       </c>
     </row>
     <row r="27">
@@ -5992,16 +6059,16 @@
         <v>485756.8757061925</v>
       </c>
       <c r="D27" t="n">
-        <v>482592.2832690969</v>
+        <v>482592.2754314698</v>
       </c>
       <c r="E27" t="n">
-        <v>476877.3249278931</v>
+        <v>459283.3642916166</v>
       </c>
       <c r="F27" t="n">
-        <v>437502.0614962578</v>
+        <v>362624.4478652477</v>
       </c>
       <c r="G27" t="n">
-        <v>397278.9063975811</v>
+        <v>137474.0531318188</v>
       </c>
     </row>
     <row r="28">
@@ -6015,16 +6082,16 @@
         <v>429115.6173426721</v>
       </c>
       <c r="D28" t="n">
-        <v>404670.0056854853</v>
+        <v>404670.0026317368</v>
       </c>
       <c r="E28" t="n">
-        <v>414063.4696619175</v>
+        <v>403959.824037743</v>
       </c>
       <c r="F28" t="n">
-        <v>375136.3150801659</v>
+        <v>375777.0331349373</v>
       </c>
       <c r="G28" t="n">
-        <v>419036.1566698551</v>
+        <v>180232.5152953863</v>
       </c>
     </row>
     <row r="29">
@@ -6038,16 +6105,16 @@
         <v>332829.1395482615</v>
       </c>
       <c r="D29" t="n">
-        <v>328419.3810184805</v>
+        <v>328419.3763697555</v>
       </c>
       <c r="E29" t="n">
-        <v>336503.4668186369</v>
+        <v>333988.57143062</v>
       </c>
       <c r="F29" t="n">
-        <v>358618.3894605637</v>
+        <v>370586.9670290947</v>
       </c>
       <c r="G29" t="n">
-        <v>416237.7893328667</v>
+        <v>325204.0326919556</v>
       </c>
     </row>
     <row r="30">
@@ -6061,16 +6128,16 @@
         <v>363344.8395846998</v>
       </c>
       <c r="D30" t="n">
-        <v>351286.2676700093</v>
+        <v>351286.263228898</v>
       </c>
       <c r="E30" t="n">
-        <v>354146.5167315323</v>
+        <v>354965.9291634249</v>
       </c>
       <c r="F30" t="n">
-        <v>303578.3080939054</v>
+        <v>352814.1263871193</v>
       </c>
       <c r="G30" t="n">
-        <v>379697.5672800541</v>
+        <v>304825.8432579041</v>
       </c>
     </row>
     <row r="31">
@@ -6084,16 +6151,16 @@
         <v>381392.7424635316</v>
       </c>
       <c r="D31" t="n">
-        <v>370993.3152592115</v>
+        <v>370993.3106960059</v>
       </c>
       <c r="E31" t="n">
-        <v>371714.9282871464</v>
+        <v>374454.6587779598</v>
       </c>
       <c r="F31" t="n">
-        <v>359459.675467968</v>
+        <v>414025.7771761417</v>
       </c>
       <c r="G31" t="n">
-        <v>296261.2632901669</v>
+        <v>248804.731528163</v>
       </c>
     </row>
     <row r="32">
@@ -6107,16 +6174,16 @@
         <v>439970.9007663491</v>
       </c>
       <c r="D32" t="n">
-        <v>440350.2997595286</v>
+        <v>440350.2938692857</v>
       </c>
       <c r="E32" t="n">
-        <v>432511.3113757239</v>
+        <v>428549.4164162637</v>
       </c>
       <c r="F32" t="n">
-        <v>313760.1657309532</v>
+        <v>305777.5326604843</v>
       </c>
       <c r="G32" t="n">
-        <v>500339.5120401382</v>
+        <v>445164.3890812397</v>
       </c>
     </row>
     <row r="33">
@@ -6130,16 +6197,16 @@
         <v>410490.981457045</v>
       </c>
       <c r="D33" t="n">
-        <v>398577.1365139891</v>
+        <v>398577.1297680287</v>
       </c>
       <c r="E33" t="n">
-        <v>406598.2454077452</v>
+        <v>398557.334585999</v>
       </c>
       <c r="F33" t="n">
-        <v>363037.2023625374</v>
+        <v>339867.9094424248</v>
       </c>
       <c r="G33" t="n">
-        <v>529349.6549978256</v>
+        <v>392471.7541041374</v>
       </c>
     </row>
     <row r="34">
@@ -6153,16 +6220,16 @@
         <v>373743.3800095718</v>
       </c>
       <c r="D34" t="n">
-        <v>353321.4012317979</v>
+        <v>353321.3950973975</v>
       </c>
       <c r="E34" t="n">
-        <v>352848.7907134844</v>
+        <v>361524.9562443829</v>
       </c>
       <c r="F34" t="n">
-        <v>197941.3644447327</v>
+        <v>357566.3625397682</v>
       </c>
       <c r="G34" t="n">
-        <v>417511.7295765877</v>
+        <v>319028.8313441277</v>
       </c>
     </row>
     <row r="35">
@@ -6176,16 +6243,16 @@
         <v>437056.0736547119</v>
       </c>
       <c r="D35" t="n">
-        <v>432456.4165961769</v>
+        <v>432456.4075820218</v>
       </c>
       <c r="E35" t="n">
-        <v>427152.4016650908</v>
+        <v>410941.9040001199</v>
       </c>
       <c r="F35" t="n">
-        <v>411077.135576725</v>
+        <v>267461.3347505331</v>
       </c>
       <c r="G35" t="n">
-        <v>295440.8943178654</v>
+        <v>211369.8689658642</v>
       </c>
     </row>
     <row r="36">
@@ -6199,16 +6266,16 @@
         <v>402684.9768144935</v>
       </c>
       <c r="D36" t="n">
-        <v>399195.422751599</v>
+        <v>399195.4123056469</v>
       </c>
       <c r="E36" t="n">
-        <v>384513.7785612849</v>
+        <v>404307.4792901786</v>
       </c>
       <c r="F36" t="n">
-        <v>226760.2334310412</v>
+        <v>375118.931810379</v>
       </c>
       <c r="G36" t="n">
-        <v>340425.4947757721</v>
+        <v>536515.916891098</v>
       </c>
     </row>
     <row r="37">
@@ -6222,16 +6289,16 @@
         <v>427110.3966262986</v>
       </c>
       <c r="D37" t="n">
-        <v>441675.700639364</v>
+        <v>441675.684539863</v>
       </c>
       <c r="E37" t="n">
-        <v>437432.2814769075</v>
+        <v>426470.076378099</v>
       </c>
       <c r="F37" t="n">
-        <v>417015.039229393</v>
+        <v>371986.9092078209</v>
       </c>
       <c r="G37" t="n">
-        <v>547355.1173424721</v>
+        <v>381149.7128100395</v>
       </c>
     </row>
     <row r="38">
@@ -6245,16 +6312,16 @@
         <v>474200.0209882658</v>
       </c>
       <c r="D38" t="n">
-        <v>469932.9700560742</v>
+        <v>469932.9613488857</v>
       </c>
       <c r="E38" t="n">
-        <v>458311.2567900395</v>
+        <v>455733.452478204</v>
       </c>
       <c r="F38" t="n">
-        <v>333464.6374533176</v>
+        <v>313612.3900904655</v>
       </c>
       <c r="G38" t="n">
-        <v>406804.8311569691</v>
+        <v>411791.0275597572</v>
       </c>
     </row>
     <row r="39">
@@ -6268,16 +6335,16 @@
         <v>493407.4759276186</v>
       </c>
       <c r="D39" t="n">
-        <v>487887.366268062</v>
+        <v>487887.3564119709</v>
       </c>
       <c r="E39" t="n">
-        <v>479237.8326341082</v>
+        <v>458844.0263158311</v>
       </c>
       <c r="F39" t="n">
-        <v>343932.2928221226</v>
+        <v>292086.4140497446</v>
       </c>
       <c r="G39" t="n">
-        <v>497014.3102669716</v>
+        <v>139474.0482932329</v>
       </c>
     </row>
     <row r="40">
@@ -6291,16 +6358,16 @@
         <v>436975.9763197164</v>
       </c>
       <c r="D40" t="n">
-        <v>409911.1714885664</v>
+        <v>409911.1664097595</v>
       </c>
       <c r="E40" t="n">
-        <v>405569.0879161407</v>
+        <v>417788.0204462206</v>
       </c>
       <c r="F40" t="n">
-        <v>347963.5337665081</v>
+        <v>336511.4392004013</v>
       </c>
       <c r="G40" t="n">
-        <v>127326.4043062329</v>
+        <v>460488.2054281235</v>
       </c>
     </row>
     <row r="41">
@@ -6314,16 +6381,16 @@
         <v>346894.1214470243</v>
       </c>
       <c r="D41" t="n">
-        <v>333600.4687910293</v>
+        <v>333600.4621093526</v>
       </c>
       <c r="E41" t="n">
-        <v>336434.472153698</v>
+        <v>346439.2295588254</v>
       </c>
       <c r="F41" t="n">
-        <v>295069.3403116465</v>
+        <v>390182.4988348484</v>
       </c>
       <c r="G41" t="n">
-        <v>330063.1027798653</v>
+        <v>378581.0402185917</v>
       </c>
     </row>
     <row r="42">
@@ -6337,16 +6404,16 @@
         <v>372421.7353714617</v>
       </c>
       <c r="D42" t="n">
-        <v>356414.6685488056</v>
+        <v>356414.6620689318</v>
       </c>
       <c r="E42" t="n">
-        <v>365543.886268427</v>
+        <v>371218.5027342078</v>
       </c>
       <c r="F42" t="n">
-        <v>303949.9156420231</v>
+        <v>362372.0513546467</v>
       </c>
       <c r="G42" t="n">
-        <v>501547.0603294373</v>
+        <v>527472.2261662483</v>
       </c>
     </row>
     <row r="43">
@@ -6360,16 +6427,16 @@
         <v>391708.9551379248</v>
       </c>
       <c r="D43" t="n">
-        <v>376062.8611899387</v>
+        <v>376062.854580853</v>
       </c>
       <c r="E43" t="n">
-        <v>378147.9668126263</v>
+        <v>388505.6099883876</v>
       </c>
       <c r="F43" t="n">
-        <v>381252.7452704906</v>
+        <v>440754.6426074505</v>
       </c>
       <c r="G43" t="n">
-        <v>244140.0363799334</v>
+        <v>368214.097161293</v>
       </c>
     </row>
     <row r="44">
@@ -6383,16 +6450,16 @@
         <v>450571.7832284339</v>
       </c>
       <c r="D44" t="n">
-        <v>445368.3625878504</v>
+        <v>445368.3546466689</v>
       </c>
       <c r="E44" t="n">
-        <v>444753.4413671831</v>
+        <v>442477.9018782696</v>
       </c>
       <c r="F44" t="n">
-        <v>417850.8461158276</v>
+        <v>376562.5641784668</v>
       </c>
       <c r="G44" t="n">
-        <v>426489.9207119942</v>
+        <v>464866.1480140686</v>
       </c>
     </row>
     <row r="45">
@@ -6406,16 +6473,16 @@
         <v>417545.4424899386</v>
       </c>
       <c r="D45" t="n">
-        <v>403537.5412247317</v>
+        <v>403537.5324214606</v>
       </c>
       <c r="E45" t="n">
-        <v>402093.8308026686</v>
+        <v>413964.9612221988</v>
       </c>
       <c r="F45" t="n">
-        <v>408651.4555494785</v>
+        <v>425397.5053522587</v>
       </c>
       <c r="G45" t="n">
-        <v>204803.7492917776</v>
+        <v>456226.0025799274</v>
       </c>
     </row>
     <row r="46">
@@ -6429,16 +6496,16 @@
         <v>384034.9444168463</v>
       </c>
       <c r="D46" t="n">
-        <v>358231.5006629398</v>
+        <v>358231.4924668933</v>
       </c>
       <c r="E46" t="n">
-        <v>364412.3554676507</v>
+        <v>369817.9330438575</v>
       </c>
       <c r="F46" t="n">
-        <v>298871.618249774</v>
+        <v>412734.4001207352</v>
       </c>
       <c r="G46" t="n">
-        <v>337926.0697066784</v>
+        <v>239603.7614758015</v>
       </c>
     </row>
     <row r="47">
@@ -6452,16 +6519,16 @@
         <v>446463.6158652085</v>
       </c>
       <c r="D47" t="n">
-        <v>437310.0290455736</v>
+        <v>437310.0179641169</v>
       </c>
       <c r="E47" t="n">
-        <v>433460.6142828994</v>
+        <v>428014.9389418716</v>
       </c>
       <c r="F47" t="n">
-        <v>377792.6357598305</v>
+        <v>280621.0232454538</v>
       </c>
       <c r="G47" t="n">
-        <v>358917.1532554626</v>
+        <v>445423.8531224728</v>
       </c>
     </row>
     <row r="48">
@@ -6475,16 +6542,16 @@
         <v>412664.2281573075</v>
       </c>
       <c r="D48" t="n">
-        <v>403999.8823325612</v>
+        <v>403999.8698156667</v>
       </c>
       <c r="E48" t="n">
-        <v>385359.2983811981</v>
+        <v>405840.4859557127</v>
       </c>
       <c r="F48" t="n">
-        <v>223654.2634240389</v>
+        <v>431957.5301735401</v>
       </c>
       <c r="G48" t="n">
-        <v>208255.4214915633</v>
+        <v>293705.4050598145</v>
       </c>
     </row>
     <row r="49">
@@ -6498,16 +6565,16 @@
         <v>439921.288412521</v>
       </c>
       <c r="D49" t="n">
-        <v>446424.8192321518</v>
+        <v>446424.8010567412</v>
       </c>
       <c r="E49" t="n">
-        <v>448236.3403528855</v>
+        <v>438651.3507057238</v>
       </c>
       <c r="F49" t="n">
-        <v>484011.0533528328</v>
+        <v>351181.0270867348</v>
       </c>
       <c r="G49" t="n">
-        <v>488965.9634394646</v>
+        <v>532482.2844085693</v>
       </c>
     </row>
     <row r="50">
@@ -6521,16 +6588,16 @@
         <v>482874.5116123249</v>
       </c>
       <c r="D50" t="n">
-        <v>474634.0633267714</v>
+        <v>474634.0525406993</v>
       </c>
       <c r="E50" t="n">
-        <v>463070.7420739759</v>
+        <v>463640.6376853366</v>
       </c>
       <c r="F50" t="n">
-        <v>264850.6763868332</v>
+        <v>326041.0888893604</v>
       </c>
       <c r="G50" t="n">
-        <v>510858.2820749283</v>
+        <v>434211.3764004707</v>
       </c>
     </row>
     <row r="51">
@@ -6544,16 +6611,16 @@
         <v>501032.5813908274</v>
       </c>
       <c r="D51" t="n">
-        <v>492534.2399429058</v>
+        <v>492534.2280036251</v>
       </c>
       <c r="E51" t="n">
-        <v>483850.4682918782</v>
+        <v>452197.5119322425</v>
       </c>
       <c r="F51" t="n">
-        <v>384954.2038133144</v>
+        <v>201433.9961970448</v>
       </c>
       <c r="G51" t="n">
-        <v>397795.1573851109</v>
+        <v>40432.54743134975</v>
       </c>
     </row>
     <row r="52">
@@ -6567,16 +6634,16 @@
         <v>444925.0903572576</v>
       </c>
       <c r="D52" t="n">
-        <v>414511.1230580254</v>
+        <v>414511.1158936948</v>
       </c>
       <c r="E52" t="n">
-        <v>431476.1398816019</v>
+        <v>419907.0583433714</v>
       </c>
       <c r="F52" t="n">
-        <v>377665.6522233486</v>
+        <v>328254.1897313595</v>
       </c>
       <c r="G52" t="n">
-        <v>559684.1389732361</v>
+        <v>395407.991830349</v>
       </c>
     </row>
     <row r="53">
@@ -6590,16 +6657,16 @@
         <v>361025.9054636739</v>
       </c>
       <c r="D53" t="n">
-        <v>338147.2980851127</v>
+        <v>338147.289314241</v>
       </c>
       <c r="E53" t="n">
-        <v>356675.9642929561</v>
+        <v>361890.4345557237</v>
       </c>
       <c r="F53" t="n">
-        <v>493415.4023075104</v>
+        <v>479058.5348043442</v>
       </c>
       <c r="G53" t="n">
-        <v>232676.9701864123</v>
+        <v>362601.6568636894</v>
       </c>
     </row>
     <row r="54">
@@ -6613,16 +6680,16 @@
         <v>381464.9837382494</v>
       </c>
       <c r="D54" t="n">
-        <v>360915.6551482477</v>
+        <v>360915.6465774589</v>
       </c>
       <c r="E54" t="n">
-        <v>397930.5270736982</v>
+        <v>382793.5420402205</v>
       </c>
       <c r="F54" t="n">
-        <v>639910.8559966087</v>
+        <v>490208.3853521347</v>
       </c>
       <c r="G54" t="n">
-        <v>487180.3054223061</v>
+        <v>390472.3211326599</v>
       </c>
     </row>
     <row r="55">
@@ -6636,16 +6703,16 @@
         <v>402023.5548364178</v>
       </c>
       <c r="D55" t="n">
-        <v>380511.7992806552</v>
+        <v>380511.7905775924</v>
       </c>
       <c r="E55" t="n">
-        <v>379063.6648563814</v>
+        <v>393908.0039824197</v>
       </c>
       <c r="F55" t="n">
-        <v>235021.6279354095</v>
+        <v>456794.9923377037</v>
       </c>
       <c r="G55" t="n">
-        <v>390114.4470815659</v>
+        <v>306553.8544974327</v>
       </c>
     </row>
     <row r="56">
@@ -6659,16 +6726,16 @@
         <v>461100.9996236513</v>
       </c>
       <c r="D56" t="n">
-        <v>449772.5141011128</v>
+        <v>449772.5040648234</v>
       </c>
       <c r="E56" t="n">
-        <v>436354.9444003653</v>
+        <v>445169.7749717872</v>
       </c>
       <c r="F56" t="n">
-        <v>380021.2280578613</v>
+        <v>357815.6536202431</v>
       </c>
       <c r="G56" t="n">
-        <v>136816.9155614376</v>
+        <v>409731.8953711987</v>
       </c>
     </row>
     <row r="57">
@@ -6682,16 +6749,16 @@
         <v>424590.0302543045</v>
       </c>
       <c r="D57" t="n">
-        <v>407890.6949489577</v>
+        <v>407890.6840481011</v>
       </c>
       <c r="E57" t="n">
-        <v>401345.1614997466</v>
+        <v>391884.4728206618</v>
       </c>
       <c r="F57" t="n">
-        <v>388203.5367159843</v>
+        <v>148704.8746468723</v>
       </c>
       <c r="G57" t="n">
-        <v>104612.1595215797</v>
+        <v>388839.3824579716</v>
       </c>
     </row>
     <row r="58">
@@ -6705,16 +6772,16 @@
         <v>394380.2945950254</v>
       </c>
       <c r="D58" t="n">
-        <v>362540.9011347211</v>
+        <v>362540.8908405227</v>
       </c>
       <c r="E58" t="n">
-        <v>385719.0285089071</v>
+        <v>380724.7851629891</v>
       </c>
       <c r="F58" t="n">
-        <v>463594.5636138916</v>
+        <v>356610.4433271885</v>
       </c>
       <c r="G58" t="n">
-        <v>375215.0752131939</v>
+        <v>467005.2539520264</v>
       </c>
     </row>
     <row r="59">
@@ -6728,16 +6795,16 @@
         <v>455871.847483884</v>
       </c>
       <c r="D59" t="n">
-        <v>441569.4598970053</v>
+        <v>441569.4467154796</v>
       </c>
       <c r="E59" t="n">
-        <v>439856.5184860735</v>
+        <v>437422.021301162</v>
       </c>
       <c r="F59" t="n">
-        <v>369741.4333643913</v>
+        <v>331576.5894784927</v>
       </c>
       <c r="G59" t="n">
-        <v>381774.1005856991</v>
+        <v>418416.4270393848</v>
       </c>
     </row>
     <row r="60">
@@ -6751,16 +6818,16 @@
         <v>422695.382447861</v>
       </c>
       <c r="D60" t="n">
-        <v>408216.5709549669</v>
+        <v>408216.556337978</v>
       </c>
       <c r="E60" t="n">
-        <v>417736.7374178898</v>
+        <v>410412.9617206081</v>
       </c>
       <c r="F60" t="n">
-        <v>400616.5655858517</v>
+        <v>407391.6860616207</v>
       </c>
       <c r="G60" t="n">
-        <v>492890.1205863953</v>
+        <v>304103.6255096197</v>
       </c>
     </row>
     <row r="61">
@@ -6774,16 +6841,16 @@
         <v>452698.9549465121</v>
       </c>
       <c r="D61" t="n">
-        <v>450592.5443371767</v>
+        <v>450592.524060292</v>
       </c>
       <c r="E61" t="n">
-        <v>443008.9003544702</v>
+        <v>441459.9149128984</v>
       </c>
       <c r="F61" t="n">
-        <v>367222.3227238655</v>
+        <v>367781.246604681</v>
       </c>
       <c r="G61" t="n">
-        <v>405880.7158322334</v>
+        <v>382340.0027606487</v>
       </c>
     </row>
     <row r="62">
@@ -6797,16 +6864,16 @@
         <v>491456.9703635307</v>
       </c>
       <c r="D62" t="n">
-        <v>478760.0354046272</v>
+        <v>478760.0225175738</v>
       </c>
       <c r="E62" t="n">
-        <v>491822.9651415742</v>
+        <v>479883.0519637458</v>
       </c>
       <c r="F62" t="n">
-        <v>537245.3360247612</v>
+        <v>492640.0799193382</v>
       </c>
       <c r="G62" t="n">
-        <v>540663.1295881271</v>
+        <v>336739.2599794865</v>
       </c>
     </row>
     <row r="63">
@@ -6820,16 +6887,16 @@
         <v>508636.0316851817</v>
       </c>
       <c r="D63" t="n">
-        <v>496612.2330154718</v>
+        <v>496612.218974345</v>
       </c>
       <c r="E63" t="n">
-        <v>487785.3791411834</v>
+        <v>487181.3758589794</v>
       </c>
       <c r="F63" t="n">
-        <v>389880.0584962368</v>
+        <v>373981.5947976112</v>
       </c>
       <c r="G63" t="n">
-        <v>358009.3682098389</v>
+        <v>397090.0819680691</v>
       </c>
     </row>
     <row r="64">
@@ -6843,16 +6910,16 @@
         <v>452965.6949285701</v>
       </c>
       <c r="D64" t="n">
-        <v>418548.3309534155</v>
+        <v>418548.3216882279</v>
       </c>
       <c r="E64" t="n">
-        <v>432902.480990269</v>
+        <v>406328.0211321546</v>
       </c>
       <c r="F64" t="n">
-        <v>373373.7336213589</v>
+        <v>188766.1301983595</v>
       </c>
       <c r="G64" t="n">
-        <v>472904.2504916191</v>
+        <v>233810.6975828409</v>
       </c>
     </row>
     <row r="65">
@@ -6866,16 +6933,16 @@
         <v>375220.6847137131</v>
       </c>
       <c r="D65" t="n">
-        <v>342137.4903610469</v>
+        <v>342137.4794889466</v>
       </c>
       <c r="E65" t="n">
-        <v>352240.7634014879</v>
+        <v>365778.3625953196</v>
       </c>
       <c r="F65" t="n">
-        <v>253896.369776845</v>
+        <v>470906.8878068924</v>
       </c>
       <c r="G65" t="n">
-        <v>392013.1141996384</v>
+        <v>277795.6975624561</v>
       </c>
     </row>
     <row r="66">
@@ -6889,16 +6956,16 @@
         <v>390473.8274745587</v>
       </c>
       <c r="D66" t="n">
-        <v>364866.0092047243</v>
+        <v>364865.9985341708</v>
       </c>
       <c r="E66" t="n">
-        <v>373953.0445132531</v>
+        <v>383175.153703287</v>
       </c>
       <c r="F66" t="n">
-        <v>393250.00344944</v>
+        <v>418332.5804259777</v>
       </c>
       <c r="G66" t="n">
-        <v>247164.7431701422</v>
+        <v>414024.9740476608</v>
       </c>
     </row>
     <row r="67">
@@ -6912,16 +6979,16 @@
         <v>412335.3474221443</v>
       </c>
       <c r="D67" t="n">
-        <v>384416.0804318743</v>
+        <v>384416.0696291471</v>
       </c>
       <c r="E67" t="n">
-        <v>370982.6070767077</v>
+        <v>391956.6216494079</v>
       </c>
       <c r="F67" t="n">
-        <v>200120.4126391411</v>
+        <v>421695.493543148</v>
       </c>
       <c r="G67" t="n">
-        <v>109892.5552724004</v>
+        <v>180960.5267232955</v>
       </c>
     </row>
     <row r="68">
@@ -6935,16 +7002,16 @@
         <v>471558.3740486196</v>
       </c>
       <c r="D68" t="n">
-        <v>453637.8835480156</v>
+        <v>453637.8714139797</v>
       </c>
       <c r="E68" t="n">
-        <v>454123.3240584186</v>
+        <v>452743.9335460525</v>
       </c>
       <c r="F68" t="n">
-        <v>407137.1478750706</v>
+        <v>385230.4264688492</v>
       </c>
       <c r="G68" t="n">
-        <v>358047.5078890324</v>
+        <v>380929.6020643711</v>
       </c>
     </row>
     <row r="69">
@@ -6958,16 +7025,16 @@
         <v>431628.2197657671</v>
       </c>
       <c r="D69" t="n">
-        <v>411710.9139780026</v>
+        <v>411710.9009799515</v>
       </c>
       <c r="E69" t="n">
-        <v>416947.8852077823</v>
+        <v>408982.6389937825</v>
       </c>
       <c r="F69" t="n">
-        <v>383002.9228560925</v>
+        <v>300896.9655002356</v>
       </c>
       <c r="G69" t="n">
-        <v>374200.0457444191</v>
+        <v>363046.054623127</v>
       </c>
     </row>
     <row r="70">
@@ -6981,16 +7048,16 @@
         <v>404779.7253617166</v>
       </c>
       <c r="D70" t="n">
-        <v>366323.114972033</v>
+        <v>366323.1025829923</v>
       </c>
       <c r="E70" t="n">
-        <v>377203.6948909077</v>
+        <v>389790.2956416034</v>
       </c>
       <c r="F70" t="n">
-        <v>331347.9655709267</v>
+        <v>400484.2100121975</v>
       </c>
       <c r="G70" t="n">
-        <v>272893.267460227</v>
+        <v>440775.6310317516</v>
       </c>
     </row>
   </sheetData>
@@ -7060,16 +7127,16 @@
         <v>443411.126171467</v>
       </c>
       <c r="D2" t="n">
-        <v>454458.7635146558</v>
+        <v>454458.7607974557</v>
       </c>
       <c r="E2" t="n">
-        <v>444780.2334709312</v>
+        <v>430381.3529754714</v>
       </c>
       <c r="F2" t="n">
-        <v>385913.7638750076</v>
+        <v>287873.9605491161</v>
       </c>
       <c r="G2" t="n">
-        <v>475350.1158146858</v>
+        <v>346587.863915205</v>
       </c>
     </row>
     <row r="3">
@@ -7083,16 +7150,16 @@
         <v>461569.1959499707</v>
       </c>
       <c r="D3" t="n">
-        <v>470928.2172833594</v>
+        <v>470928.2104958872</v>
       </c>
       <c r="E3" t="n">
-        <v>449741.6825696399</v>
+        <v>447909.5872926688</v>
       </c>
       <c r="F3" t="n">
-        <v>369001.7877280712</v>
+        <v>354156.3325517178</v>
       </c>
       <c r="G3" t="n">
-        <v>260616.038692832</v>
+        <v>263798.3639092445</v>
       </c>
     </row>
     <row r="4">
@@ -7106,16 +7173,16 @@
         <v>405461.704916404</v>
       </c>
       <c r="D4" t="n">
-        <v>391747.9082187068</v>
+        <v>391747.9074246186</v>
       </c>
       <c r="E4" t="n">
-        <v>396747.6818781986</v>
+        <v>388993.2355161059</v>
       </c>
       <c r="F4" t="n">
-        <v>375166.2450015545</v>
+        <v>288593.3227294683</v>
       </c>
       <c r="G4" t="n">
-        <v>393334.1177723408</v>
+        <v>394316.1297369003</v>
       </c>
     </row>
     <row r="5">
@@ -7126,19 +7193,19 @@
         <v>333479</v>
       </c>
       <c r="C5" t="n">
-        <v>321562.520022827</v>
+        <v>321562.5200228271</v>
       </c>
       <c r="D5" t="n">
-        <v>315533.1331239149</v>
+        <v>315533.1317671346</v>
       </c>
       <c r="E5" t="n">
-        <v>318686.2389228117</v>
+        <v>311101.9523399483</v>
       </c>
       <c r="F5" t="n">
-        <v>348116.5743603706</v>
+        <v>269852.328551054</v>
       </c>
       <c r="G5" t="n">
-        <v>262185.0572640896</v>
+        <v>239087.287397027</v>
       </c>
     </row>
     <row r="6">
@@ -7152,16 +7219,16 @@
         <v>342001.5982973963</v>
       </c>
       <c r="D6" t="n">
-        <v>339359.02615217</v>
+        <v>339359.0250663427</v>
       </c>
       <c r="E6" t="n">
-        <v>342346.41365336</v>
+        <v>341102.3945717608</v>
       </c>
       <c r="F6" t="n">
-        <v>350264.0149872303</v>
+        <v>375079.846224308</v>
       </c>
       <c r="G6" t="n">
-        <v>361160.6302013397</v>
+        <v>276354.7958312035</v>
       </c>
     </row>
     <row r="7">
@@ -7175,16 +7242,16 @@
         <v>362560.1693955543</v>
       </c>
       <c r="D7" t="n">
-        <v>359159.0026022624</v>
+        <v>359159.0015294025</v>
       </c>
       <c r="E7" t="n">
-        <v>345347.4212064921</v>
+        <v>374929.2986776468</v>
       </c>
       <c r="F7" t="n">
-        <v>177110.0053035021</v>
+        <v>506802.6617193222</v>
       </c>
       <c r="G7" t="n">
-        <v>340888.4715740681</v>
+        <v>389671.9589831829</v>
       </c>
     </row>
     <row r="8">
@@ -7198,16 +7265,16 @@
         <v>421637.6141827931</v>
       </c>
       <c r="D8" t="n">
-        <v>429829.2384443466</v>
+        <v>429829.235957252</v>
       </c>
       <c r="E8" t="n">
-        <v>392684.1355719907</v>
+        <v>417232.0732088959</v>
       </c>
       <c r="F8" t="n">
-        <v>149370.130507648</v>
+        <v>355943.6146731377</v>
       </c>
       <c r="G8" t="n">
-        <v>167322.1786733046</v>
+        <v>371567.265652895</v>
       </c>
     </row>
     <row r="9">
@@ -7221,16 +7288,16 @@
         <v>385126.6448134776</v>
       </c>
       <c r="D9" t="n">
-        <v>388580.6236324051</v>
+        <v>388580.620469865</v>
       </c>
       <c r="E9" t="n">
-        <v>373953.6366978834</v>
+        <v>362784.6317742328</v>
       </c>
       <c r="F9" t="n">
-        <v>294130.1350951195</v>
+        <v>159636.7990700081</v>
       </c>
       <c r="G9" t="n">
-        <v>256829.8590189219</v>
+        <v>288628.6514589787</v>
       </c>
     </row>
     <row r="10">
@@ -7244,16 +7311,16 @@
         <v>354916.9091541613</v>
       </c>
       <c r="D10" t="n">
-        <v>343768.2785036436</v>
+        <v>343768.2757448051</v>
       </c>
       <c r="E10" t="n">
-        <v>344793.0701402437</v>
+        <v>349369.8677156816</v>
       </c>
       <c r="F10" t="n">
-        <v>262008.1726779938</v>
+        <v>359824.3493402004</v>
       </c>
       <c r="G10" t="n">
-        <v>403781.9269440174</v>
+        <v>322998.3384792805</v>
       </c>
     </row>
     <row r="11">
@@ -7267,16 +7334,16 @@
         <v>416408.4620430165</v>
       </c>
       <c r="D11" t="n">
-        <v>423162.8946007421</v>
+        <v>423162.8896538133</v>
       </c>
       <c r="E11" t="n">
-        <v>418562.0211026518</v>
+        <v>409296.9109168236</v>
       </c>
       <c r="F11" t="n">
-        <v>368888.9214055538</v>
+        <v>358605.3252372742</v>
       </c>
       <c r="G11" t="n">
-        <v>491531.3342804909</v>
+        <v>298319.699434042</v>
       </c>
     </row>
     <row r="12">
@@ -7290,16 +7357,16 @@
         <v>383231.9970069904</v>
       </c>
       <c r="D12" t="n">
-        <v>391278.9790254072</v>
+        <v>391278.9725957551</v>
       </c>
       <c r="E12" t="n">
-        <v>388357.6226833174</v>
+        <v>381717.0452642614</v>
       </c>
       <c r="F12" t="n">
-        <v>377916.0498363972</v>
+        <v>350191.3050887585</v>
       </c>
       <c r="G12" t="n">
-        <v>435265.0274255276</v>
+        <v>335138.1251926422</v>
       </c>
     </row>
     <row r="13">
@@ -7313,16 +7380,16 @@
         <v>413235.5695056491</v>
       </c>
       <c r="D13" t="n">
-        <v>436430.011997146</v>
+        <v>436430.0005445514</v>
       </c>
       <c r="E13" t="n">
-        <v>420693.98878603</v>
+        <v>415268.7276870538</v>
       </c>
       <c r="F13" t="n">
-        <v>389958.265362978</v>
+        <v>352665.494076252</v>
       </c>
       <c r="G13" t="n">
-        <v>402416.7513048649</v>
+        <v>356121.6414864063</v>
       </c>
     </row>
     <row r="14">
@@ -7336,16 +7403,16 @@
         <v>451993.5849226756</v>
       </c>
       <c r="D14" t="n">
-        <v>459656.7221104982</v>
+        <v>459656.7169888857</v>
       </c>
       <c r="E14" t="n">
-        <v>442322.7323064876</v>
+        <v>439049.3849726142</v>
       </c>
       <c r="F14" t="n">
-        <v>361485.5759847164</v>
+        <v>300374.4947288036</v>
       </c>
       <c r="G14" t="n">
-        <v>316207.7800893784</v>
+        <v>383308.05813694</v>
       </c>
     </row>
     <row r="15">
@@ -7359,16 +7426,16 @@
         <v>469172.6462442987</v>
       </c>
       <c r="D15" t="n">
-        <v>476926.5254205023</v>
+        <v>476926.5186659442</v>
       </c>
       <c r="E15" t="n">
-        <v>454692.2540995671</v>
+        <v>467359.493869859</v>
       </c>
       <c r="F15" t="n">
-        <v>346331.7373189926</v>
+        <v>444407.7349684238</v>
       </c>
       <c r="G15" t="n">
-        <v>279117.8522859812</v>
+        <v>399130.7957434654</v>
       </c>
     </row>
     <row r="16">
@@ -7382,16 +7449,16 @@
         <v>413502.3094877188</v>
       </c>
       <c r="D16" t="n">
-        <v>398792.1011427606</v>
+        <v>398792.099704044</v>
       </c>
       <c r="E16" t="n">
-        <v>395196.9771333109</v>
+        <v>388948.5612048521</v>
       </c>
       <c r="F16" t="n">
-        <v>226887.5203716159</v>
+        <v>253636.8343464136</v>
       </c>
       <c r="G16" t="n">
-        <v>482545.6829738617</v>
+        <v>307809.8225104809</v>
       </c>
     </row>
     <row r="17">
@@ -7405,16 +7472,16 @@
         <v>335757.2992728552</v>
       </c>
       <c r="D17" t="n">
-        <v>322541.2706627597</v>
+        <v>322541.2678179986</v>
       </c>
       <c r="E17" t="n">
-        <v>327819.2330707561</v>
+        <v>337153.117954831</v>
       </c>
       <c r="F17" t="n">
-        <v>412581.9841823578</v>
+        <v>393375.0416302681</v>
       </c>
       <c r="G17" t="n">
-        <v>130294.6556260586</v>
+        <v>381029.3327744007</v>
       </c>
     </row>
     <row r="18">
@@ -7428,16 +7495,16 @@
         <v>351010.4420337112</v>
       </c>
       <c r="D18" t="n">
-        <v>345449.8123124092</v>
+        <v>345449.8097636063</v>
       </c>
       <c r="E18" t="n">
-        <v>341232.1432367385</v>
+        <v>352744.5588381253</v>
       </c>
       <c r="F18" t="n">
-        <v>366441.1821160316</v>
+        <v>412178.153334856</v>
       </c>
       <c r="G18" t="n">
-        <v>142158.7841047347</v>
+        <v>319048.6239993572</v>
       </c>
     </row>
     <row r="19">
@@ -7451,16 +7518,16 @@
         <v>372871.9619812834</v>
       </c>
       <c r="D19" t="n">
-        <v>365218.462664695</v>
+        <v>365218.4600322582</v>
       </c>
       <c r="E19" t="n">
-        <v>368885.8590160209</v>
+        <v>369453.0873992816</v>
       </c>
       <c r="F19" t="n">
-        <v>344515.9352128506</v>
+        <v>369676.023011446</v>
       </c>
       <c r="G19" t="n">
-        <v>409344.805290699</v>
+        <v>374445.1784040928</v>
       </c>
     </row>
     <row r="20">
@@ -7474,16 +7541,16 @@
         <v>432094.988607766</v>
       </c>
       <c r="D20" t="n">
-        <v>434633.2143393638</v>
+        <v>434633.210398759</v>
       </c>
       <c r="E20" t="n">
-        <v>416286.9216865511</v>
+        <v>421168.5333637781</v>
       </c>
       <c r="F20" t="n">
-        <v>242640.2474837303</v>
+        <v>337310.9982213974</v>
       </c>
       <c r="G20" t="n">
-        <v>391707.9967660904</v>
+        <v>343166.3045716286</v>
       </c>
     </row>
     <row r="21">
@@ -7497,16 +7564,16 @@
         <v>392164.8343249017</v>
       </c>
       <c r="D21" t="n">
-        <v>392924.9342466789</v>
+        <v>392924.92946448</v>
       </c>
       <c r="E21" t="n">
-        <v>389164.1397962469</v>
+        <v>394512.1737796864</v>
       </c>
       <c r="F21" t="n">
-        <v>357797.7170841694</v>
+        <v>401285.642999649</v>
       </c>
       <c r="G21" t="n">
-        <v>378591.9092240334</v>
+        <v>422007.8212857246</v>
       </c>
     </row>
     <row r="22">
@@ -7520,16 +7587,16 @@
         <v>365316.3399208492</v>
       </c>
       <c r="D22" t="n">
-        <v>347726.8752354097</v>
+        <v>347726.8710747825</v>
       </c>
       <c r="E22" t="n">
-        <v>357048.9307718295</v>
+        <v>363553.6231396084</v>
       </c>
       <c r="F22" t="n">
-        <v>369047.1020216942</v>
+        <v>332481.1441628933</v>
       </c>
       <c r="G22" t="n">
-        <v>337535.1067621708</v>
+        <v>571542.7771763802</v>
       </c>
     </row>
     <row r="23">
@@ -7543,16 +7610,16 @@
         <v>427649.2369187173</v>
       </c>
       <c r="D23" t="n">
-        <v>426925.7752459442</v>
+        <v>426925.7682162392</v>
       </c>
       <c r="E23" t="n">
-        <v>420437.4656193334</v>
+        <v>411689.1456525816</v>
       </c>
       <c r="F23" t="n">
-        <v>377372.0819926262</v>
+        <v>296807.8725342751</v>
       </c>
       <c r="G23" t="n">
-        <v>358465.6344234943</v>
+        <v>326572.1888301373</v>
       </c>
     </row>
     <row r="24">
@@ -7566,16 +7633,16 @@
         <v>392758.585211982</v>
       </c>
       <c r="D24" t="n">
-        <v>393721.2342804577</v>
+        <v>393721.225827291</v>
       </c>
       <c r="E24" t="n">
-        <v>384239.3379234805</v>
+        <v>376839.0813474865</v>
       </c>
       <c r="F24" t="n">
-        <v>333520.160402298</v>
+        <v>248134.4494216442</v>
       </c>
       <c r="G24" t="n">
-        <v>292291.3992090225</v>
+        <v>304962.4554125071</v>
       </c>
     </row>
     <row r="25">
@@ -7589,16 +7656,16 @@
         <v>414269.9569060401</v>
       </c>
       <c r="D25" t="n">
-        <v>436264.1156165041</v>
+        <v>436264.1015193505</v>
       </c>
       <c r="E25" t="n">
-        <v>419692.8284073346</v>
+        <v>414790.909689861</v>
       </c>
       <c r="F25" t="n">
-        <v>468407.0165553093</v>
+        <v>326887.5684609413</v>
       </c>
       <c r="G25" t="n">
-        <v>217040.5940820575</v>
+        <v>389888.5538108349</v>
       </c>
     </row>
     <row r="26">
@@ -7612,16 +7679,16 @@
         <v>465432.7059714758</v>
       </c>
       <c r="D26" t="n">
-        <v>464576.5592228039</v>
+        <v>464576.5525253778</v>
       </c>
       <c r="E26" t="n">
-        <v>448916.1934598378</v>
+        <v>444882.4542811886</v>
       </c>
       <c r="F26" t="n">
-        <v>305817.4392223358</v>
+        <v>347027.7641551495</v>
       </c>
       <c r="G26" t="n">
-        <v>384781.5668845177</v>
+        <v>227554.7327426076</v>
       </c>
     </row>
     <row r="27">
@@ -7635,16 +7702,16 @@
         <v>485756.8757061925</v>
       </c>
       <c r="D27" t="n">
-        <v>482592.2832690969</v>
+        <v>482592.2754314698</v>
       </c>
       <c r="E27" t="n">
-        <v>476877.3249278931</v>
+        <v>459283.3642916166</v>
       </c>
       <c r="F27" t="n">
-        <v>437502.0614962578</v>
+        <v>362624.4478652477</v>
       </c>
       <c r="G27" t="n">
-        <v>397278.9063975811</v>
+        <v>137474.0531318188</v>
       </c>
     </row>
     <row r="28">
@@ -7658,16 +7725,16 @@
         <v>429115.6173426721</v>
       </c>
       <c r="D28" t="n">
-        <v>404670.0056854853</v>
+        <v>404670.0026317368</v>
       </c>
       <c r="E28" t="n">
-        <v>414063.4696619175</v>
+        <v>403959.824037743</v>
       </c>
       <c r="F28" t="n">
-        <v>375136.3150801659</v>
+        <v>375777.0331349373</v>
       </c>
       <c r="G28" t="n">
-        <v>419036.1566698551</v>
+        <v>180232.5152953863</v>
       </c>
     </row>
     <row r="29">
@@ -7681,16 +7748,16 @@
         <v>332829.1395482615</v>
       </c>
       <c r="D29" t="n">
-        <v>328419.3810184805</v>
+        <v>328419.3763697555</v>
       </c>
       <c r="E29" t="n">
-        <v>336503.4668186369</v>
+        <v>333988.57143062</v>
       </c>
       <c r="F29" t="n">
-        <v>358618.3894605637</v>
+        <v>370586.9670290947</v>
       </c>
       <c r="G29" t="n">
-        <v>416237.7893328667</v>
+        <v>325204.0326919556</v>
       </c>
     </row>
     <row r="30">
@@ -7704,16 +7771,16 @@
         <v>363344.8395846998</v>
       </c>
       <c r="D30" t="n">
-        <v>351286.2676700093</v>
+        <v>351286.263228898</v>
       </c>
       <c r="E30" t="n">
-        <v>354146.5167315323</v>
+        <v>354965.9291634249</v>
       </c>
       <c r="F30" t="n">
-        <v>303578.3080939054</v>
+        <v>352814.1263871193</v>
       </c>
       <c r="G30" t="n">
-        <v>379697.5672800541</v>
+        <v>304825.8432579041</v>
       </c>
     </row>
     <row r="31">
@@ -7727,16 +7794,16 @@
         <v>381392.7424635316</v>
       </c>
       <c r="D31" t="n">
-        <v>370993.3152592115</v>
+        <v>370993.3106960059</v>
       </c>
       <c r="E31" t="n">
-        <v>371714.9282871464</v>
+        <v>374454.6587779598</v>
       </c>
       <c r="F31" t="n">
-        <v>359459.675467968</v>
+        <v>414025.7771761417</v>
       </c>
       <c r="G31" t="n">
-        <v>296261.2632901669</v>
+        <v>248804.731528163</v>
       </c>
     </row>
     <row r="32">
@@ -7750,16 +7817,16 @@
         <v>439970.9007663491</v>
       </c>
       <c r="D32" t="n">
-        <v>440350.2997595286</v>
+        <v>440350.2938692857</v>
       </c>
       <c r="E32" t="n">
-        <v>432511.3113757239</v>
+        <v>428549.4164162637</v>
       </c>
       <c r="F32" t="n">
-        <v>313760.1657309532</v>
+        <v>305777.5326604843</v>
       </c>
       <c r="G32" t="n">
-        <v>500339.5120401382</v>
+        <v>445164.3890812397</v>
       </c>
     </row>
     <row r="33">
@@ -7773,16 +7840,16 @@
         <v>410490.981457045</v>
       </c>
       <c r="D33" t="n">
-        <v>398577.1365139891</v>
+        <v>398577.1297680287</v>
       </c>
       <c r="E33" t="n">
-        <v>406598.2454077452</v>
+        <v>398557.334585999</v>
       </c>
       <c r="F33" t="n">
-        <v>363037.2023625374</v>
+        <v>339867.9094424248</v>
       </c>
       <c r="G33" t="n">
-        <v>529349.6549978256</v>
+        <v>392471.7541041374</v>
       </c>
     </row>
     <row r="34">
@@ -7796,16 +7863,16 @@
         <v>373743.3800095718</v>
       </c>
       <c r="D34" t="n">
-        <v>353321.4012317979</v>
+        <v>353321.3950973975</v>
       </c>
       <c r="E34" t="n">
-        <v>352848.7907134844</v>
+        <v>361524.9562443829</v>
       </c>
       <c r="F34" t="n">
-        <v>197941.3644447327</v>
+        <v>357566.3625397682</v>
       </c>
       <c r="G34" t="n">
-        <v>417511.7295765877</v>
+        <v>319028.8313441277</v>
       </c>
     </row>
     <row r="35">
@@ -7819,16 +7886,16 @@
         <v>437056.0736547119</v>
       </c>
       <c r="D35" t="n">
-        <v>432456.4165961769</v>
+        <v>432456.4075820218</v>
       </c>
       <c r="E35" t="n">
-        <v>427152.4016650908</v>
+        <v>410941.9040001199</v>
       </c>
       <c r="F35" t="n">
-        <v>411077.135576725</v>
+        <v>267461.3347505331</v>
       </c>
       <c r="G35" t="n">
-        <v>295440.8943178654</v>
+        <v>211369.8689658642</v>
       </c>
     </row>
     <row r="36">
@@ -7842,16 +7909,16 @@
         <v>402684.9768144935</v>
       </c>
       <c r="D36" t="n">
-        <v>399195.422751599</v>
+        <v>399195.4123056469</v>
       </c>
       <c r="E36" t="n">
-        <v>384513.7785612849</v>
+        <v>404307.4792901786</v>
       </c>
       <c r="F36" t="n">
-        <v>226760.2334310412</v>
+        <v>375118.931810379</v>
       </c>
       <c r="G36" t="n">
-        <v>340425.4947757721</v>
+        <v>536515.916891098</v>
       </c>
     </row>
     <row r="37">
@@ -7865,16 +7932,16 @@
         <v>427110.3966262986</v>
       </c>
       <c r="D37" t="n">
-        <v>441675.700639364</v>
+        <v>441675.684539863</v>
       </c>
       <c r="E37" t="n">
-        <v>437432.2814769075</v>
+        <v>426470.076378099</v>
       </c>
       <c r="F37" t="n">
-        <v>417015.039229393</v>
+        <v>371986.9092078209</v>
       </c>
       <c r="G37" t="n">
-        <v>547355.1173424721</v>
+        <v>381149.7128100395</v>
       </c>
     </row>
     <row r="38">
@@ -7888,16 +7955,16 @@
         <v>474200.0209882658</v>
       </c>
       <c r="D38" t="n">
-        <v>469932.9700560742</v>
+        <v>469932.9613488857</v>
       </c>
       <c r="E38" t="n">
-        <v>458311.2567900395</v>
+        <v>455733.452478204</v>
       </c>
       <c r="F38" t="n">
-        <v>333464.6374533176</v>
+        <v>313612.3900904655</v>
       </c>
       <c r="G38" t="n">
-        <v>406804.8311569691</v>
+        <v>411791.0275597572</v>
       </c>
     </row>
     <row r="39">
@@ -7911,16 +7978,16 @@
         <v>493407.4759276186</v>
       </c>
       <c r="D39" t="n">
-        <v>487887.366268062</v>
+        <v>487887.3564119709</v>
       </c>
       <c r="E39" t="n">
-        <v>479237.8326341082</v>
+        <v>458844.0263158311</v>
       </c>
       <c r="F39" t="n">
-        <v>343932.2928221226</v>
+        <v>292086.4140497446</v>
       </c>
       <c r="G39" t="n">
-        <v>497014.3102669716</v>
+        <v>139474.0482932329</v>
       </c>
     </row>
     <row r="40">
@@ -7934,16 +8001,16 @@
         <v>436975.9763197164</v>
       </c>
       <c r="D40" t="n">
-        <v>409911.1714885664</v>
+        <v>409911.1664097595</v>
       </c>
       <c r="E40" t="n">
-        <v>405569.0879161407</v>
+        <v>417788.0204462206</v>
       </c>
       <c r="F40" t="n">
-        <v>347963.5337665081</v>
+        <v>336511.4392004013</v>
       </c>
       <c r="G40" t="n">
-        <v>127326.4043062329</v>
+        <v>460488.2054281235</v>
       </c>
     </row>
     <row r="41">
@@ -7957,16 +8024,16 @@
         <v>346894.1214470243</v>
       </c>
       <c r="D41" t="n">
-        <v>333600.4687910293</v>
+        <v>333600.4621093526</v>
       </c>
       <c r="E41" t="n">
-        <v>336434.472153698</v>
+        <v>346439.2295588254</v>
       </c>
       <c r="F41" t="n">
-        <v>295069.3403116465</v>
+        <v>390182.4988348484</v>
       </c>
       <c r="G41" t="n">
-        <v>330063.1027798653</v>
+        <v>378581.0402185917</v>
       </c>
     </row>
     <row r="42">
@@ -7980,16 +8047,16 @@
         <v>372421.7353714617</v>
       </c>
       <c r="D42" t="n">
-        <v>356414.6685488056</v>
+        <v>356414.6620689318</v>
       </c>
       <c r="E42" t="n">
-        <v>365543.886268427</v>
+        <v>371218.5027342078</v>
       </c>
       <c r="F42" t="n">
-        <v>303949.9156420231</v>
+        <v>362372.0513546467</v>
       </c>
       <c r="G42" t="n">
-        <v>501547.0603294373</v>
+        <v>527472.2261662483</v>
       </c>
     </row>
     <row r="43">
@@ -8003,16 +8070,16 @@
         <v>391708.9551379248</v>
       </c>
       <c r="D43" t="n">
-        <v>376062.8611899387</v>
+        <v>376062.854580853</v>
       </c>
       <c r="E43" t="n">
-        <v>378147.9668126263</v>
+        <v>388505.6099883876</v>
       </c>
       <c r="F43" t="n">
-        <v>381252.7452704906</v>
+        <v>440754.6426074505</v>
       </c>
       <c r="G43" t="n">
-        <v>244140.0363799334</v>
+        <v>368214.097161293</v>
       </c>
     </row>
     <row r="44">
@@ -8026,16 +8093,16 @@
         <v>450571.7832284339</v>
       </c>
       <c r="D44" t="n">
-        <v>445368.3625878504</v>
+        <v>445368.3546466689</v>
       </c>
       <c r="E44" t="n">
-        <v>444753.4413671831</v>
+        <v>442477.9018782696</v>
       </c>
       <c r="F44" t="n">
-        <v>417850.8461158276</v>
+        <v>376562.5641784668</v>
       </c>
       <c r="G44" t="n">
-        <v>426489.9207119942</v>
+        <v>464866.1480140686</v>
       </c>
     </row>
     <row r="45">
@@ -8049,16 +8116,16 @@
         <v>417545.4424899386</v>
       </c>
       <c r="D45" t="n">
-        <v>403537.5412247317</v>
+        <v>403537.5324214606</v>
       </c>
       <c r="E45" t="n">
-        <v>402093.8308026686</v>
+        <v>413964.9612221988</v>
       </c>
       <c r="F45" t="n">
-        <v>408651.4555494785</v>
+        <v>425397.5053522587</v>
       </c>
       <c r="G45" t="n">
-        <v>204803.7492917776</v>
+        <v>456226.0025799274</v>
       </c>
     </row>
     <row r="46">
@@ -8072,16 +8139,16 @@
         <v>384034.9444168463</v>
       </c>
       <c r="D46" t="n">
-        <v>358231.5006629398</v>
+        <v>358231.4924668933</v>
       </c>
       <c r="E46" t="n">
-        <v>364412.3554676507</v>
+        <v>369817.9330438575</v>
       </c>
       <c r="F46" t="n">
-        <v>298871.618249774</v>
+        <v>412734.4001207352</v>
       </c>
       <c r="G46" t="n">
-        <v>337926.0697066784</v>
+        <v>239603.7614758015</v>
       </c>
     </row>
     <row r="47">
@@ -8095,16 +8162,16 @@
         <v>446463.6158652085</v>
       </c>
       <c r="D47" t="n">
-        <v>437310.0290455736</v>
+        <v>437310.0179641169</v>
       </c>
       <c r="E47" t="n">
-        <v>433460.6142828994</v>
+        <v>428014.9389418716</v>
       </c>
       <c r="F47" t="n">
-        <v>377792.6357598305</v>
+        <v>280621.0232454538</v>
       </c>
       <c r="G47" t="n">
-        <v>358917.1532554626</v>
+        <v>445423.8531224728</v>
       </c>
     </row>
     <row r="48">
@@ -8118,16 +8185,16 @@
         <v>412664.2281573075</v>
       </c>
       <c r="D48" t="n">
-        <v>403999.8823325612</v>
+        <v>403999.8698156667</v>
       </c>
       <c r="E48" t="n">
-        <v>385359.2983811981</v>
+        <v>405840.4859557127</v>
       </c>
       <c r="F48" t="n">
-        <v>223654.2634240389</v>
+        <v>431957.5301735401</v>
       </c>
       <c r="G48" t="n">
-        <v>208255.4214915633</v>
+        <v>293705.4050598145</v>
       </c>
     </row>
     <row r="49">
@@ -8141,16 +8208,16 @@
         <v>439921.288412521</v>
       </c>
       <c r="D49" t="n">
-        <v>446424.8192321518</v>
+        <v>446424.8010567412</v>
       </c>
       <c r="E49" t="n">
-        <v>448236.3403528855</v>
+        <v>438651.3507057238</v>
       </c>
       <c r="F49" t="n">
-        <v>484011.0533528328</v>
+        <v>351181.0270867348</v>
       </c>
       <c r="G49" t="n">
-        <v>488965.9634394646</v>
+        <v>532482.2844085693</v>
       </c>
     </row>
     <row r="50">
@@ -8164,16 +8231,16 @@
         <v>482874.5116123249</v>
       </c>
       <c r="D50" t="n">
-        <v>474634.0633267714</v>
+        <v>474634.0525406993</v>
       </c>
       <c r="E50" t="n">
-        <v>463070.7420739759</v>
+        <v>463640.6376853366</v>
       </c>
       <c r="F50" t="n">
-        <v>264850.6763868332</v>
+        <v>326041.0888893604</v>
       </c>
       <c r="G50" t="n">
-        <v>510858.2820749283</v>
+        <v>434211.3764004707</v>
       </c>
     </row>
     <row r="51">
@@ -8187,16 +8254,16 @@
         <v>501032.5813908274</v>
       </c>
       <c r="D51" t="n">
-        <v>492534.2399429058</v>
+        <v>492534.2280036251</v>
       </c>
       <c r="E51" t="n">
-        <v>483850.4682918782</v>
+        <v>452197.5119322425</v>
       </c>
       <c r="F51" t="n">
-        <v>384954.2038133144</v>
+        <v>201433.9961970448</v>
       </c>
       <c r="G51" t="n">
-        <v>397795.1573851109</v>
+        <v>40432.54743134975</v>
       </c>
     </row>
     <row r="52">
@@ -8210,16 +8277,16 @@
         <v>444925.0903572576</v>
       </c>
       <c r="D52" t="n">
-        <v>414511.1230580254</v>
+        <v>414511.1158936948</v>
       </c>
       <c r="E52" t="n">
-        <v>431476.1398816019</v>
+        <v>419907.0583433714</v>
       </c>
       <c r="F52" t="n">
-        <v>377665.6522233486</v>
+        <v>328254.1897313595</v>
       </c>
       <c r="G52" t="n">
-        <v>559684.1389732361</v>
+        <v>395407.991830349</v>
       </c>
     </row>
     <row r="53">
@@ -8233,16 +8300,16 @@
         <v>361025.9054636739</v>
       </c>
       <c r="D53" t="n">
-        <v>338147.2980851127</v>
+        <v>338147.289314241</v>
       </c>
       <c r="E53" t="n">
-        <v>356675.9642929561</v>
+        <v>361890.4345557237</v>
       </c>
       <c r="F53" t="n">
-        <v>493415.4023075104</v>
+        <v>479058.5348043442</v>
       </c>
       <c r="G53" t="n">
-        <v>232676.9701864123</v>
+        <v>362601.6568636894</v>
       </c>
     </row>
     <row r="54">
@@ -8256,16 +8323,16 @@
         <v>381464.9837382494</v>
       </c>
       <c r="D54" t="n">
-        <v>360915.6551482477</v>
+        <v>360915.6465774589</v>
       </c>
       <c r="E54" t="n">
-        <v>397930.5270736982</v>
+        <v>382793.5420402205</v>
       </c>
       <c r="F54" t="n">
-        <v>639910.8559966087</v>
+        <v>490208.3853521347</v>
       </c>
       <c r="G54" t="n">
-        <v>487180.3054223061</v>
+        <v>390472.3211326599</v>
       </c>
     </row>
     <row r="55">
@@ -8279,16 +8346,16 @@
         <v>402023.5548364178</v>
       </c>
       <c r="D55" t="n">
-        <v>380511.7992806552</v>
+        <v>380511.7905775924</v>
       </c>
       <c r="E55" t="n">
-        <v>379063.6648563814</v>
+        <v>393908.0039824197</v>
       </c>
       <c r="F55" t="n">
-        <v>235021.6279354095</v>
+        <v>456794.9923377037</v>
       </c>
       <c r="G55" t="n">
-        <v>390114.4470815659</v>
+        <v>306553.8544974327</v>
       </c>
     </row>
     <row r="56">
@@ -8302,16 +8369,16 @@
         <v>461100.9996236513</v>
       </c>
       <c r="D56" t="n">
-        <v>449772.5141011128</v>
+        <v>449772.5040648234</v>
       </c>
       <c r="E56" t="n">
-        <v>436354.9444003653</v>
+        <v>445169.7749717872</v>
       </c>
       <c r="F56" t="n">
-        <v>380021.2280578613</v>
+        <v>357815.6536202431</v>
       </c>
       <c r="G56" t="n">
-        <v>136816.9155614376</v>
+        <v>409731.8953711987</v>
       </c>
     </row>
     <row r="57">
@@ -8325,16 +8392,16 @@
         <v>424590.0302543045</v>
       </c>
       <c r="D57" t="n">
-        <v>407890.6949489577</v>
+        <v>407890.6840481011</v>
       </c>
       <c r="E57" t="n">
-        <v>401345.1614997466</v>
+        <v>391884.4728206618</v>
       </c>
       <c r="F57" t="n">
-        <v>388203.5367159843</v>
+        <v>148704.8746468723</v>
       </c>
       <c r="G57" t="n">
-        <v>104612.1595215797</v>
+        <v>388839.3824579716</v>
       </c>
     </row>
     <row r="58">
@@ -8348,16 +8415,16 @@
         <v>394380.2945950254</v>
       </c>
       <c r="D58" t="n">
-        <v>362540.9011347211</v>
+        <v>362540.8908405227</v>
       </c>
       <c r="E58" t="n">
-        <v>385719.0285089071</v>
+        <v>380724.7851629891</v>
       </c>
       <c r="F58" t="n">
-        <v>463594.5636138916</v>
+        <v>356610.4433271885</v>
       </c>
       <c r="G58" t="n">
-        <v>375215.0752131939</v>
+        <v>467005.2539520264</v>
       </c>
     </row>
     <row r="59">
@@ -8371,16 +8438,16 @@
         <v>455871.847483884</v>
       </c>
       <c r="D59" t="n">
-        <v>441569.4598970053</v>
+        <v>441569.4467154796</v>
       </c>
       <c r="E59" t="n">
-        <v>439856.5184860735</v>
+        <v>437422.021301162</v>
       </c>
       <c r="F59" t="n">
-        <v>369741.4333643913</v>
+        <v>331576.5894784927</v>
       </c>
       <c r="G59" t="n">
-        <v>381774.1005856991</v>
+        <v>418416.4270393848</v>
       </c>
     </row>
     <row r="60">
@@ -8394,16 +8461,16 @@
         <v>422695.382447861</v>
       </c>
       <c r="D60" t="n">
-        <v>408216.5709549669</v>
+        <v>408216.556337978</v>
       </c>
       <c r="E60" t="n">
-        <v>417736.7374178898</v>
+        <v>410412.9617206081</v>
       </c>
       <c r="F60" t="n">
-        <v>400616.5655858517</v>
+        <v>407391.6860616207</v>
       </c>
       <c r="G60" t="n">
-        <v>492890.1205863953</v>
+        <v>304103.6255096197</v>
       </c>
     </row>
     <row r="61">
@@ -8417,16 +8484,16 @@
         <v>452698.9549465121</v>
       </c>
       <c r="D61" t="n">
-        <v>450592.5443371767</v>
+        <v>450592.524060292</v>
       </c>
       <c r="E61" t="n">
-        <v>443008.9003544702</v>
+        <v>441459.9149128984</v>
       </c>
       <c r="F61" t="n">
-        <v>367222.3227238655</v>
+        <v>367781.246604681</v>
       </c>
       <c r="G61" t="n">
-        <v>405880.7158322334</v>
+        <v>382340.0027606487</v>
       </c>
     </row>
     <row r="62">
@@ -8440,16 +8507,16 @@
         <v>491456.9703635307</v>
       </c>
       <c r="D62" t="n">
-        <v>478760.0354046272</v>
+        <v>478760.0225175738</v>
       </c>
       <c r="E62" t="n">
-        <v>491822.9651415742</v>
+        <v>479883.0519637458</v>
       </c>
       <c r="F62" t="n">
-        <v>537245.3360247612</v>
+        <v>492640.0799193382</v>
       </c>
       <c r="G62" t="n">
-        <v>540663.1295881271</v>
+        <v>336739.2599794865</v>
       </c>
     </row>
     <row r="63">
@@ -8463,16 +8530,16 @@
         <v>508636.0316851817</v>
       </c>
       <c r="D63" t="n">
-        <v>496612.2330154718</v>
+        <v>496612.218974345</v>
       </c>
       <c r="E63" t="n">
-        <v>487785.3791411834</v>
+        <v>487181.3758589794</v>
       </c>
       <c r="F63" t="n">
-        <v>389880.0584962368</v>
+        <v>373981.5947976112</v>
       </c>
       <c r="G63" t="n">
-        <v>358009.3682098389</v>
+        <v>397090.0819680691</v>
       </c>
     </row>
     <row r="64">
@@ -8486,16 +8553,16 @@
         <v>452965.6949285701</v>
       </c>
       <c r="D64" t="n">
-        <v>418548.3309534155</v>
+        <v>418548.3216882279</v>
       </c>
       <c r="E64" t="n">
-        <v>432902.480990269</v>
+        <v>406328.0211321546</v>
       </c>
       <c r="F64" t="n">
-        <v>373373.7336213589</v>
+        <v>188766.1301983595</v>
       </c>
       <c r="G64" t="n">
-        <v>472904.2504916191</v>
+        <v>233810.6975828409</v>
       </c>
     </row>
     <row r="65">
@@ -8509,16 +8576,16 @@
         <v>375220.6847137131</v>
       </c>
       <c r="D65" t="n">
-        <v>342137.4903610469</v>
+        <v>342137.4794889466</v>
       </c>
       <c r="E65" t="n">
-        <v>352240.7634014879</v>
+        <v>365778.3625953196</v>
       </c>
       <c r="F65" t="n">
-        <v>253896.369776845</v>
+        <v>470906.8878068924</v>
       </c>
       <c r="G65" t="n">
-        <v>392013.1141996384</v>
+        <v>277795.6975624561</v>
       </c>
     </row>
     <row r="66">
@@ -8532,16 +8599,16 @@
         <v>390473.8274745587</v>
       </c>
       <c r="D66" t="n">
-        <v>364866.0092047243</v>
+        <v>364865.9985341708</v>
       </c>
       <c r="E66" t="n">
-        <v>373953.0445132531</v>
+        <v>383175.153703287</v>
       </c>
       <c r="F66" t="n">
-        <v>393250.00344944</v>
+        <v>418332.5804259777</v>
       </c>
       <c r="G66" t="n">
-        <v>247164.7431701422</v>
+        <v>414024.9740476608</v>
       </c>
     </row>
     <row r="67">
@@ -8555,16 +8622,16 @@
         <v>412335.3474221443</v>
       </c>
       <c r="D67" t="n">
-        <v>384416.0804318743</v>
+        <v>384416.0696291471</v>
       </c>
       <c r="E67" t="n">
-        <v>370982.6070767077</v>
+        <v>391956.6216494079</v>
       </c>
       <c r="F67" t="n">
-        <v>200120.4126391411</v>
+        <v>421695.493543148</v>
       </c>
       <c r="G67" t="n">
-        <v>109892.5552724004</v>
+        <v>180960.5267232955</v>
       </c>
     </row>
     <row r="68">
@@ -8578,16 +8645,16 @@
         <v>471558.3740486196</v>
       </c>
       <c r="D68" t="n">
-        <v>453637.8835480156</v>
+        <v>453637.8714139797</v>
       </c>
       <c r="E68" t="n">
-        <v>454123.3240584186</v>
+        <v>452743.9335460525</v>
       </c>
       <c r="F68" t="n">
-        <v>407137.1478750706</v>
+        <v>385230.4264688492</v>
       </c>
       <c r="G68" t="n">
-        <v>358047.5078890324</v>
+        <v>380929.6020643711</v>
       </c>
     </row>
     <row r="69">
@@ -8601,16 +8668,16 @@
         <v>431628.2197657671</v>
       </c>
       <c r="D69" t="n">
-        <v>411710.9139780026</v>
+        <v>411710.9009799515</v>
       </c>
       <c r="E69" t="n">
-        <v>416947.8852077823</v>
+        <v>408982.6389937825</v>
       </c>
       <c r="F69" t="n">
-        <v>383002.9228560925</v>
+        <v>300896.9655002356</v>
       </c>
       <c r="G69" t="n">
-        <v>374200.0457444191</v>
+        <v>363046.054623127</v>
       </c>
     </row>
     <row r="70">
@@ -8624,16 +8691,16 @@
         <v>404779.7253617166</v>
       </c>
       <c r="D70" t="n">
-        <v>366323.114972033</v>
+        <v>366323.1025829923</v>
       </c>
       <c r="E70" t="n">
-        <v>377203.6948909077</v>
+        <v>389790.2956416034</v>
       </c>
       <c r="F70" t="n">
-        <v>331347.9655709267</v>
+        <v>400484.2100121975</v>
       </c>
       <c r="G70" t="n">
-        <v>272893.267460227</v>
+        <v>440775.6310317516</v>
       </c>
     </row>
   </sheetData>
@@ -8695,16 +8762,16 @@
         <v>496783.8125174749</v>
       </c>
       <c r="C2" t="n">
-        <v>491920.6334520737</v>
+        <v>491920.8462882977</v>
       </c>
       <c r="D2" t="n">
-        <v>483405.4613935426</v>
+        <v>486252.9848087049</v>
       </c>
       <c r="E2" t="n">
-        <v>414043.827655673</v>
+        <v>433564.0965918303</v>
       </c>
       <c r="F2" t="n">
-        <v>383838.1594029665</v>
+        <v>425324.7274867296</v>
       </c>
     </row>
     <row r="3">
@@ -8715,16 +8782,16 @@
         <v>456736.2819212076</v>
       </c>
       <c r="C3" t="n">
-        <v>442935.2703417128</v>
+        <v>442935.5764097042</v>
       </c>
       <c r="D3" t="n">
-        <v>443986.9761580501</v>
+        <v>446661.8676645595</v>
       </c>
       <c r="E3" t="n">
-        <v>401748.1492964029</v>
+        <v>424399.075761199</v>
       </c>
       <c r="F3" t="n">
-        <v>396028.9215395451</v>
+        <v>421311.2648669481</v>
       </c>
     </row>
     <row r="4">
@@ -8735,16 +8802,16 @@
         <v>487827.2756195136</v>
       </c>
       <c r="C4" t="n">
-        <v>486801.5886616745</v>
+        <v>486801.3117955711</v>
       </c>
       <c r="D4" t="n">
-        <v>478097.9544721704</v>
+        <v>477918.1321556754</v>
       </c>
       <c r="E4" t="n">
-        <v>400519.862990737</v>
+        <v>427890.9555647373</v>
       </c>
       <c r="F4" t="n">
-        <v>432632.4724516869</v>
+        <v>385434.5834109783</v>
       </c>
     </row>
     <row r="5">
@@ -8755,16 +8822,16 @@
         <v>543894.5214213408</v>
       </c>
       <c r="C5" t="n">
-        <v>556834.9363015966</v>
+        <v>556834.5068168781</v>
       </c>
       <c r="D5" t="n">
-        <v>532019.8274843402</v>
+        <v>531713.5719772634</v>
       </c>
       <c r="E5" t="n">
-        <v>396298.985907197</v>
+        <v>400034.2597410679</v>
       </c>
       <c r="F5" t="n">
-        <v>411778.6382899284</v>
+        <v>423508.6056683064</v>
       </c>
     </row>
     <row r="6">
@@ -8775,16 +8842,16 @@
         <v>564277.0829855176</v>
       </c>
       <c r="C6" t="n">
-        <v>552906.4868521146</v>
+        <v>552904.8483319612</v>
       </c>
       <c r="D6" t="n">
-        <v>541865.5984270292</v>
+        <v>537527.8407652797</v>
       </c>
       <c r="E6" t="n">
-        <v>411155.6936839819</v>
+        <v>388003.2052907944</v>
       </c>
       <c r="F6" t="n">
-        <v>435832.6227722168</v>
+        <v>406315.3297082186</v>
       </c>
     </row>
     <row r="7">
@@ -8795,16 +8862,16 @@
         <v>490381.8003307534</v>
       </c>
       <c r="C7" t="n">
-        <v>472179.4791955241</v>
+        <v>472178.4318973128</v>
       </c>
       <c r="D7" t="n">
-        <v>474198.4272893558</v>
+        <v>473532.7262522716</v>
       </c>
       <c r="E7" t="n">
-        <v>415992.7208451033</v>
+        <v>415040.2537033558</v>
       </c>
       <c r="F7" t="n">
-        <v>429132.1297124624</v>
+        <v>426934.3536744118</v>
       </c>
     </row>
     <row r="8">
@@ -8815,16 +8882,16 @@
         <v>406713.3404566589</v>
       </c>
       <c r="C8" t="n">
-        <v>373987.9418625854</v>
+        <v>373986.4784261398</v>
       </c>
       <c r="D8" t="n">
-        <v>393642.4163080453</v>
+        <v>392583.0342394926</v>
       </c>
       <c r="E8" t="n">
-        <v>431866.0448161364</v>
+        <v>403317.5644496679</v>
       </c>
       <c r="F8" t="n">
-        <v>375482.9447982311</v>
+        <v>403386.2593076229</v>
       </c>
     </row>
     <row r="9">
@@ -8835,16 +8902,16 @@
         <v>434978.2652592162</v>
       </c>
       <c r="C9" t="n">
-        <v>429123.4354584591</v>
+        <v>429122.6516695996</v>
       </c>
       <c r="D9" t="n">
-        <v>430785.0501019903</v>
+        <v>431957.1428452297</v>
       </c>
       <c r="E9" t="n">
-        <v>410125.2949944735</v>
+        <v>426763.4749130011</v>
       </c>
       <c r="F9" t="n">
-        <v>441440.5750147104</v>
+        <v>438654.0688107014</v>
       </c>
     </row>
     <row r="10">
@@ -8855,16 +8922,16 @@
         <v>450859.7601912755</v>
       </c>
       <c r="C10" t="n">
-        <v>452117.7379582022</v>
+        <v>452118.0376585394</v>
       </c>
       <c r="D10" t="n">
-        <v>448427.4113159506</v>
+        <v>449115.1305681706</v>
       </c>
       <c r="E10" t="n">
-        <v>428282.3542503119</v>
+        <v>437576.3985804319</v>
       </c>
       <c r="F10" t="n">
-        <v>423141.1208209991</v>
+        <v>424029.3663707972</v>
       </c>
     </row>
     <row r="11">
@@ -8875,16 +8942,16 @@
         <v>516959.2559868487</v>
       </c>
       <c r="C11" t="n">
-        <v>536097.7829695338</v>
+        <v>536098.1440418881</v>
       </c>
       <c r="D11" t="n">
-        <v>511331.4473102597</v>
+        <v>510722.9457064469</v>
       </c>
       <c r="E11" t="n">
-        <v>408964.3011174202</v>
+        <v>393854.8659012318</v>
       </c>
       <c r="F11" t="n">
-        <v>395857.6075414419</v>
+        <v>433679.3859556913</v>
       </c>
     </row>
     <row r="12">
@@ -8895,16 +8962,16 @@
         <v>476991.9684154341</v>
       </c>
       <c r="C12" t="n">
-        <v>454152.4222560694</v>
+        <v>454152.7865094586</v>
       </c>
       <c r="D12" t="n">
-        <v>460383.3942549688</v>
+        <v>466170.2599612679</v>
       </c>
       <c r="E12" t="n">
-        <v>415986.8451497555</v>
+        <v>469912.6229820251</v>
       </c>
       <c r="F12" t="n">
-        <v>426706.7732439041</v>
+        <v>461381.7903718948</v>
       </c>
     </row>
     <row r="13">
@@ -8915,16 +8982,16 @@
         <v>435581.2033213383</v>
       </c>
       <c r="C13" t="n">
-        <v>391665.2728244048</v>
+        <v>391665.510104325</v>
       </c>
       <c r="D13" t="n">
-        <v>411870.446888427</v>
+        <v>415718.8429370738</v>
       </c>
       <c r="E13" t="n">
-        <v>402684.7786585093</v>
+        <v>425585.8695021868</v>
       </c>
       <c r="F13" t="n">
-        <v>373862.3893336058</v>
+        <v>420830.9328172207</v>
       </c>
     </row>
     <row r="14">
@@ -8935,16 +9002,16 @@
         <v>506604.1397559684</v>
       </c>
       <c r="C14" t="n">
-        <v>489228.1453765266</v>
+        <v>489228.7464881928</v>
       </c>
       <c r="D14" t="n">
-        <v>488161.6287305618</v>
+        <v>490683.1286699229</v>
       </c>
       <c r="E14" t="n">
-        <v>397792.137920022</v>
+        <v>453065.1425740719</v>
       </c>
       <c r="F14" t="n">
-        <v>449074.7474989891</v>
+        <v>410714.6780154705</v>
       </c>
     </row>
     <row r="15">
@@ -8955,16 +9022,16 @@
         <v>467935.3596734282</v>
       </c>
       <c r="C15" t="n">
-        <v>441219.5416687119</v>
+        <v>441220.2119754679</v>
       </c>
       <c r="D15" t="n">
-        <v>448237.6845067712</v>
+        <v>454714.1778739695</v>
       </c>
       <c r="E15" t="n">
-        <v>398535.0869539976</v>
+        <v>447373.141290307</v>
       </c>
       <c r="F15" t="n">
-        <v>398821.8837544918</v>
+        <v>462229.7765276432</v>
       </c>
     </row>
     <row r="16">
@@ -8975,16 +9042,16 @@
         <v>500593.828677029</v>
       </c>
       <c r="C16" t="n">
-        <v>486570.1088192383</v>
+        <v>486570.5980690094</v>
       </c>
       <c r="D16" t="n">
-        <v>484801.3497669926</v>
+        <v>484097.9660333614</v>
       </c>
       <c r="E16" t="n">
-        <v>421440.288366437</v>
+        <v>418782.6847628355</v>
       </c>
       <c r="F16" t="n">
-        <v>415554.1956976652</v>
+        <v>417032.6463822126</v>
       </c>
     </row>
     <row r="17">
@@ -8995,16 +9062,16 @@
         <v>556121.4873542852</v>
       </c>
       <c r="C17" t="n">
-        <v>556610.6427300562</v>
+        <v>556610.6848777183</v>
       </c>
       <c r="D17" t="n">
-        <v>540367.0708996295</v>
+        <v>538053.6764008724</v>
       </c>
       <c r="E17" t="n">
-        <v>423410.4839739799</v>
+        <v>417417.0087412596</v>
       </c>
       <c r="F17" t="n">
-        <v>428186.6988972425</v>
+        <v>408271.7670003176</v>
       </c>
     </row>
     <row r="18">
@@ -9015,16 +9082,16 @@
         <v>574653.2051678462</v>
       </c>
       <c r="C18" t="n">
-        <v>552240.6734335423</v>
+        <v>552239.2044400155</v>
       </c>
       <c r="D18" t="n">
-        <v>545061.6723662416</v>
+        <v>546103.5416772723</v>
       </c>
       <c r="E18" t="n">
-        <v>399249.2136470079</v>
+        <v>419581.0781154633</v>
       </c>
       <c r="F18" t="n">
-        <v>428422.4521056414</v>
+        <v>439949.7926238775</v>
       </c>
     </row>
     <row r="19">
@@ -9035,16 +9102,16 @@
         <v>502021.4353113277</v>
       </c>
       <c r="C19" t="n">
-        <v>474434.2862945913</v>
+        <v>474435.430379219</v>
       </c>
       <c r="D19" t="n">
-        <v>480826.334922481</v>
+        <v>483508.6012353486</v>
       </c>
       <c r="E19" t="n">
-        <v>423744.3346968889</v>
+        <v>458510.7998899221</v>
       </c>
       <c r="F19" t="n">
-        <v>422842.5242701769</v>
+        <v>425568.7260124683</v>
       </c>
     </row>
     <row r="20">
@@ -9055,16 +9122,16 @@
         <v>417450.2518580036</v>
       </c>
       <c r="C20" t="n">
-        <v>374277.387307853</v>
+        <v>374276.69072755</v>
       </c>
       <c r="D20" t="n">
-        <v>399935.1266359431</v>
+        <v>401358.6077282519</v>
       </c>
       <c r="E20" t="n">
-        <v>409140.2818200588</v>
+        <v>421460.8895698786</v>
       </c>
       <c r="F20" t="n">
-        <v>449883.8283303976</v>
+        <v>456889.3981317282</v>
       </c>
     </row>
     <row r="21">
@@ -9075,16 +9142,16 @@
         <v>445178.3759185863</v>
       </c>
       <c r="C21" t="n">
-        <v>430423.2483639616</v>
+        <v>430423.675516667</v>
       </c>
       <c r="D21" t="n">
-        <v>440212.599855483</v>
+        <v>435304.0299969942</v>
       </c>
       <c r="E21" t="n">
-        <v>463958.0047140121</v>
+        <v>394054.7604421377</v>
       </c>
       <c r="F21" t="n">
-        <v>439062.2482887506</v>
+        <v>464456.9794020653</v>
       </c>
     </row>
     <row r="22">
@@ -9095,16 +9162,16 @@
         <v>462857.8305804161</v>
       </c>
       <c r="C22" t="n">
-        <v>453689.9287241024</v>
+        <v>453691.4458850516</v>
       </c>
       <c r="D22" t="n">
-        <v>452657.3932986993</v>
+        <v>461724.8995170518</v>
       </c>
       <c r="E22" t="n">
-        <v>420391.1986789703</v>
+        <v>484037.5044403076</v>
       </c>
       <c r="F22" t="n">
-        <v>392315.5787990093</v>
+        <v>483312.2066721916</v>
       </c>
     </row>
     <row r="23">
@@ -9115,16 +9182,16 @@
         <v>530891.9215508865</v>
       </c>
       <c r="C23" t="n">
-        <v>537834.2836321928</v>
+        <v>537835.8753237516</v>
       </c>
       <c r="D23" t="n">
-        <v>524658.7558287496</v>
+        <v>522764.9305739696</v>
       </c>
       <c r="E23" t="n">
-        <v>468738.8379821777</v>
+        <v>442341.7084065676</v>
       </c>
       <c r="F23" t="n">
-        <v>430419.4873092175</v>
+        <v>451880.1623193026</v>
       </c>
     </row>
     <row r="24">
@@ -9132,19 +9199,19 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>487080.314881504</v>
+        <v>487080.3148815041</v>
       </c>
       <c r="C24" t="n">
-        <v>455241.4460252578</v>
+        <v>455242.570714366</v>
       </c>
       <c r="D24" t="n">
-        <v>465325.578937697</v>
+        <v>465689.1693651812</v>
       </c>
       <c r="E24" t="n">
-        <v>429785.0331107378</v>
+        <v>433498.617649436</v>
       </c>
       <c r="F24" t="n">
-        <v>397036.0592458248</v>
+        <v>405425.6333694458</v>
       </c>
     </row>
     <row r="25">
@@ -9155,16 +9222,16 @@
         <v>446431.882372366</v>
       </c>
       <c r="C25" t="n">
-        <v>392554.9188266798</v>
+        <v>392555.77298608</v>
       </c>
       <c r="D25" t="n">
-        <v>423463.8788522301</v>
+        <v>423844.9194362788</v>
       </c>
       <c r="E25" t="n">
-        <v>444450.817058444</v>
+        <v>425976.059196949</v>
       </c>
       <c r="F25" t="n">
-        <v>443961.7560950518</v>
+        <v>489118.6026666164</v>
       </c>
     </row>
     <row r="26">
@@ -9175,16 +9242,16 @@
         <v>516426.4131505235</v>
       </c>
       <c r="C26" t="n">
-        <v>490016.6498512135</v>
+        <v>490017.8009244877</v>
       </c>
       <c r="D26" t="n">
-        <v>489137.7676751958</v>
+        <v>497777.6471232391</v>
       </c>
       <c r="E26" t="n">
-        <v>371434.9775806665</v>
+        <v>440338.8700470924</v>
       </c>
       <c r="F26" t="n">
-        <v>407458.9624772072</v>
+        <v>494290.8588001728</v>
       </c>
     </row>
     <row r="27">
@@ -9195,16 +9262,16 @@
         <v>479200.3440425262</v>
       </c>
       <c r="C27" t="n">
-        <v>441818.570146181</v>
+        <v>441819.6796264474</v>
       </c>
       <c r="D27" t="n">
-        <v>460093.7345503834</v>
+        <v>456249.8325530263</v>
       </c>
       <c r="E27" t="n">
-        <v>435759.1403106451</v>
+        <v>402363.8157776594</v>
       </c>
       <c r="F27" t="n">
-        <v>482413.1769243479</v>
+        <v>465706.1328891516</v>
       </c>
     </row>
     <row r="28">
@@ -9215,16 +9282,16 @@
         <v>513381.0169881912</v>
       </c>
       <c r="C28" t="n">
-        <v>486950.2254035133</v>
+        <v>486951.0037053521</v>
       </c>
       <c r="D28" t="n">
-        <v>494638.4239101708</v>
+        <v>493465.9944160714</v>
       </c>
       <c r="E28" t="n">
-        <v>447783.2067940235</v>
+        <v>428149.3894407749</v>
       </c>
       <c r="F28" t="n">
-        <v>457027.4407026768</v>
+        <v>480217.7463284731</v>
       </c>
     </row>
     <row r="29">
@@ -9235,16 +9302,16 @@
         <v>568301.3849021596</v>
       </c>
       <c r="C29" t="n">
-        <v>556815.8486504663</v>
+        <v>556816.0190279636</v>
       </c>
       <c r="D29" t="n">
-        <v>546566.012803721</v>
+        <v>544661.6190653476</v>
       </c>
       <c r="E29" t="n">
-        <v>411900.7463619709</v>
+        <v>424839.9463508129</v>
       </c>
       <c r="F29" t="n">
-        <v>463640.9106037617</v>
+        <v>416976.4283094406</v>
       </c>
     </row>
     <row r="30">
@@ -9252,19 +9319,19 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>584981.9038044766</v>
+        <v>584981.9038044765</v>
       </c>
       <c r="C30" t="n">
-        <v>552345.0518363847</v>
+        <v>552343.5875991565</v>
       </c>
       <c r="D30" t="n">
-        <v>553638.7255370016</v>
+        <v>551682.1102828748</v>
       </c>
       <c r="E30" t="n">
-        <v>439895.9925327301</v>
+        <v>438741.8415436745</v>
       </c>
       <c r="F30" t="n">
-        <v>441758.0318222046</v>
+        <v>419944.6941921711</v>
       </c>
     </row>
     <row r="31">
@@ -9275,16 +9342,16 @@
         <v>513652.8417002779</v>
       </c>
       <c r="C31" t="n">
-        <v>474497.9658730985</v>
+        <v>474499.0571965544</v>
       </c>
       <c r="D31" t="n">
-        <v>489592.2132155645</v>
+        <v>489919.5758898265</v>
       </c>
       <c r="E31" t="n">
-        <v>460848.9155814648</v>
+        <v>465747.0209584236</v>
       </c>
       <c r="F31" t="n">
-        <v>433652.4496403933</v>
+        <v>437359.1429314613</v>
       </c>
     </row>
     <row r="32">
@@ -9295,16 +9362,16 @@
         <v>428205.8075940275</v>
       </c>
       <c r="C32" t="n">
-        <v>374329.8528129966</v>
+        <v>374329.104858525</v>
       </c>
       <c r="D32" t="n">
-        <v>407477.4887895538</v>
+        <v>406105.532315477</v>
       </c>
       <c r="E32" t="n">
-        <v>452548.2990018129</v>
+        <v>426626.665512681</v>
       </c>
       <c r="F32" t="n">
-        <v>428799.2703620195</v>
+        <v>442400.6104389429</v>
       </c>
     </row>
     <row r="33">
@@ -9315,16 +9382,16 @@
         <v>455418.1332149423</v>
       </c>
       <c r="C33" t="n">
-        <v>430470.0831395212</v>
+        <v>430470.4884669329</v>
       </c>
       <c r="D33" t="n">
-        <v>446340.1569191866</v>
+        <v>446827.1319141872</v>
       </c>
       <c r="E33" t="n">
-        <v>475296.3799682856</v>
+        <v>455165.3530535698</v>
       </c>
       <c r="F33" t="n">
-        <v>451600.9579811096</v>
+        <v>500897.1472958326</v>
       </c>
     </row>
     <row r="34">
@@ -9335,16 +9402,16 @@
         <v>474915.7304797128</v>
       </c>
       <c r="C34" t="n">
-        <v>453727.3254153945</v>
+        <v>453728.8477948285</v>
       </c>
       <c r="D34" t="n">
-        <v>463715.8218720975</v>
+        <v>460131.218449718</v>
       </c>
       <c r="E34" t="n">
-        <v>452908.8684216738</v>
+        <v>426710.6661943197</v>
       </c>
       <c r="F34" t="n">
-        <v>462770.485578537</v>
+        <v>434029.2678967714</v>
       </c>
     </row>
     <row r="35">
@@ -9355,16 +9422,16 @@
         <v>544766.8253263182</v>
       </c>
       <c r="C35" t="n">
-        <v>537859.4730239806</v>
+        <v>537861.0797997668</v>
       </c>
       <c r="D35" t="n">
-        <v>530634.1498716552</v>
+        <v>531334.665674526</v>
       </c>
       <c r="E35" t="n">
-        <v>457113.5208485126</v>
+        <v>450938.0441389084</v>
       </c>
       <c r="F35" t="n">
-        <v>443895.6484774351</v>
+        <v>488953.938117981</v>
       </c>
     </row>
     <row r="36">
@@ -9375,16 +9442,16 @@
         <v>497111.4145195366</v>
       </c>
       <c r="C36" t="n">
-        <v>455255.8026702736</v>
+        <v>455256.9372583676</v>
       </c>
       <c r="D36" t="n">
-        <v>475954.1284826562</v>
+        <v>475536.0772945691</v>
       </c>
       <c r="E36" t="n">
-        <v>474196.585206151</v>
+        <v>455301.6788575649</v>
       </c>
       <c r="F36" t="n">
-        <v>456687.2065082788</v>
+        <v>487722.7260545492</v>
       </c>
     </row>
     <row r="37">
@@ -9392,19 +9459,19 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>457287.7664077112</v>
+        <v>457287.7664077113</v>
       </c>
       <c r="C37" t="n">
-        <v>392562.313425776</v>
+        <v>392563.1672092957</v>
       </c>
       <c r="D37" t="n">
-        <v>430896.1457609291</v>
+        <v>431044.6205864066</v>
       </c>
       <c r="E37" t="n">
-        <v>468227.8701052666</v>
+        <v>462229.3896505833</v>
       </c>
       <c r="F37" t="n">
-        <v>457509.1993615627</v>
+        <v>467191.6924396753</v>
       </c>
     </row>
     <row r="38">
@@ -9415,16 +9482,16 @@
         <v>526252.3640622047</v>
       </c>
       <c r="C38" t="n">
-        <v>490020.8202120399</v>
+        <v>490021.9639343567</v>
       </c>
       <c r="D38" t="n">
-        <v>499993.4336363827</v>
+        <v>499304.7119706097</v>
       </c>
       <c r="E38" t="n">
-        <v>445949.6513280869</v>
+        <v>425587.9006067514</v>
       </c>
       <c r="F38" t="n">
-        <v>416776.4612290859</v>
+        <v>454798.5210613012</v>
       </c>
     </row>
     <row r="39">
@@ -9435,16 +9502,16 @@
         <v>490531.3076392346</v>
       </c>
       <c r="C39" t="n">
-        <v>441821.7017419816</v>
+        <v>441822.8028424711</v>
       </c>
       <c r="D39" t="n">
-        <v>464355.3442168841</v>
+        <v>463885.7366834442</v>
       </c>
       <c r="E39" t="n">
-        <v>433302.8336772919</v>
+        <v>436317.6215264797</v>
       </c>
       <c r="F39" t="n">
-        <v>465111.0434315205</v>
+        <v>454113.1199899912</v>
       </c>
     </row>
   </sheetData>

--- a/fcst_results/no_covid_series_IAH-Int_results.xlsx
+++ b/fcst_results/no_covid_series_IAH-Int_results.xlsx
@@ -479,10 +479,10 @@
         <v>43891</v>
       </c>
       <c r="B2" t="n">
-        <v>433564.0965918303</v>
+        <v>415614.717777729</v>
       </c>
       <c r="C2" t="n">
-        <v>425324.7274867296</v>
+        <v>394825.29864645</v>
       </c>
       <c r="D2" t="n">
         <v>491920.8462882977</v>
@@ -491,7 +491,7 @@
         <v>496783.8125174749</v>
       </c>
       <c r="F2" t="n">
-        <v>486252.9848087049</v>
+        <v>484666.0050912367</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>43922</v>
       </c>
       <c r="B3" t="n">
-        <v>424399.075761199</v>
+        <v>409230.5450741053</v>
       </c>
       <c r="C3" t="n">
-        <v>421311.2648669481</v>
+        <v>422688.8615379333</v>
       </c>
       <c r="D3" t="n">
         <v>442935.5764097042</v>
@@ -511,7 +511,7 @@
         <v>456736.2819212076</v>
       </c>
       <c r="F3" t="n">
-        <v>446661.8676645595</v>
+        <v>446030.1399916859</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>43952</v>
       </c>
       <c r="B4" t="n">
-        <v>427890.9555647373</v>
+        <v>424781.67299366</v>
       </c>
       <c r="C4" t="n">
-        <v>385434.5834109783</v>
+        <v>420437.551386714</v>
       </c>
       <c r="D4" t="n">
         <v>486801.3117955711</v>
@@ -531,7 +531,7 @@
         <v>487827.2756195136</v>
       </c>
       <c r="F4" t="n">
-        <v>477918.1321556754</v>
+        <v>480084.5421822805</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>43983</v>
       </c>
       <c r="B5" t="n">
-        <v>400034.2597410679</v>
+        <v>414424.0310863256</v>
       </c>
       <c r="C5" t="n">
-        <v>423508.6056683064</v>
+        <v>432470.322603941</v>
       </c>
       <c r="D5" t="n">
         <v>556834.5068168781</v>
@@ -551,7 +551,7 @@
         <v>543894.5214213408</v>
       </c>
       <c r="F5" t="n">
-        <v>531713.5719772634</v>
+        <v>535554.4855216459</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44013</v>
       </c>
       <c r="B6" t="n">
-        <v>388003.2052907944</v>
+        <v>441369.8006925583</v>
       </c>
       <c r="C6" t="n">
-        <v>406315.3297082186</v>
+        <v>422117.4441204071</v>
       </c>
       <c r="D6" t="n">
         <v>552904.8483319612</v>
@@ -571,7 +571,7 @@
         <v>564277.0829855176</v>
       </c>
       <c r="F6" t="n">
-        <v>537527.8407652797</v>
+        <v>544724.6891848567</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44044</v>
       </c>
       <c r="B7" t="n">
-        <v>415040.2537033558</v>
+        <v>381558.631406188</v>
       </c>
       <c r="C7" t="n">
-        <v>426934.3536744118</v>
+        <v>396395.7293519974</v>
       </c>
       <c r="D7" t="n">
         <v>472178.4318973128</v>
@@ -591,7 +591,7 @@
         <v>490381.8003307534</v>
       </c>
       <c r="F7" t="n">
-        <v>473532.7262522716</v>
+        <v>470923.2884152916</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44075</v>
       </c>
       <c r="B8" t="n">
-        <v>403317.5644496679</v>
+        <v>429955.7426134348</v>
       </c>
       <c r="C8" t="n">
-        <v>403386.2593076229</v>
+        <v>398198.5280916691</v>
       </c>
       <c r="D8" t="n">
         <v>373986.4784261398</v>
@@ -611,7 +611,7 @@
         <v>406713.3404566589</v>
       </c>
       <c r="F8" t="n">
-        <v>392583.0342394926</v>
+        <v>394018.6086054475</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44105</v>
       </c>
       <c r="B9" t="n">
-        <v>426763.4749130011</v>
+        <v>398638.3831290007</v>
       </c>
       <c r="C9" t="n">
-        <v>438654.0688107014</v>
+        <v>401878.5026857853</v>
       </c>
       <c r="D9" t="n">
         <v>429122.6516695996</v>
@@ -631,7 +631,7 @@
         <v>434978.2652592162</v>
       </c>
       <c r="F9" t="n">
-        <v>431957.1428452297</v>
+        <v>428504.1890790135</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44136</v>
       </c>
       <c r="B10" t="n">
-        <v>437576.3985804319</v>
+        <v>386819.0229699612</v>
       </c>
       <c r="C10" t="n">
-        <v>424029.3663707972</v>
+        <v>410411.342220664</v>
       </c>
       <c r="D10" t="n">
         <v>452118.0376585394</v>
@@ -651,7 +651,7 @@
         <v>450859.7601912755</v>
       </c>
       <c r="F10" t="n">
-        <v>449115.1305681706</v>
+        <v>445148.1315481919</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44166</v>
       </c>
       <c r="B11" t="n">
-        <v>393854.8659012318</v>
+        <v>401602.0790264606</v>
       </c>
       <c r="C11" t="n">
-        <v>433679.3859556913</v>
+        <v>438137.7813742161</v>
       </c>
       <c r="D11" t="n">
         <v>536098.1440418881</v>
@@ -671,7 +671,7 @@
         <v>516959.2559868487</v>
       </c>
       <c r="F11" t="n">
-        <v>510722.9457064469</v>
+        <v>513636.5785876809</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44197</v>
       </c>
       <c r="B12" t="n">
-        <v>469912.6229820251</v>
+        <v>387566.0342130661</v>
       </c>
       <c r="C12" t="n">
-        <v>461381.7903718948</v>
+        <v>438067.7566263676</v>
       </c>
       <c r="D12" t="n">
         <v>454152.7865094586</v>
@@ -691,7 +691,7 @@
         <v>476991.9684154341</v>
       </c>
       <c r="F12" t="n">
-        <v>466170.2599612679</v>
+        <v>459232.1087422511</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44228</v>
       </c>
       <c r="B13" t="n">
-        <v>425585.8695021868</v>
+        <v>421762.2909793854</v>
       </c>
       <c r="C13" t="n">
-        <v>420830.9328172207</v>
+        <v>418910.8619687557</v>
       </c>
       <c r="D13" t="n">
         <v>391665.510104325</v>
@@ -711,7 +711,7 @@
         <v>435581.2033213383</v>
       </c>
       <c r="F13" t="n">
-        <v>415718.8429370738</v>
+        <v>415122.3123036909</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44256</v>
       </c>
       <c r="B14" t="n">
-        <v>453065.1425740719</v>
+        <v>439614.9505285025</v>
       </c>
       <c r="C14" t="n">
-        <v>410714.6780154705</v>
+        <v>368080.3182343245</v>
       </c>
       <c r="D14" t="n">
         <v>489228.7464881928</v>
@@ -731,7 +731,7 @@
         <v>506604.1397559684</v>
       </c>
       <c r="F14" t="n">
-        <v>490683.1286699229</v>
+        <v>488618.5319083391</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44287</v>
       </c>
       <c r="B15" t="n">
-        <v>447373.141290307</v>
+        <v>413082.1721837521</v>
       </c>
       <c r="C15" t="n">
-        <v>462229.7765276432</v>
+        <v>408986.7158070803</v>
       </c>
       <c r="D15" t="n">
         <v>441220.2119754679</v>
@@ -751,7 +751,7 @@
         <v>467935.3596734282</v>
       </c>
       <c r="F15" t="n">
-        <v>454714.1778739695</v>
+        <v>450143.7077413009</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44317</v>
       </c>
       <c r="B16" t="n">
-        <v>418782.6847628355</v>
+        <v>433098.9736465216</v>
       </c>
       <c r="C16" t="n">
-        <v>417032.6463822126</v>
+        <v>421566.2168494463</v>
       </c>
       <c r="D16" t="n">
         <v>486570.5980690094</v>
@@ -771,7 +771,7 @@
         <v>500593.828677029</v>
       </c>
       <c r="F16" t="n">
-        <v>484097.9660333614</v>
+        <v>486490.497286553</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44348</v>
       </c>
       <c r="B17" t="n">
-        <v>417417.0087412596</v>
+        <v>403003.7104347944</v>
       </c>
       <c r="C17" t="n">
-        <v>408271.7670003176</v>
+        <v>411831.9789645672</v>
       </c>
       <c r="D17" t="n">
         <v>556610.6848777183</v>
@@ -791,7 +791,7 @@
         <v>556121.4873542852</v>
       </c>
       <c r="F17" t="n">
-        <v>538053.6764008724</v>
+        <v>539400.8705872977</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44378</v>
       </c>
       <c r="B18" t="n">
-        <v>419581.0781154633</v>
+        <v>410934.279106617</v>
       </c>
       <c r="C18" t="n">
-        <v>439949.7926238775</v>
+        <v>431067.5789240599</v>
       </c>
       <c r="D18" t="n">
         <v>552239.2044400155</v>
@@ -811,7 +811,7 @@
         <v>574653.2051678462</v>
       </c>
       <c r="F18" t="n">
-        <v>546103.5416772723</v>
+        <v>547413.5393647165</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44409</v>
       </c>
       <c r="B19" t="n">
-        <v>458510.7998899221</v>
+        <v>440115.9563211203</v>
       </c>
       <c r="C19" t="n">
-        <v>425568.7260124683</v>
+        <v>412615.7435283661</v>
       </c>
       <c r="D19" t="n">
         <v>474435.430379219</v>
@@ -831,7 +831,7 @@
         <v>502021.4353113277</v>
       </c>
       <c r="F19" t="n">
-        <v>483508.6012353486</v>
+        <v>482083.1574178577</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>44440</v>
       </c>
       <c r="B20" t="n">
-        <v>421460.8895698786</v>
+        <v>451804.2618761063</v>
       </c>
       <c r="C20" t="n">
-        <v>456889.3981317282</v>
+        <v>436438.7382260561</v>
       </c>
       <c r="D20" t="n">
         <v>374276.69072755</v>
@@ -851,7 +851,7 @@
         <v>417450.2518580036</v>
       </c>
       <c r="F20" t="n">
-        <v>401358.6077282519</v>
+        <v>402228.3922047368</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>44470</v>
       </c>
       <c r="B21" t="n">
-        <v>394054.7604421377</v>
+        <v>433988.4523669481</v>
       </c>
       <c r="C21" t="n">
-        <v>464456.9794020653</v>
+        <v>442680.3467330933</v>
       </c>
       <c r="D21" t="n">
         <v>430423.675516667</v>
@@ -871,7 +871,7 @@
         <v>445178.3759185863</v>
       </c>
       <c r="F21" t="n">
-        <v>435304.0299969942</v>
+        <v>437968.0163128844</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>44501</v>
       </c>
       <c r="B22" t="n">
-        <v>484037.5044403076</v>
+        <v>390291.7523590326</v>
       </c>
       <c r="C22" t="n">
-        <v>483312.2066721916</v>
+        <v>432006.8197063208</v>
       </c>
       <c r="D22" t="n">
         <v>453691.4458850516</v>
@@ -891,7 +891,7 @@
         <v>462857.8305804161</v>
       </c>
       <c r="F22" t="n">
-        <v>461724.8995170518</v>
+        <v>452482.3066443236</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>44531</v>
       </c>
       <c r="B23" t="n">
-        <v>442341.7084065676</v>
+        <v>396806.20591259</v>
       </c>
       <c r="C23" t="n">
-        <v>451880.1623193026</v>
+        <v>451649.051635623</v>
       </c>
       <c r="D23" t="n">
         <v>537835.8753237516</v>
@@ -911,7 +911,7 @@
         <v>530891.9215508865</v>
       </c>
       <c r="F23" t="n">
-        <v>522764.9305739696</v>
+        <v>521003.3629447669</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>44562</v>
       </c>
       <c r="B24" t="n">
-        <v>433498.617649436</v>
+        <v>441952.7760622501</v>
       </c>
       <c r="C24" t="n">
-        <v>405425.6333694458</v>
+        <v>471398.5694096088</v>
       </c>
       <c r="D24" t="n">
         <v>455242.570714366</v>
@@ -931,7 +931,7 @@
         <v>487080.3148815041</v>
       </c>
       <c r="F24" t="n">
-        <v>465689.1693651812</v>
+        <v>469597.8307734365</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>44593</v>
       </c>
       <c r="B25" t="n">
-        <v>425976.059196949</v>
+        <v>436837.9953519106</v>
       </c>
       <c r="C25" t="n">
-        <v>489118.6026666164</v>
+        <v>431446.4041051865</v>
       </c>
       <c r="D25" t="n">
         <v>392555.77298608</v>
@@ -951,7 +951,7 @@
         <v>446431.882372366</v>
       </c>
       <c r="F25" t="n">
-        <v>423844.9194362788</v>
+        <v>422085.0920280892</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>44621</v>
       </c>
       <c r="B26" t="n">
-        <v>440338.8700470924</v>
+        <v>418930.1574621201</v>
       </c>
       <c r="C26" t="n">
-        <v>494290.8588001728</v>
+        <v>444691.599668622</v>
       </c>
       <c r="D26" t="n">
         <v>490017.8009244877</v>
@@ -971,7 +971,7 @@
         <v>516426.4131505235</v>
       </c>
       <c r="F26" t="n">
-        <v>497777.6471232391</v>
+        <v>495195.2112003326</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>44652</v>
       </c>
       <c r="B27" t="n">
-        <v>402363.8157776594</v>
+        <v>411341.8540892601</v>
       </c>
       <c r="C27" t="n">
-        <v>465706.1328891516</v>
+        <v>428523.0401412249</v>
       </c>
       <c r="D27" t="n">
         <v>441819.6796264474</v>
@@ -991,7 +991,7 @@
         <v>479200.3440425262</v>
       </c>
       <c r="F27" t="n">
-        <v>456249.8325530263</v>
+        <v>456267.4048626889</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>44682</v>
       </c>
       <c r="B28" t="n">
-        <v>428149.3894407749</v>
+        <v>432784.8294738531</v>
       </c>
       <c r="C28" t="n">
-        <v>480217.7463284731</v>
+        <v>431243.7530652285</v>
       </c>
       <c r="D28" t="n">
         <v>486951.0037053521</v>
@@ -1011,7 +1011,7 @@
         <v>513381.0169881912</v>
       </c>
       <c r="F28" t="n">
-        <v>493465.9944160714</v>
+        <v>492909.6534011069</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>44713</v>
       </c>
       <c r="B29" t="n">
-        <v>424839.9463508129</v>
+        <v>423845.7932058573</v>
       </c>
       <c r="C29" t="n">
-        <v>416976.4283094406</v>
+        <v>457842.5181285143</v>
       </c>
       <c r="D29" t="n">
         <v>556816.0190279636</v>
@@ -1031,7 +1031,7 @@
         <v>568301.3849021596</v>
       </c>
       <c r="F29" t="n">
-        <v>544661.6190653476</v>
+        <v>548490.157381208</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>44743</v>
       </c>
       <c r="B30" t="n">
-        <v>438741.8415436745</v>
+        <v>456290.5608025789</v>
       </c>
       <c r="C30" t="n">
-        <v>419944.6941921711</v>
+        <v>442757.1660093069</v>
       </c>
       <c r="D30" t="n">
         <v>552343.5875991565</v>
@@ -1051,7 +1051,7 @@
         <v>584981.9038044765</v>
       </c>
       <c r="F30" t="n">
-        <v>551682.1102828748</v>
+        <v>555921.409041032</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>44774</v>
       </c>
       <c r="B31" t="n">
-        <v>465747.0209584236</v>
+        <v>433483.4327248335</v>
       </c>
       <c r="C31" t="n">
-        <v>437359.1429314613</v>
+        <v>459275.2689603567</v>
       </c>
       <c r="D31" t="n">
         <v>474499.0571965544</v>
@@ -1071,7 +1071,7 @@
         <v>513652.8417002779</v>
       </c>
       <c r="F31" t="n">
-        <v>489919.5758898265</v>
+        <v>488930.5040663884</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>44805</v>
       </c>
       <c r="B32" t="n">
-        <v>426626.665512681</v>
+        <v>417913.1302109957</v>
       </c>
       <c r="C32" t="n">
-        <v>442400.6104389429</v>
+        <v>448659.0964577198</v>
       </c>
       <c r="D32" t="n">
         <v>374329.104858525</v>
@@ -1091,7 +1091,7 @@
         <v>428205.8075940275</v>
       </c>
       <c r="F32" t="n">
-        <v>406105.532315477</v>
+        <v>405289.1156456585</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>44835</v>
       </c>
       <c r="B33" t="n">
-        <v>455165.3530535698</v>
+        <v>450340.8752170801</v>
       </c>
       <c r="C33" t="n">
-        <v>500897.1472958326</v>
+        <v>418204.8596940041</v>
       </c>
       <c r="D33" t="n">
         <v>430470.4884669329</v>
@@ -1111,7 +1111,7 @@
         <v>455418.1332149423</v>
       </c>
       <c r="F33" t="n">
-        <v>446827.1319141872</v>
+        <v>442834.5988913891</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>44866</v>
       </c>
       <c r="B34" t="n">
-        <v>426710.6661943197</v>
+        <v>462297.8185305595</v>
       </c>
       <c r="C34" t="n">
-        <v>434029.2678967714</v>
+        <v>473644.3182030916</v>
       </c>
       <c r="D34" t="n">
         <v>453728.8477948285</v>
@@ -1131,7 +1131,7 @@
         <v>474915.7304797128</v>
       </c>
       <c r="F34" t="n">
-        <v>460131.218449718</v>
+        <v>464904.4756356585</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>44896</v>
       </c>
       <c r="B35" t="n">
-        <v>450938.0441389084</v>
+        <v>478402.6158825159</v>
       </c>
       <c r="C35" t="n">
-        <v>488953.938117981</v>
+        <v>430864.5168272257</v>
       </c>
       <c r="D35" t="n">
         <v>537861.0797997668</v>
@@ -1151,7 +1151,7 @@
         <v>544766.8253263182</v>
       </c>
       <c r="F35" t="n">
-        <v>531334.665674526</v>
+        <v>532330.9307006989</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>44927</v>
       </c>
       <c r="B36" t="n">
-        <v>455301.6788575649</v>
+        <v>457471.5755674839</v>
       </c>
       <c r="C36" t="n">
-        <v>487722.7260545492</v>
+        <v>470854.9587807655</v>
       </c>
       <c r="D36" t="n">
         <v>455256.9372583676</v>
@@ -1171,7 +1171,7 @@
         <v>497111.4145195366</v>
       </c>
       <c r="F36" t="n">
-        <v>475536.0772945691</v>
+        <v>475294.839031051</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>44958</v>
       </c>
       <c r="B37" t="n">
-        <v>462229.3896505833</v>
+        <v>424480.5375621319</v>
       </c>
       <c r="C37" t="n">
-        <v>467191.6924396753</v>
+        <v>449994.136652112</v>
       </c>
       <c r="D37" t="n">
         <v>392563.1672092957</v>
@@ -1191,7 +1191,7 @@
         <v>457287.7664077113</v>
       </c>
       <c r="F37" t="n">
-        <v>431044.6205864066</v>
+        <v>426970.3326246731</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>44986</v>
       </c>
       <c r="B38" t="n">
-        <v>425587.9006067514</v>
+        <v>411574.173763752</v>
       </c>
       <c r="C38" t="n">
-        <v>454798.5210613012</v>
+        <v>421299.3200377226</v>
       </c>
       <c r="D38" t="n">
         <v>490021.9639343567</v>
@@ -1211,7 +1211,7 @@
         <v>526252.3640622047</v>
       </c>
       <c r="F38" t="n">
-        <v>499304.7119706097</v>
+        <v>498210.4138942978</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45017</v>
       </c>
       <c r="B39" t="n">
-        <v>436317.6215264797</v>
+        <v>470305.0130400658</v>
       </c>
       <c r="C39" t="n">
-        <v>454113.1199899912</v>
+        <v>474833.4815660715</v>
       </c>
       <c r="D39" t="n">
         <v>441822.8028424711</v>
@@ -1231,7 +1231,7 @@
         <v>490531.3076392346</v>
       </c>
       <c r="F39" t="n">
-        <v>463885.7366834442</v>
+        <v>467607.3311682637</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>36410.73864074977</v>
+        <v>34387.06821311173</v>
       </c>
       <c r="S2" t="n">
         <v>19305.06229460701</v>
@@ -1568,7 +1568,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>36134.69754876393</v>
+        <v>49189.66133192586</v>
       </c>
       <c r="S3" t="n">
         <v>33087.89275824317</v>
@@ -1638,19 +1638,19 @@
         <v>69</v>
       </c>
       <c r="K4" t="n">
-        <v>51207.39498386809</v>
+        <v>50223.61122046872</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08940970101773259</v>
+        <v>0.09131859891839161</v>
       </c>
       <c r="M4" t="n">
-        <v>42335.66290484158</v>
+        <v>42725.99522941907</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3165050053078755</v>
+        <v>0.3425150055844688</v>
       </c>
       <c r="O4" t="n">
-        <v>389790.2956416034</v>
+        <v>375840.0098005606</v>
       </c>
       <c r="P4" t="n">
         <v>395074</v>
@@ -1659,19 +1659,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>27728.11470647642</v>
+        <v>28792.88325245152</v>
       </c>
       <c r="S4" t="n">
-        <v>17425.69872103642</v>
+        <v>17194.59898107356</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0339978428233145</v>
+        <v>0.03276697108210582</v>
       </c>
       <c r="U4" t="n">
-        <v>12718.40402681366</v>
+        <v>12316.51618681781</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9503734414074317</v>
+        <v>0.9516810085906949</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1684,20 +1684,20 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>(0.45251188154224853, 0.4184633709575583, 0.08788730372362508, 0.04113744377656805)</t>
+          <t>(0.4594189661425925, 0.427605802419163, 0.07120987087982696, 0.0417653605584175)</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>51207.39498386809</v>
+        <v>50223.61122046872</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08940970101773259</v>
+        <v>0.09131859891839161</v>
       </c>
       <c r="AE4" t="n">
-        <v>42335.66290484158</v>
+        <v>42725.99522941907</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3165050053078755</v>
+        <v>0.3425150055844688</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1741,19 +1741,19 @@
         <v>69</v>
       </c>
       <c r="K5" t="n">
-        <v>137157.4662780334</v>
+        <v>148549.2837487512</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2345540583416474</v>
+        <v>0.257648910736401</v>
       </c>
       <c r="M5" t="n">
-        <v>109598.1685351422</v>
+        <v>117757.1096089462</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.903530489151577</v>
+        <v>-4.751896950689375</v>
       </c>
       <c r="O5" t="n">
-        <v>400484.2100121975</v>
+        <v>316945.7302322388</v>
       </c>
       <c r="P5" t="n">
         <v>395074</v>
@@ -1762,19 +1762,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>117881.7402079388</v>
+        <v>129561.9536448199</v>
       </c>
       <c r="S5" t="n">
-        <v>56942.98207965606</v>
+        <v>60756.10972879147</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1281636679896074</v>
+        <v>0.1392642305858983</v>
       </c>
       <c r="U5" t="n">
-        <v>45768.92731859338</v>
+        <v>48697.7417083429</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4700752887089311</v>
+        <v>0.3967272993621439</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1785,16 +1785,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>137157.4662780334</v>
+        <v>148549.2837487512</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2345540583416474</v>
+        <v>0.257648910736401</v>
       </c>
       <c r="AE5" t="n">
-        <v>109598.1685351422</v>
+        <v>117757.1096089462</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.903530489151577</v>
+        <v>-4.751896950689375</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1838,19 +1838,19 @@
         <v>69</v>
       </c>
       <c r="K6" t="n">
-        <v>154511.6913194076</v>
+        <v>161527.1735159834</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2557817294157424</v>
+        <v>0.2719581857291314</v>
       </c>
       <c r="M6" t="n">
-        <v>118844.7809119643</v>
+        <v>124044.4356303086</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.222897754548985</v>
+        <v>-5.80081811149326</v>
       </c>
       <c r="O6" t="n">
-        <v>440775.6310317516</v>
+        <v>255354.6280069351</v>
       </c>
       <c r="P6" t="n">
         <v>395074</v>
@@ -1859,19 +1859,19 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>127949.5205976663</v>
+        <v>107535.8120308989</v>
       </c>
       <c r="S6" t="n">
-        <v>59491.14632687197</v>
+        <v>59302.06990042296</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1384537060582073</v>
+        <v>0.122013438048506</v>
       </c>
       <c r="U6" t="n">
-        <v>48600.63823956715</v>
+        <v>46403.54465668344</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4215864847418891</v>
+        <v>0.4252573021586205</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1882,16 +1882,16 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>154511.6913194076</v>
+        <v>161527.1735159834</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2557817294157424</v>
+        <v>0.2719581857291314</v>
       </c>
       <c r="AE6" t="n">
-        <v>118844.7809119643</v>
+        <v>124044.4356303086</v>
       </c>
       <c r="AF6" t="n">
-        <v>-5.222897754548985</v>
+        <v>-5.80081811149326</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -5487,13 +5487,13 @@
         <v>454458.7607974557</v>
       </c>
       <c r="E2" t="n">
-        <v>430381.3529754714</v>
+        <v>444518.4893767425</v>
       </c>
       <c r="F2" t="n">
-        <v>287873.9605491161</v>
+        <v>448531.0679786205</v>
       </c>
       <c r="G2" t="n">
-        <v>346587.863915205</v>
+        <v>348086.6801335812</v>
       </c>
     </row>
     <row r="3">
@@ -5510,13 +5510,13 @@
         <v>470928.2104958872</v>
       </c>
       <c r="E3" t="n">
-        <v>447909.5872926688</v>
+        <v>459808.087465706</v>
       </c>
       <c r="F3" t="n">
-        <v>354156.3325517178</v>
+        <v>496052.9833226204</v>
       </c>
       <c r="G3" t="n">
-        <v>263798.3639092445</v>
+        <v>264787.3809388876</v>
       </c>
     </row>
     <row r="4">
@@ -5533,13 +5533,13 @@
         <v>391747.9074246186</v>
       </c>
       <c r="E4" t="n">
-        <v>388993.2355161059</v>
+        <v>396227.1981621202</v>
       </c>
       <c r="F4" t="n">
-        <v>288593.3227294683</v>
+        <v>349186.359344244</v>
       </c>
       <c r="G4" t="n">
-        <v>394316.1297369003</v>
+        <v>420712.4464352131</v>
       </c>
     </row>
     <row r="5">
@@ -5556,13 +5556,13 @@
         <v>315533.1317671346</v>
       </c>
       <c r="E5" t="n">
-        <v>311101.9523399483</v>
+        <v>320823.3795817837</v>
       </c>
       <c r="F5" t="n">
-        <v>269852.328551054</v>
+        <v>356520.7606468201</v>
       </c>
       <c r="G5" t="n">
-        <v>239087.287397027</v>
+        <v>305991.9411939383</v>
       </c>
     </row>
     <row r="6">
@@ -5579,13 +5579,13 @@
         <v>339359.0250663427</v>
       </c>
       <c r="E6" t="n">
-        <v>341102.3945717608</v>
+        <v>320964.7195152442</v>
       </c>
       <c r="F6" t="n">
-        <v>375079.846224308</v>
+        <v>123894.8370894194</v>
       </c>
       <c r="G6" t="n">
-        <v>276354.7958312035</v>
+        <v>237236.6741330624</v>
       </c>
     </row>
     <row r="7">
@@ -5602,13 +5602,13 @@
         <v>359159.0015294025</v>
       </c>
       <c r="E7" t="n">
-        <v>374929.2986776468</v>
+        <v>355012.5238772767</v>
       </c>
       <c r="F7" t="n">
-        <v>506802.6617193222</v>
+        <v>261177.1667151451</v>
       </c>
       <c r="G7" t="n">
-        <v>389671.9589831829</v>
+        <v>389524.7187616825</v>
       </c>
     </row>
     <row r="8">
@@ -5625,13 +5625,13 @@
         <v>429829.235957252</v>
       </c>
       <c r="E8" t="n">
-        <v>417232.0732088959</v>
+        <v>417137.0502888699</v>
       </c>
       <c r="F8" t="n">
-        <v>355943.6146731377</v>
+        <v>335559.9818127155</v>
       </c>
       <c r="G8" t="n">
-        <v>371567.265652895</v>
+        <v>376773.3586337566</v>
       </c>
     </row>
     <row r="9">
@@ -5648,13 +5648,13 @@
         <v>388580.620469865</v>
       </c>
       <c r="E9" t="n">
-        <v>362784.6317742328</v>
+        <v>385799.4245083857</v>
       </c>
       <c r="F9" t="n">
-        <v>159636.7990700081</v>
+        <v>326312.3856902122</v>
       </c>
       <c r="G9" t="n">
-        <v>288628.6514589787</v>
+        <v>466150.6181645393</v>
       </c>
     </row>
     <row r="10">
@@ -5671,13 +5671,13 @@
         <v>343768.2757448051</v>
       </c>
       <c r="E10" t="n">
-        <v>349369.8677156816</v>
+        <v>365841.5795268698</v>
       </c>
       <c r="F10" t="n">
-        <v>359824.3493402004</v>
+        <v>470376.2518959045</v>
       </c>
       <c r="G10" t="n">
-        <v>322998.3384792805</v>
+        <v>533774.3575086594</v>
       </c>
     </row>
     <row r="11">
@@ -5694,13 +5694,13 @@
         <v>423162.8896538133</v>
       </c>
       <c r="E11" t="n">
-        <v>409296.9109168236</v>
+        <v>413390.6179620508</v>
       </c>
       <c r="F11" t="n">
-        <v>358605.3252372742</v>
+        <v>360085.0091505051</v>
       </c>
       <c r="G11" t="n">
-        <v>298319.699434042</v>
+        <v>371028.9732503891</v>
       </c>
     </row>
     <row r="12">
@@ -5717,13 +5717,13 @@
         <v>391278.9725957551</v>
       </c>
       <c r="E12" t="n">
-        <v>381717.0452642614</v>
+        <v>386939.7158657961</v>
       </c>
       <c r="F12" t="n">
-        <v>350191.3050887585</v>
+        <v>341273.7590773106</v>
       </c>
       <c r="G12" t="n">
-        <v>335138.1251926422</v>
+        <v>461158.4429163933</v>
       </c>
     </row>
     <row r="13">
@@ -5740,13 +5740,13 @@
         <v>436430.0005445514</v>
       </c>
       <c r="E13" t="n">
-        <v>415268.7276870538</v>
+        <v>415661.1817048168</v>
       </c>
       <c r="F13" t="n">
-        <v>352665.494076252</v>
+        <v>413509.8474400043</v>
       </c>
       <c r="G13" t="n">
-        <v>356121.6414864063</v>
+        <v>233373.7823037505</v>
       </c>
     </row>
     <row r="14">
@@ -5763,13 +5763,13 @@
         <v>459656.7169888857</v>
       </c>
       <c r="E14" t="n">
-        <v>439049.3849726142</v>
+        <v>437068.4516323706</v>
       </c>
       <c r="F14" t="n">
-        <v>300374.4947288036</v>
+        <v>344046.5690813065</v>
       </c>
       <c r="G14" t="n">
-        <v>383308.05813694</v>
+        <v>200228.9688388109</v>
       </c>
     </row>
     <row r="15">
@@ -5786,13 +5786,13 @@
         <v>476926.5186659442</v>
       </c>
       <c r="E15" t="n">
-        <v>467359.493869859</v>
+        <v>452952.9268188785</v>
       </c>
       <c r="F15" t="n">
-        <v>444407.7349684238</v>
+        <v>387262.0202741623</v>
       </c>
       <c r="G15" t="n">
-        <v>399130.7957434654</v>
+        <v>141090.3555156291</v>
       </c>
     </row>
     <row r="16">
@@ -5809,13 +5809,13 @@
         <v>398792.099704044</v>
       </c>
       <c r="E16" t="n">
-        <v>388948.5612048521</v>
+        <v>405799.9262488952</v>
       </c>
       <c r="F16" t="n">
-        <v>253636.8343464136</v>
+        <v>410915.8852250576</v>
       </c>
       <c r="G16" t="n">
-        <v>307809.8225104809</v>
+        <v>384099.1575379372</v>
       </c>
     </row>
     <row r="17">
@@ -5832,13 +5832,13 @@
         <v>322541.2678179986</v>
       </c>
       <c r="E17" t="n">
-        <v>337153.117954831</v>
+        <v>341760.4789808884</v>
       </c>
       <c r="F17" t="n">
-        <v>393375.0416302681</v>
+        <v>376361.2466392517</v>
       </c>
       <c r="G17" t="n">
-        <v>381029.3327744007</v>
+        <v>545573.0287852287</v>
       </c>
     </row>
     <row r="18">
@@ -5855,13 +5855,13 @@
         <v>345449.8097636063</v>
       </c>
       <c r="E18" t="n">
-        <v>352744.5588381253</v>
+        <v>333190.1755580374</v>
       </c>
       <c r="F18" t="n">
-        <v>412178.153334856</v>
+        <v>121476.8983283639</v>
       </c>
       <c r="G18" t="n">
-        <v>319048.6239993572</v>
+        <v>372620.363411665</v>
       </c>
     </row>
     <row r="19">
@@ -5878,13 +5878,13 @@
         <v>365218.4600322582</v>
       </c>
       <c r="E19" t="n">
-        <v>369453.0873992816</v>
+        <v>361266.8913158924</v>
       </c>
       <c r="F19" t="n">
-        <v>369676.023011446</v>
+        <v>224083.6560663581</v>
       </c>
       <c r="G19" t="n">
-        <v>374445.1784040928</v>
+        <v>427051.0041160583</v>
       </c>
     </row>
     <row r="20">
@@ -5901,13 +5901,13 @@
         <v>434633.210398759</v>
       </c>
       <c r="E20" t="n">
-        <v>421168.5333637781</v>
+        <v>431223.986296689</v>
       </c>
       <c r="F20" t="n">
-        <v>337310.9982213974</v>
+        <v>362614.2927517891</v>
       </c>
       <c r="G20" t="n">
-        <v>343166.3045716286</v>
+        <v>503717.7559876442</v>
       </c>
     </row>
     <row r="21">
@@ -5924,13 +5924,13 @@
         <v>392924.92946448</v>
       </c>
       <c r="E21" t="n">
-        <v>394512.1737796864</v>
+        <v>389686.0006455909</v>
       </c>
       <c r="F21" t="n">
-        <v>401285.642999649</v>
+        <v>342515.6991128922</v>
       </c>
       <c r="G21" t="n">
-        <v>422007.8212857246</v>
+        <v>409683.0294649601</v>
       </c>
     </row>
     <row r="22">
@@ -5947,13 +5947,13 @@
         <v>347726.8710747825</v>
       </c>
       <c r="E22" t="n">
-        <v>363553.6231396084</v>
+        <v>347148.5485858219</v>
       </c>
       <c r="F22" t="n">
-        <v>332481.1441628933</v>
+        <v>363692.8586070538</v>
       </c>
       <c r="G22" t="n">
-        <v>571542.7771763802</v>
+        <v>113173.790223062</v>
       </c>
     </row>
     <row r="23">
@@ -5970,13 +5970,13 @@
         <v>426925.7682162392</v>
       </c>
       <c r="E23" t="n">
-        <v>411689.1456525816</v>
+        <v>420995.6665999074</v>
       </c>
       <c r="F23" t="n">
-        <v>296807.8725342751</v>
+        <v>431105.8213431835</v>
       </c>
       <c r="G23" t="n">
-        <v>326572.1888301373</v>
+        <v>269854.5059216022</v>
       </c>
     </row>
     <row r="24">
@@ -5993,13 +5993,13 @@
         <v>393721.225827291</v>
       </c>
       <c r="E24" t="n">
-        <v>376839.0813474865</v>
+        <v>394558.1057109395</v>
       </c>
       <c r="F24" t="n">
-        <v>248134.4494216442</v>
+        <v>409164.7260379791</v>
       </c>
       <c r="G24" t="n">
-        <v>304962.4554125071</v>
+        <v>398016.7851512432</v>
       </c>
     </row>
     <row r="25">
@@ -6016,13 +6016,13 @@
         <v>436264.1015193505</v>
       </c>
       <c r="E25" t="n">
-        <v>414790.909689861</v>
+        <v>413144.8327110271</v>
       </c>
       <c r="F25" t="n">
-        <v>326887.5684609413</v>
+        <v>276820.2444804907</v>
       </c>
       <c r="G25" t="n">
-        <v>389888.5538108349</v>
+        <v>396499.9253129959</v>
       </c>
     </row>
     <row r="26">
@@ -6039,13 +6039,13 @@
         <v>464576.5525253778</v>
       </c>
       <c r="E26" t="n">
-        <v>444882.4542811886</v>
+        <v>452004.012988183</v>
       </c>
       <c r="F26" t="n">
-        <v>347027.7641551495</v>
+        <v>313648.173926115</v>
       </c>
       <c r="G26" t="n">
-        <v>227554.7327426076</v>
+        <v>411463.5831544399</v>
       </c>
     </row>
     <row r="27">
@@ -6062,13 +6062,13 @@
         <v>482592.2754314698</v>
       </c>
       <c r="E27" t="n">
-        <v>459283.3642916166</v>
+        <v>473484.2227122374</v>
       </c>
       <c r="F27" t="n">
-        <v>362624.4478652477</v>
+        <v>328736.2631402016</v>
       </c>
       <c r="G27" t="n">
-        <v>137474.0531318188</v>
+        <v>492029.2025494576</v>
       </c>
     </row>
     <row r="28">
@@ -6085,13 +6085,13 @@
         <v>404670.0026317368</v>
       </c>
       <c r="E28" t="n">
-        <v>403959.824037743</v>
+        <v>410377.3159184807</v>
       </c>
       <c r="F28" t="n">
-        <v>375777.0331349373</v>
+        <v>363966.368473053</v>
       </c>
       <c r="G28" t="n">
-        <v>180232.5152953863</v>
+        <v>341819.7079713345</v>
       </c>
     </row>
     <row r="29">
@@ -6108,13 +6108,13 @@
         <v>328419.3763697555</v>
       </c>
       <c r="E29" t="n">
-        <v>333988.57143062</v>
+        <v>341726.5089402337</v>
       </c>
       <c r="F29" t="n">
-        <v>370586.9670290947</v>
+        <v>417114.6093137264</v>
       </c>
       <c r="G29" t="n">
-        <v>325204.0326919556</v>
+        <v>447303.2451570034</v>
       </c>
     </row>
     <row r="30">
@@ -6131,13 +6131,13 @@
         <v>351286.263228898</v>
       </c>
       <c r="E30" t="n">
-        <v>354965.9291634249</v>
+        <v>349238.7196810785</v>
       </c>
       <c r="F30" t="n">
-        <v>352814.1263871193</v>
+        <v>268879.7042660713</v>
       </c>
       <c r="G30" t="n">
-        <v>304825.8432579041</v>
+        <v>310120.0483567715</v>
       </c>
     </row>
     <row r="31">
@@ -6154,13 +6154,13 @@
         <v>370993.3106960059</v>
       </c>
       <c r="E31" t="n">
-        <v>374454.6587779598</v>
+        <v>356255.9435457967</v>
       </c>
       <c r="F31" t="n">
-        <v>414025.7771761417</v>
+        <v>83246.55931484699</v>
       </c>
       <c r="G31" t="n">
-        <v>248804.731528163</v>
+        <v>394346.2916731834</v>
       </c>
     </row>
     <row r="32">
@@ -6177,13 +6177,13 @@
         <v>440350.2938692857</v>
       </c>
       <c r="E32" t="n">
-        <v>428549.4164162637</v>
+        <v>432045.4652834448</v>
       </c>
       <c r="F32" t="n">
-        <v>305777.5326604843</v>
+        <v>358870.2862467766</v>
       </c>
       <c r="G32" t="n">
-        <v>445164.3890812397</v>
+        <v>384602.0052034855</v>
       </c>
     </row>
     <row r="33">
@@ -6200,13 +6200,13 @@
         <v>398577.1297680287</v>
       </c>
       <c r="E33" t="n">
-        <v>398557.334585999</v>
+        <v>396028.7799233331</v>
       </c>
       <c r="F33" t="n">
-        <v>339867.9094424248</v>
+        <v>260221.5062884092</v>
       </c>
       <c r="G33" t="n">
-        <v>392471.7541041374</v>
+        <v>442405.0002465248</v>
       </c>
     </row>
     <row r="34">
@@ -6223,13 +6223,13 @@
         <v>353321.3950973975</v>
       </c>
       <c r="E34" t="n">
-        <v>361524.9562443829</v>
+        <v>363946.5081379754</v>
       </c>
       <c r="F34" t="n">
-        <v>357566.3625397682</v>
+        <v>358023.3961873055</v>
       </c>
       <c r="G34" t="n">
-        <v>319028.8313441277</v>
+        <v>375062.7842059135</v>
       </c>
     </row>
     <row r="35">
@@ -6246,13 +6246,13 @@
         <v>432456.4075820218</v>
       </c>
       <c r="E35" t="n">
-        <v>410941.9040001199</v>
+        <v>423754.7945927389</v>
       </c>
       <c r="F35" t="n">
-        <v>267461.3347505331</v>
+        <v>375822.5972907543</v>
       </c>
       <c r="G35" t="n">
-        <v>211369.8689658642</v>
+        <v>270075.4197957516</v>
       </c>
     </row>
     <row r="36">
@@ -6269,13 +6269,13 @@
         <v>399195.4123056469</v>
       </c>
       <c r="E36" t="n">
-        <v>404307.4792901786</v>
+        <v>390223.0088218975</v>
       </c>
       <c r="F36" t="n">
-        <v>375118.931810379</v>
+        <v>316113.171554327</v>
       </c>
       <c r="G36" t="n">
-        <v>536515.916891098</v>
+        <v>287636.4576100111</v>
       </c>
     </row>
     <row r="37">
@@ -6292,13 +6292,13 @@
         <v>441675.684539863</v>
       </c>
       <c r="E37" t="n">
-        <v>426470.076378099</v>
+        <v>414928.9479299776</v>
       </c>
       <c r="F37" t="n">
-        <v>371986.9092078209</v>
+        <v>352259.949887991</v>
       </c>
       <c r="G37" t="n">
-        <v>381149.7128100395</v>
+        <v>113942.7500489354</v>
       </c>
     </row>
     <row r="38">
@@ -6315,13 +6315,13 @@
         <v>469932.9613488857</v>
       </c>
       <c r="E38" t="n">
-        <v>455733.452478204</v>
+        <v>468295.5862866231</v>
       </c>
       <c r="F38" t="n">
-        <v>313612.3900904655</v>
+        <v>393561.5280635357</v>
       </c>
       <c r="G38" t="n">
-        <v>411791.0275597572</v>
+        <v>514004.332654953</v>
       </c>
     </row>
     <row r="39">
@@ -6338,13 +6338,13 @@
         <v>487887.3564119709</v>
       </c>
       <c r="E39" t="n">
-        <v>458844.0263158311</v>
+        <v>469849.6920619858</v>
       </c>
       <c r="F39" t="n">
-        <v>292086.4140497446</v>
+        <v>351562.1740164757</v>
       </c>
       <c r="G39" t="n">
-        <v>139474.0482932329</v>
+        <v>227719.2848446965</v>
       </c>
     </row>
     <row r="40">
@@ -6361,13 +6361,13 @@
         <v>409911.1664097595</v>
       </c>
       <c r="E40" t="n">
-        <v>417788.0204462206</v>
+        <v>418124.238379201</v>
       </c>
       <c r="F40" t="n">
-        <v>336511.4392004013</v>
+        <v>317875.1997468472</v>
       </c>
       <c r="G40" t="n">
-        <v>460488.2054281235</v>
+        <v>465767.3652534485</v>
       </c>
     </row>
     <row r="41">
@@ -6384,13 +6384,13 @@
         <v>333600.4621093526</v>
       </c>
       <c r="E41" t="n">
-        <v>346439.2295588254</v>
+        <v>343648.5481696443</v>
       </c>
       <c r="F41" t="n">
-        <v>390182.4988348484</v>
+        <v>323477.7347931862</v>
       </c>
       <c r="G41" t="n">
-        <v>378581.0402185917</v>
+        <v>445213.6476280689</v>
       </c>
     </row>
     <row r="42">
@@ -6407,13 +6407,13 @@
         <v>356414.6620689318</v>
       </c>
       <c r="E42" t="n">
-        <v>371218.5027342078</v>
+        <v>366877.3857393587</v>
       </c>
       <c r="F42" t="n">
-        <v>362372.0513546467</v>
+        <v>359416.8062543869</v>
       </c>
       <c r="G42" t="n">
-        <v>527472.2261662483</v>
+        <v>425730.1968636513</v>
       </c>
     </row>
     <row r="43">
@@ -6430,13 +6430,13 @@
         <v>376062.854580853</v>
       </c>
       <c r="E43" t="n">
-        <v>388505.6099883876</v>
+        <v>379684.6924844512</v>
       </c>
       <c r="F43" t="n">
-        <v>440754.6426074505</v>
+        <v>354569.7652463913</v>
       </c>
       <c r="G43" t="n">
-        <v>368214.097161293</v>
+        <v>327320.1334607601</v>
       </c>
     </row>
     <row r="44">
@@ -6453,13 +6453,13 @@
         <v>445368.3546466689</v>
       </c>
       <c r="E44" t="n">
-        <v>442477.9018782696</v>
+        <v>437635.9718536313</v>
       </c>
       <c r="F44" t="n">
-        <v>376562.5641784668</v>
+        <v>382685.5800223351</v>
       </c>
       <c r="G44" t="n">
-        <v>464866.1480140686</v>
+        <v>309866.0098946095</v>
       </c>
     </row>
     <row r="45">
@@ -6476,13 +6476,13 @@
         <v>403537.5324214606</v>
       </c>
       <c r="E45" t="n">
-        <v>413964.9612221988</v>
+        <v>410722.8856847328</v>
       </c>
       <c r="F45" t="n">
-        <v>425397.5053522587</v>
+        <v>422834.5617439747</v>
       </c>
       <c r="G45" t="n">
-        <v>456226.0025799274</v>
+        <v>388590.0913774967</v>
       </c>
     </row>
     <row r="46">
@@ -6499,13 +6499,13 @@
         <v>358231.4924668933</v>
       </c>
       <c r="E46" t="n">
-        <v>369817.9330438575</v>
+        <v>388162.784728774</v>
       </c>
       <c r="F46" t="n">
-        <v>412734.4001207352</v>
+        <v>480795.9337234497</v>
       </c>
       <c r="G46" t="n">
-        <v>239603.7614758015</v>
+        <v>582074.8612966537</v>
       </c>
     </row>
     <row r="47">
@@ -6522,13 +6522,13 @@
         <v>437310.0179641169</v>
       </c>
       <c r="E47" t="n">
-        <v>428014.9389418716</v>
+        <v>416240.4524339772</v>
       </c>
       <c r="F47" t="n">
-        <v>280621.0232454538</v>
+        <v>175984.6929088235</v>
       </c>
       <c r="G47" t="n">
-        <v>445423.8531224728</v>
+        <v>277705.0422042608</v>
       </c>
     </row>
     <row r="48">
@@ -6545,13 +6545,13 @@
         <v>403999.8698156667</v>
       </c>
       <c r="E48" t="n">
-        <v>405840.4859557127</v>
+        <v>384222.9360842012</v>
       </c>
       <c r="F48" t="n">
-        <v>431957.5301735401</v>
+        <v>90140.0296959281</v>
       </c>
       <c r="G48" t="n">
-        <v>293705.4050598145</v>
+        <v>370297.6444556713</v>
       </c>
     </row>
     <row r="49">
@@ -6568,13 +6568,13 @@
         <v>446424.8010567412</v>
       </c>
       <c r="E49" t="n">
-        <v>438651.3507057238</v>
+        <v>433948.4619534588</v>
       </c>
       <c r="F49" t="n">
-        <v>351181.0270867348</v>
+        <v>372063.2956500053</v>
       </c>
       <c r="G49" t="n">
-        <v>532482.2844085693</v>
+        <v>346025.1207122803</v>
       </c>
     </row>
     <row r="50">
@@ -6591,13 +6591,13 @@
         <v>474634.0525406993</v>
       </c>
       <c r="E50" t="n">
-        <v>463640.6376853366</v>
+        <v>470263.0826584179</v>
       </c>
       <c r="F50" t="n">
-        <v>326041.0888893604</v>
+        <v>366298.118162632</v>
       </c>
       <c r="G50" t="n">
-        <v>434211.3764004707</v>
+        <v>464046.2073769569</v>
       </c>
     </row>
     <row r="51">
@@ -6614,13 +6614,13 @@
         <v>492534.2280036251</v>
       </c>
       <c r="E51" t="n">
-        <v>452197.5119322425</v>
+        <v>466672.7108092444</v>
       </c>
       <c r="F51" t="n">
-        <v>201433.9961970448</v>
+        <v>285098.1700460911</v>
       </c>
       <c r="G51" t="n">
-        <v>40432.54743134975</v>
+        <v>133520.7580374181</v>
       </c>
     </row>
     <row r="52">
@@ -6637,13 +6637,13 @@
         <v>414511.1158936948</v>
       </c>
       <c r="E52" t="n">
-        <v>419907.0583433714</v>
+        <v>430884.7995805147</v>
       </c>
       <c r="F52" t="n">
-        <v>328254.1897313595</v>
+        <v>523629.1671485901</v>
       </c>
       <c r="G52" t="n">
-        <v>395407.991830349</v>
+        <v>285951.1014164686</v>
       </c>
     </row>
     <row r="53">
@@ -6660,13 +6660,13 @@
         <v>338147.289314241</v>
       </c>
       <c r="E53" t="n">
-        <v>361890.4345557237</v>
+        <v>355237.531677559</v>
       </c>
       <c r="F53" t="n">
-        <v>479058.5348043442</v>
+        <v>391325.8146929741</v>
       </c>
       <c r="G53" t="n">
-        <v>362601.6568636894</v>
+        <v>405009.7854602337</v>
       </c>
     </row>
     <row r="54">
@@ -6683,13 +6683,13 @@
         <v>360915.6465774589</v>
       </c>
       <c r="E54" t="n">
-        <v>382793.5420402205</v>
+        <v>376194.0750851725</v>
       </c>
       <c r="F54" t="n">
-        <v>490208.3853521347</v>
+        <v>366652.7796998024</v>
       </c>
       <c r="G54" t="n">
-        <v>390472.3211326599</v>
+        <v>490906.9286575317</v>
       </c>
     </row>
     <row r="55">
@@ -6706,13 +6706,13 @@
         <v>380511.7905775924</v>
       </c>
       <c r="E55" t="n">
-        <v>393908.0039824197</v>
+        <v>399779.8728001587</v>
       </c>
       <c r="F55" t="n">
-        <v>456794.9923377037</v>
+        <v>467411.8868255615</v>
       </c>
       <c r="G55" t="n">
-        <v>306553.8544974327</v>
+        <v>457059.0788295269</v>
       </c>
     </row>
     <row r="56">
@@ -6729,13 +6729,13 @@
         <v>449772.5040648234</v>
       </c>
       <c r="E56" t="n">
-        <v>445169.7749717872</v>
+        <v>438363.1223468733</v>
       </c>
       <c r="F56" t="n">
-        <v>357815.6536202431</v>
+        <v>252979.3219827414</v>
       </c>
       <c r="G56" t="n">
-        <v>409731.8953711987</v>
+        <v>387513.0068480968</v>
       </c>
     </row>
     <row r="57">
@@ -6752,13 +6752,13 @@
         <v>407890.6840481011</v>
       </c>
       <c r="E57" t="n">
-        <v>391884.4728206618</v>
+        <v>405741.9346442981</v>
       </c>
       <c r="F57" t="n">
-        <v>148704.8746468723</v>
+        <v>342474.1149048805</v>
       </c>
       <c r="G57" t="n">
-        <v>388839.3824579716</v>
+        <v>284284.895375371</v>
       </c>
     </row>
     <row r="58">
@@ -6775,13 +6775,13 @@
         <v>362540.8908405227</v>
       </c>
       <c r="E58" t="n">
-        <v>380724.7851629891</v>
+        <v>363586.9940110723</v>
       </c>
       <c r="F58" t="n">
-        <v>356610.4433271885</v>
+        <v>318473.7981746197</v>
       </c>
       <c r="G58" t="n">
-        <v>467005.2539520264</v>
+        <v>112488.9179491401</v>
       </c>
     </row>
     <row r="59">
@@ -6798,13 +6798,13 @@
         <v>441569.4467154796</v>
       </c>
       <c r="E59" t="n">
-        <v>437422.021301162</v>
+        <v>441236.0514414686</v>
       </c>
       <c r="F59" t="n">
-        <v>331576.5894784927</v>
+        <v>286651.5990011692</v>
       </c>
       <c r="G59" t="n">
-        <v>418416.4270393848</v>
+        <v>540395.1345376968</v>
       </c>
     </row>
     <row r="60">
@@ -6821,13 +6821,13 @@
         <v>408216.556337978</v>
       </c>
       <c r="E60" t="n">
-        <v>410412.9617206081</v>
+        <v>414897.3045312452</v>
       </c>
       <c r="F60" t="n">
-        <v>407391.6860616207</v>
+        <v>383608.5352725983</v>
       </c>
       <c r="G60" t="n">
-        <v>304103.6255096197</v>
+        <v>450865.1735117435</v>
       </c>
     </row>
     <row r="61">
@@ -6844,13 +6844,13 @@
         <v>450592.524060292</v>
       </c>
       <c r="E61" t="n">
-        <v>441459.9149128984</v>
+        <v>440079.0777047359</v>
       </c>
       <c r="F61" t="n">
-        <v>367781.246604681</v>
+        <v>405945.0553472042</v>
       </c>
       <c r="G61" t="n">
-        <v>382340.0027606487</v>
+        <v>251819.1850447655</v>
       </c>
     </row>
     <row r="62">
@@ -6867,13 +6867,13 @@
         <v>478760.0225175738</v>
       </c>
       <c r="E62" t="n">
-        <v>479883.0519637458</v>
+        <v>465736.4612866901</v>
       </c>
       <c r="F62" t="n">
-        <v>492640.0799193382</v>
+        <v>375537.5580692291</v>
       </c>
       <c r="G62" t="n">
-        <v>336739.2599794865</v>
+        <v>203260.8680907488</v>
       </c>
     </row>
     <row r="63">
@@ -6890,13 +6890,13 @@
         <v>496612.218974345</v>
       </c>
       <c r="E63" t="n">
-        <v>487181.3758589794</v>
+        <v>476019.8594119681</v>
       </c>
       <c r="F63" t="n">
-        <v>373981.5947976112</v>
+        <v>174698.3309445977</v>
       </c>
       <c r="G63" t="n">
-        <v>397090.0819680691</v>
+        <v>420164.1595449448</v>
       </c>
     </row>
     <row r="64">
@@ -6913,13 +6913,13 @@
         <v>418548.3216882279</v>
       </c>
       <c r="E64" t="n">
-        <v>406328.0211321546</v>
+        <v>435009.5386954746</v>
       </c>
       <c r="F64" t="n">
-        <v>188766.1301983595</v>
+        <v>410609.197229147</v>
       </c>
       <c r="G64" t="n">
-        <v>233810.6975828409</v>
+        <v>447629.0476107597</v>
       </c>
     </row>
     <row r="65">
@@ -6936,13 +6936,13 @@
         <v>342137.4794889466</v>
       </c>
       <c r="E65" t="n">
-        <v>365778.3625953196</v>
+        <v>350151.8046266999</v>
       </c>
       <c r="F65" t="n">
-        <v>470906.8878068924</v>
+        <v>275129.2039220333</v>
       </c>
       <c r="G65" t="n">
-        <v>277795.6975624561</v>
+        <v>284360.5054600239</v>
       </c>
     </row>
     <row r="66">
@@ -6959,13 +6959,13 @@
         <v>364865.9985341708</v>
       </c>
       <c r="E66" t="n">
-        <v>383175.153703287</v>
+        <v>384418.9709790785</v>
       </c>
       <c r="F66" t="n">
-        <v>418332.5804259777</v>
+        <v>399158.5304470062</v>
       </c>
       <c r="G66" t="n">
-        <v>414024.9740476608</v>
+        <v>492873.5939869881</v>
       </c>
     </row>
     <row r="67">
@@ -6982,13 +6982,13 @@
         <v>384416.0696291471</v>
       </c>
       <c r="E67" t="n">
-        <v>391956.6216494079</v>
+        <v>387135.2831092108</v>
       </c>
       <c r="F67" t="n">
-        <v>421695.493543148</v>
+        <v>161725.9604555592</v>
       </c>
       <c r="G67" t="n">
-        <v>180960.5267232955</v>
+        <v>522097.1906476021</v>
       </c>
     </row>
     <row r="68">
@@ -7005,13 +7005,13 @@
         <v>453637.8714139797</v>
       </c>
       <c r="E68" t="n">
-        <v>452743.9335460525</v>
+        <v>448998.2180252118</v>
       </c>
       <c r="F68" t="n">
-        <v>385230.4264688492</v>
+        <v>383511.6065886021</v>
       </c>
       <c r="G68" t="n">
-        <v>380929.6020643711</v>
+        <v>264988.9572639465</v>
       </c>
     </row>
     <row r="69">
@@ -7028,13 +7028,13 @@
         <v>411710.9009799515</v>
       </c>
       <c r="E69" t="n">
-        <v>408982.6389937825</v>
+        <v>419852.2356359307</v>
       </c>
       <c r="F69" t="n">
-        <v>300896.9655002356</v>
+        <v>485578.5816745758</v>
       </c>
       <c r="G69" t="n">
-        <v>363046.054623127</v>
+        <v>261606.4299645424</v>
       </c>
     </row>
     <row r="70">
@@ -7051,13 +7051,13 @@
         <v>366323.1025829923</v>
       </c>
       <c r="E70" t="n">
-        <v>389790.2956416034</v>
+        <v>375840.0098005606</v>
       </c>
       <c r="F70" t="n">
-        <v>400484.2100121975</v>
+        <v>316945.7302322388</v>
       </c>
       <c r="G70" t="n">
-        <v>440775.6310317516</v>
+        <v>255354.6280069351</v>
       </c>
     </row>
   </sheetData>
@@ -7130,13 +7130,13 @@
         <v>454458.7607974557</v>
       </c>
       <c r="E2" t="n">
-        <v>430381.3529754714</v>
+        <v>444518.4893767425</v>
       </c>
       <c r="F2" t="n">
-        <v>287873.9605491161</v>
+        <v>448531.0679786205</v>
       </c>
       <c r="G2" t="n">
-        <v>346587.863915205</v>
+        <v>348086.6801335812</v>
       </c>
     </row>
     <row r="3">
@@ -7153,13 +7153,13 @@
         <v>470928.2104958872</v>
       </c>
       <c r="E3" t="n">
-        <v>447909.5872926688</v>
+        <v>459808.087465706</v>
       </c>
       <c r="F3" t="n">
-        <v>354156.3325517178</v>
+        <v>496052.9833226204</v>
       </c>
       <c r="G3" t="n">
-        <v>263798.3639092445</v>
+        <v>264787.3809388876</v>
       </c>
     </row>
     <row r="4">
@@ -7176,13 +7176,13 @@
         <v>391747.9074246186</v>
       </c>
       <c r="E4" t="n">
-        <v>388993.2355161059</v>
+        <v>396227.1981621202</v>
       </c>
       <c r="F4" t="n">
-        <v>288593.3227294683</v>
+        <v>349186.359344244</v>
       </c>
       <c r="G4" t="n">
-        <v>394316.1297369003</v>
+        <v>420712.4464352131</v>
       </c>
     </row>
     <row r="5">
@@ -7199,13 +7199,13 @@
         <v>315533.1317671346</v>
       </c>
       <c r="E5" t="n">
-        <v>311101.9523399483</v>
+        <v>320823.3795817837</v>
       </c>
       <c r="F5" t="n">
-        <v>269852.328551054</v>
+        <v>356520.7606468201</v>
       </c>
       <c r="G5" t="n">
-        <v>239087.287397027</v>
+        <v>305991.9411939383</v>
       </c>
     </row>
     <row r="6">
@@ -7222,13 +7222,13 @@
         <v>339359.0250663427</v>
       </c>
       <c r="E6" t="n">
-        <v>341102.3945717608</v>
+        <v>320964.7195152442</v>
       </c>
       <c r="F6" t="n">
-        <v>375079.846224308</v>
+        <v>123894.8370894194</v>
       </c>
       <c r="G6" t="n">
-        <v>276354.7958312035</v>
+        <v>237236.6741330624</v>
       </c>
     </row>
     <row r="7">
@@ -7245,13 +7245,13 @@
         <v>359159.0015294025</v>
       </c>
       <c r="E7" t="n">
-        <v>374929.2986776468</v>
+        <v>355012.5238772767</v>
       </c>
       <c r="F7" t="n">
-        <v>506802.6617193222</v>
+        <v>261177.1667151451</v>
       </c>
       <c r="G7" t="n">
-        <v>389671.9589831829</v>
+        <v>389524.7187616825</v>
       </c>
     </row>
     <row r="8">
@@ -7268,13 +7268,13 @@
         <v>429829.235957252</v>
       </c>
       <c r="E8" t="n">
-        <v>417232.0732088959</v>
+        <v>417137.0502888699</v>
       </c>
       <c r="F8" t="n">
-        <v>355943.6146731377</v>
+        <v>335559.9818127155</v>
       </c>
       <c r="G8" t="n">
-        <v>371567.265652895</v>
+        <v>376773.3586337566</v>
       </c>
     </row>
     <row r="9">
@@ -7291,13 +7291,13 @@
         <v>388580.620469865</v>
       </c>
       <c r="E9" t="n">
-        <v>362784.6317742328</v>
+        <v>385799.4245083857</v>
       </c>
       <c r="F9" t="n">
-        <v>159636.7990700081</v>
+        <v>326312.3856902122</v>
       </c>
       <c r="G9" t="n">
-        <v>288628.6514589787</v>
+        <v>466150.6181645393</v>
       </c>
     </row>
     <row r="10">
@@ -7314,13 +7314,13 @@
         <v>343768.2757448051</v>
       </c>
       <c r="E10" t="n">
-        <v>349369.8677156816</v>
+        <v>365841.5795268698</v>
       </c>
       <c r="F10" t="n">
-        <v>359824.3493402004</v>
+        <v>470376.2518959045</v>
       </c>
       <c r="G10" t="n">
-        <v>322998.3384792805</v>
+        <v>533774.3575086594</v>
       </c>
     </row>
     <row r="11">
@@ -7337,13 +7337,13 @@
         <v>423162.8896538133</v>
       </c>
       <c r="E11" t="n">
-        <v>409296.9109168236</v>
+        <v>413390.6179620508</v>
       </c>
       <c r="F11" t="n">
-        <v>358605.3252372742</v>
+        <v>360085.0091505051</v>
       </c>
       <c r="G11" t="n">
-        <v>298319.699434042</v>
+        <v>371028.9732503891</v>
       </c>
     </row>
     <row r="12">
@@ -7360,13 +7360,13 @@
         <v>391278.9725957551</v>
       </c>
       <c r="E12" t="n">
-        <v>381717.0452642614</v>
+        <v>386939.7158657961</v>
       </c>
       <c r="F12" t="n">
-        <v>350191.3050887585</v>
+        <v>341273.7590773106</v>
       </c>
       <c r="G12" t="n">
-        <v>335138.1251926422</v>
+        <v>461158.4429163933</v>
       </c>
     </row>
     <row r="13">
@@ -7383,13 +7383,13 @@
         <v>436430.0005445514</v>
       </c>
       <c r="E13" t="n">
-        <v>415268.7276870538</v>
+        <v>415661.1817048168</v>
       </c>
       <c r="F13" t="n">
-        <v>352665.494076252</v>
+        <v>413509.8474400043</v>
       </c>
       <c r="G13" t="n">
-        <v>356121.6414864063</v>
+        <v>233373.7823037505</v>
       </c>
     </row>
     <row r="14">
@@ -7406,13 +7406,13 @@
         <v>459656.7169888857</v>
       </c>
       <c r="E14" t="n">
-        <v>439049.3849726142</v>
+        <v>437068.4516323706</v>
       </c>
       <c r="F14" t="n">
-        <v>300374.4947288036</v>
+        <v>344046.5690813065</v>
       </c>
       <c r="G14" t="n">
-        <v>383308.05813694</v>
+        <v>200228.9688388109</v>
       </c>
     </row>
     <row r="15">
@@ -7429,13 +7429,13 @@
         <v>476926.5186659442</v>
       </c>
       <c r="E15" t="n">
-        <v>467359.493869859</v>
+        <v>452952.9268188785</v>
       </c>
       <c r="F15" t="n">
-        <v>444407.7349684238</v>
+        <v>387262.0202741623</v>
       </c>
       <c r="G15" t="n">
-        <v>399130.7957434654</v>
+        <v>141090.3555156291</v>
       </c>
     </row>
     <row r="16">
@@ -7452,13 +7452,13 @@
         <v>398792.099704044</v>
       </c>
       <c r="E16" t="n">
-        <v>388948.5612048521</v>
+        <v>405799.9262488952</v>
       </c>
       <c r="F16" t="n">
-        <v>253636.8343464136</v>
+        <v>410915.8852250576</v>
       </c>
       <c r="G16" t="n">
-        <v>307809.8225104809</v>
+        <v>384099.1575379372</v>
       </c>
     </row>
     <row r="17">
@@ -7475,13 +7475,13 @@
         <v>322541.2678179986</v>
       </c>
       <c r="E17" t="n">
-        <v>337153.117954831</v>
+        <v>341760.4789808884</v>
       </c>
       <c r="F17" t="n">
-        <v>393375.0416302681</v>
+        <v>376361.2466392517</v>
       </c>
       <c r="G17" t="n">
-        <v>381029.3327744007</v>
+        <v>545573.0287852287</v>
       </c>
     </row>
     <row r="18">
@@ -7498,13 +7498,13 @@
         <v>345449.8097636063</v>
       </c>
       <c r="E18" t="n">
-        <v>352744.5588381253</v>
+        <v>333190.1755580374</v>
       </c>
       <c r="F18" t="n">
-        <v>412178.153334856</v>
+        <v>121476.8983283639</v>
       </c>
       <c r="G18" t="n">
-        <v>319048.6239993572</v>
+        <v>372620.363411665</v>
       </c>
     </row>
     <row r="19">
@@ -7521,13 +7521,13 @@
         <v>365218.4600322582</v>
       </c>
       <c r="E19" t="n">
-        <v>369453.0873992816</v>
+        <v>361266.8913158924</v>
       </c>
       <c r="F19" t="n">
-        <v>369676.023011446</v>
+        <v>224083.6560663581</v>
       </c>
       <c r="G19" t="n">
-        <v>374445.1784040928</v>
+        <v>427051.0041160583</v>
       </c>
     </row>
     <row r="20">
@@ -7544,13 +7544,13 @@
         <v>434633.210398759</v>
       </c>
       <c r="E20" t="n">
-        <v>421168.5333637781</v>
+        <v>431223.986296689</v>
       </c>
       <c r="F20" t="n">
-        <v>337310.9982213974</v>
+        <v>362614.2927517891</v>
       </c>
       <c r="G20" t="n">
-        <v>343166.3045716286</v>
+        <v>503717.7559876442</v>
       </c>
     </row>
     <row r="21">
@@ -7567,13 +7567,13 @@
         <v>392924.92946448</v>
       </c>
       <c r="E21" t="n">
-        <v>394512.1737796864</v>
+        <v>389686.0006455909</v>
       </c>
       <c r="F21" t="n">
-        <v>401285.642999649</v>
+        <v>342515.6991128922</v>
       </c>
       <c r="G21" t="n">
-        <v>422007.8212857246</v>
+        <v>409683.0294649601</v>
       </c>
     </row>
     <row r="22">
@@ -7590,13 +7590,13 @@
         <v>347726.8710747825</v>
       </c>
       <c r="E22" t="n">
-        <v>363553.6231396084</v>
+        <v>347148.5485858219</v>
       </c>
       <c r="F22" t="n">
-        <v>332481.1441628933</v>
+        <v>363692.8586070538</v>
       </c>
       <c r="G22" t="n">
-        <v>571542.7771763802</v>
+        <v>113173.790223062</v>
       </c>
     </row>
     <row r="23">
@@ -7613,13 +7613,13 @@
         <v>426925.7682162392</v>
       </c>
       <c r="E23" t="n">
-        <v>411689.1456525816</v>
+        <v>420995.6665999074</v>
       </c>
       <c r="F23" t="n">
-        <v>296807.8725342751</v>
+        <v>431105.8213431835</v>
       </c>
       <c r="G23" t="n">
-        <v>326572.1888301373</v>
+        <v>269854.5059216022</v>
       </c>
     </row>
     <row r="24">
@@ -7636,13 +7636,13 @@
         <v>393721.225827291</v>
       </c>
       <c r="E24" t="n">
-        <v>376839.0813474865</v>
+        <v>394558.1057109395</v>
       </c>
       <c r="F24" t="n">
-        <v>248134.4494216442</v>
+        <v>409164.7260379791</v>
       </c>
       <c r="G24" t="n">
-        <v>304962.4554125071</v>
+        <v>398016.7851512432</v>
       </c>
     </row>
     <row r="25">
@@ -7659,13 +7659,13 @@
         <v>436264.1015193505</v>
       </c>
       <c r="E25" t="n">
-        <v>414790.909689861</v>
+        <v>413144.8327110271</v>
       </c>
       <c r="F25" t="n">
-        <v>326887.5684609413</v>
+        <v>276820.2444804907</v>
       </c>
       <c r="G25" t="n">
-        <v>389888.5538108349</v>
+        <v>396499.9253129959</v>
       </c>
     </row>
     <row r="26">
@@ -7682,13 +7682,13 @@
         <v>464576.5525253778</v>
       </c>
       <c r="E26" t="n">
-        <v>444882.4542811886</v>
+        <v>452004.012988183</v>
       </c>
       <c r="F26" t="n">
-        <v>347027.7641551495</v>
+        <v>313648.173926115</v>
       </c>
       <c r="G26" t="n">
-        <v>227554.7327426076</v>
+        <v>411463.5831544399</v>
       </c>
     </row>
     <row r="27">
@@ -7705,13 +7705,13 @@
         <v>482592.2754314698</v>
       </c>
       <c r="E27" t="n">
-        <v>459283.3642916166</v>
+        <v>473484.2227122374</v>
       </c>
       <c r="F27" t="n">
-        <v>362624.4478652477</v>
+        <v>328736.2631402016</v>
       </c>
       <c r="G27" t="n">
-        <v>137474.0531318188</v>
+        <v>492029.2025494576</v>
       </c>
     </row>
     <row r="28">
@@ -7728,13 +7728,13 @@
         <v>404670.0026317368</v>
       </c>
       <c r="E28" t="n">
-        <v>403959.824037743</v>
+        <v>410377.3159184807</v>
       </c>
       <c r="F28" t="n">
-        <v>375777.0331349373</v>
+        <v>363966.368473053</v>
       </c>
       <c r="G28" t="n">
-        <v>180232.5152953863</v>
+        <v>341819.7079713345</v>
       </c>
     </row>
     <row r="29">
@@ -7751,13 +7751,13 @@
         <v>328419.3763697555</v>
       </c>
       <c r="E29" t="n">
-        <v>333988.57143062</v>
+        <v>341726.5089402337</v>
       </c>
       <c r="F29" t="n">
-        <v>370586.9670290947</v>
+        <v>417114.6093137264</v>
       </c>
       <c r="G29" t="n">
-        <v>325204.0326919556</v>
+        <v>447303.2451570034</v>
       </c>
     </row>
     <row r="30">
@@ -7774,13 +7774,13 @@
         <v>351286.263228898</v>
       </c>
       <c r="E30" t="n">
-        <v>354965.9291634249</v>
+        <v>349238.7196810785</v>
       </c>
       <c r="F30" t="n">
-        <v>352814.1263871193</v>
+        <v>268879.7042660713</v>
       </c>
       <c r="G30" t="n">
-        <v>304825.8432579041</v>
+        <v>310120.0483567715</v>
       </c>
     </row>
     <row r="31">
@@ -7797,13 +7797,13 @@
         <v>370993.3106960059</v>
       </c>
       <c r="E31" t="n">
-        <v>374454.6587779598</v>
+        <v>356255.9435457967</v>
       </c>
       <c r="F31" t="n">
-        <v>414025.7771761417</v>
+        <v>83246.55931484699</v>
       </c>
       <c r="G31" t="n">
-        <v>248804.731528163</v>
+        <v>394346.2916731834</v>
       </c>
     </row>
     <row r="32">
@@ -7820,13 +7820,13 @@
         <v>440350.2938692857</v>
       </c>
       <c r="E32" t="n">
-        <v>428549.4164162637</v>
+        <v>432045.4652834448</v>
       </c>
       <c r="F32" t="n">
-        <v>305777.5326604843</v>
+        <v>358870.2862467766</v>
       </c>
       <c r="G32" t="n">
-        <v>445164.3890812397</v>
+        <v>384602.0052034855</v>
       </c>
     </row>
     <row r="33">
@@ -7843,13 +7843,13 @@
         <v>398577.1297680287</v>
       </c>
       <c r="E33" t="n">
-        <v>398557.334585999</v>
+        <v>396028.7799233331</v>
       </c>
       <c r="F33" t="n">
-        <v>339867.9094424248</v>
+        <v>260221.5062884092</v>
       </c>
       <c r="G33" t="n">
-        <v>392471.7541041374</v>
+        <v>442405.0002465248</v>
       </c>
     </row>
     <row r="34">
@@ -7866,13 +7866,13 @@
         <v>353321.3950973975</v>
       </c>
       <c r="E34" t="n">
-        <v>361524.9562443829</v>
+        <v>363946.5081379754</v>
       </c>
       <c r="F34" t="n">
-        <v>357566.3625397682</v>
+        <v>358023.3961873055</v>
       </c>
       <c r="G34" t="n">
-        <v>319028.8313441277</v>
+        <v>375062.7842059135</v>
       </c>
     </row>
     <row r="35">
@@ -7889,13 +7889,13 @@
         <v>432456.4075820218</v>
       </c>
       <c r="E35" t="n">
-        <v>410941.9040001199</v>
+        <v>423754.7945927389</v>
       </c>
       <c r="F35" t="n">
-        <v>267461.3347505331</v>
+        <v>375822.5972907543</v>
       </c>
       <c r="G35" t="n">
-        <v>211369.8689658642</v>
+        <v>270075.4197957516</v>
       </c>
     </row>
     <row r="36">
@@ -7912,13 +7912,13 @@
         <v>399195.4123056469</v>
       </c>
       <c r="E36" t="n">
-        <v>404307.4792901786</v>
+        <v>390223.0088218975</v>
       </c>
       <c r="F36" t="n">
-        <v>375118.931810379</v>
+        <v>316113.171554327</v>
       </c>
       <c r="G36" t="n">
-        <v>536515.916891098</v>
+        <v>287636.4576100111</v>
       </c>
     </row>
     <row r="37">
@@ -7935,13 +7935,13 @@
         <v>441675.684539863</v>
       </c>
       <c r="E37" t="n">
-        <v>426470.076378099</v>
+        <v>414928.9479299776</v>
       </c>
       <c r="F37" t="n">
-        <v>371986.9092078209</v>
+        <v>352259.949887991</v>
       </c>
       <c r="G37" t="n">
-        <v>381149.7128100395</v>
+        <v>113942.7500489354</v>
       </c>
     </row>
     <row r="38">
@@ -7958,13 +7958,13 @@
         <v>469932.9613488857</v>
       </c>
       <c r="E38" t="n">
-        <v>455733.452478204</v>
+        <v>468295.5862866231</v>
       </c>
       <c r="F38" t="n">
-        <v>313612.3900904655</v>
+        <v>393561.5280635357</v>
       </c>
       <c r="G38" t="n">
-        <v>411791.0275597572</v>
+        <v>514004.332654953</v>
       </c>
     </row>
     <row r="39">
@@ -7981,13 +7981,13 @@
         <v>487887.3564119709</v>
       </c>
       <c r="E39" t="n">
-        <v>458844.0263158311</v>
+        <v>469849.6920619858</v>
       </c>
       <c r="F39" t="n">
-        <v>292086.4140497446</v>
+        <v>351562.1740164757</v>
       </c>
       <c r="G39" t="n">
-        <v>139474.0482932329</v>
+        <v>227719.2848446965</v>
       </c>
     </row>
     <row r="40">
@@ -8004,13 +8004,13 @@
         <v>409911.1664097595</v>
       </c>
       <c r="E40" t="n">
-        <v>417788.0204462206</v>
+        <v>418124.238379201</v>
       </c>
       <c r="F40" t="n">
-        <v>336511.4392004013</v>
+        <v>317875.1997468472</v>
       </c>
       <c r="G40" t="n">
-        <v>460488.2054281235</v>
+        <v>465767.3652534485</v>
       </c>
     </row>
     <row r="41">
@@ -8027,13 +8027,13 @@
         <v>333600.4621093526</v>
       </c>
       <c r="E41" t="n">
-        <v>346439.2295588254</v>
+        <v>343648.5481696443</v>
       </c>
       <c r="F41" t="n">
-        <v>390182.4988348484</v>
+        <v>323477.7347931862</v>
       </c>
       <c r="G41" t="n">
-        <v>378581.0402185917</v>
+        <v>445213.6476280689</v>
       </c>
     </row>
     <row r="42">
@@ -8050,13 +8050,13 @@
         <v>356414.6620689318</v>
       </c>
       <c r="E42" t="n">
-        <v>371218.5027342078</v>
+        <v>366877.3857393587</v>
       </c>
       <c r="F42" t="n">
-        <v>362372.0513546467</v>
+        <v>359416.8062543869</v>
       </c>
       <c r="G42" t="n">
-        <v>527472.2261662483</v>
+        <v>425730.1968636513</v>
       </c>
     </row>
     <row r="43">
@@ -8073,13 +8073,13 @@
         <v>376062.854580853</v>
       </c>
       <c r="E43" t="n">
-        <v>388505.6099883876</v>
+        <v>379684.6924844512</v>
       </c>
       <c r="F43" t="n">
-        <v>440754.6426074505</v>
+        <v>354569.7652463913</v>
       </c>
       <c r="G43" t="n">
-        <v>368214.097161293</v>
+        <v>327320.1334607601</v>
       </c>
     </row>
     <row r="44">
@@ -8096,13 +8096,13 @@
         <v>445368.3546466689</v>
       </c>
       <c r="E44" t="n">
-        <v>442477.9018782696</v>
+        <v>437635.9718536313</v>
       </c>
       <c r="F44" t="n">
-        <v>376562.5641784668</v>
+        <v>382685.5800223351</v>
       </c>
       <c r="G44" t="n">
-        <v>464866.1480140686</v>
+        <v>309866.0098946095</v>
       </c>
     </row>
     <row r="45">
@@ -8119,13 +8119,13 @@
         <v>403537.5324214606</v>
       </c>
       <c r="E45" t="n">
-        <v>413964.9612221988</v>
+        <v>410722.8856847328</v>
       </c>
       <c r="F45" t="n">
-        <v>425397.5053522587</v>
+        <v>422834.5617439747</v>
       </c>
       <c r="G45" t="n">
-        <v>456226.0025799274</v>
+        <v>388590.0913774967</v>
       </c>
     </row>
     <row r="46">
@@ -8142,13 +8142,13 @@
         <v>358231.4924668933</v>
       </c>
       <c r="E46" t="n">
-        <v>369817.9330438575</v>
+        <v>388162.784728774</v>
       </c>
       <c r="F46" t="n">
-        <v>412734.4001207352</v>
+        <v>480795.9337234497</v>
       </c>
       <c r="G46" t="n">
-        <v>239603.7614758015</v>
+        <v>582074.8612966537</v>
       </c>
     </row>
     <row r="47">
@@ -8165,13 +8165,13 @@
         <v>437310.0179641169</v>
       </c>
       <c r="E47" t="n">
-        <v>428014.9389418716</v>
+        <v>416240.4524339772</v>
       </c>
       <c r="F47" t="n">
-        <v>280621.0232454538</v>
+        <v>175984.6929088235</v>
       </c>
       <c r="G47" t="n">
-        <v>445423.8531224728</v>
+        <v>277705.0422042608</v>
       </c>
     </row>
     <row r="48">
@@ -8188,13 +8188,13 @@
         <v>403999.8698156667</v>
       </c>
       <c r="E48" t="n">
-        <v>405840.4859557127</v>
+        <v>384222.9360842012</v>
       </c>
       <c r="F48" t="n">
-        <v>431957.5301735401</v>
+        <v>90140.0296959281</v>
       </c>
       <c r="G48" t="n">
-        <v>293705.4050598145</v>
+        <v>370297.6444556713</v>
       </c>
     </row>
     <row r="49">
@@ -8211,13 +8211,13 @@
         <v>446424.8010567412</v>
       </c>
       <c r="E49" t="n">
-        <v>438651.3507057238</v>
+        <v>433948.4619534588</v>
       </c>
       <c r="F49" t="n">
-        <v>351181.0270867348</v>
+        <v>372063.2956500053</v>
       </c>
       <c r="G49" t="n">
-        <v>532482.2844085693</v>
+        <v>346025.1207122803</v>
       </c>
     </row>
     <row r="50">
@@ -8234,13 +8234,13 @@
         <v>474634.0525406993</v>
       </c>
       <c r="E50" t="n">
-        <v>463640.6376853366</v>
+        <v>470263.0826584179</v>
       </c>
       <c r="F50" t="n">
-        <v>326041.0888893604</v>
+        <v>366298.118162632</v>
       </c>
       <c r="G50" t="n">
-        <v>434211.3764004707</v>
+        <v>464046.2073769569</v>
       </c>
     </row>
     <row r="51">
@@ -8257,13 +8257,13 @@
         <v>492534.2280036251</v>
       </c>
       <c r="E51" t="n">
-        <v>452197.5119322425</v>
+        <v>466672.7108092444</v>
       </c>
       <c r="F51" t="n">
-        <v>201433.9961970448</v>
+        <v>285098.1700460911</v>
       </c>
       <c r="G51" t="n">
-        <v>40432.54743134975</v>
+        <v>133520.7580374181</v>
       </c>
     </row>
     <row r="52">
@@ -8280,13 +8280,13 @@
         <v>414511.1158936948</v>
       </c>
       <c r="E52" t="n">
-        <v>419907.0583433714</v>
+        <v>430884.7995805147</v>
       </c>
       <c r="F52" t="n">
-        <v>328254.1897313595</v>
+        <v>523629.1671485901</v>
       </c>
       <c r="G52" t="n">
-        <v>395407.991830349</v>
+        <v>285951.1014164686</v>
       </c>
     </row>
     <row r="53">
@@ -8303,13 +8303,13 @@
         <v>338147.289314241</v>
       </c>
       <c r="E53" t="n">
-        <v>361890.4345557237</v>
+        <v>355237.531677559</v>
       </c>
       <c r="F53" t="n">
-        <v>479058.5348043442</v>
+        <v>391325.8146929741</v>
       </c>
       <c r="G53" t="n">
-        <v>362601.6568636894</v>
+        <v>405009.7854602337</v>
       </c>
     </row>
     <row r="54">
@@ -8326,13 +8326,13 @@
         <v>360915.6465774589</v>
       </c>
       <c r="E54" t="n">
-        <v>382793.5420402205</v>
+        <v>376194.0750851725</v>
       </c>
       <c r="F54" t="n">
-        <v>490208.3853521347</v>
+        <v>366652.7796998024</v>
       </c>
       <c r="G54" t="n">
-        <v>390472.3211326599</v>
+        <v>490906.9286575317</v>
       </c>
     </row>
     <row r="55">
@@ -8349,13 +8349,13 @@
         <v>380511.7905775924</v>
       </c>
       <c r="E55" t="n">
-        <v>393908.0039824197</v>
+        <v>399779.8728001587</v>
       </c>
       <c r="F55" t="n">
-        <v>456794.9923377037</v>
+        <v>467411.8868255615</v>
       </c>
       <c r="G55" t="n">
-        <v>306553.8544974327</v>
+        <v>457059.0788295269</v>
       </c>
     </row>
     <row r="56">
@@ -8372,13 +8372,13 @@
         <v>449772.5040648234</v>
       </c>
       <c r="E56" t="n">
-        <v>445169.7749717872</v>
+        <v>438363.1223468733</v>
       </c>
       <c r="F56" t="n">
-        <v>357815.6536202431</v>
+        <v>252979.3219827414</v>
       </c>
       <c r="G56" t="n">
-        <v>409731.8953711987</v>
+        <v>387513.0068480968</v>
       </c>
     </row>
     <row r="57">
@@ -8395,13 +8395,13 @@
         <v>407890.6840481011</v>
       </c>
       <c r="E57" t="n">
-        <v>391884.4728206618</v>
+        <v>405741.9346442981</v>
       </c>
       <c r="F57" t="n">
-        <v>148704.8746468723</v>
+        <v>342474.1149048805</v>
       </c>
       <c r="G57" t="n">
-        <v>388839.3824579716</v>
+        <v>284284.895375371</v>
       </c>
     </row>
     <row r="58">
@@ -8418,13 +8418,13 @@
         <v>362540.8908405227</v>
       </c>
       <c r="E58" t="n">
-        <v>380724.7851629891</v>
+        <v>363586.9940110723</v>
       </c>
       <c r="F58" t="n">
-        <v>356610.4433271885</v>
+        <v>318473.7981746197</v>
       </c>
       <c r="G58" t="n">
-        <v>467005.2539520264</v>
+        <v>112488.9179491401</v>
       </c>
     </row>
     <row r="59">
@@ -8441,13 +8441,13 @@
         <v>441569.4467154796</v>
       </c>
       <c r="E59" t="n">
-        <v>437422.021301162</v>
+        <v>441236.0514414686</v>
       </c>
       <c r="F59" t="n">
-        <v>331576.5894784927</v>
+        <v>286651.5990011692</v>
       </c>
       <c r="G59" t="n">
-        <v>418416.4270393848</v>
+        <v>540395.1345376968</v>
       </c>
     </row>
     <row r="60">
@@ -8464,13 +8464,13 @@
         <v>408216.556337978</v>
       </c>
       <c r="E60" t="n">
-        <v>410412.9617206081</v>
+        <v>414897.3045312452</v>
       </c>
       <c r="F60" t="n">
-        <v>407391.6860616207</v>
+        <v>383608.5352725983</v>
       </c>
       <c r="G60" t="n">
-        <v>304103.6255096197</v>
+        <v>450865.1735117435</v>
       </c>
     </row>
     <row r="61">
@@ -8487,13 +8487,13 @@
         <v>450592.524060292</v>
       </c>
       <c r="E61" t="n">
-        <v>441459.9149128984</v>
+        <v>440079.0777047359</v>
       </c>
       <c r="F61" t="n">
-        <v>367781.246604681</v>
+        <v>405945.0553472042</v>
       </c>
       <c r="G61" t="n">
-        <v>382340.0027606487</v>
+        <v>251819.1850447655</v>
       </c>
     </row>
     <row r="62">
@@ -8510,13 +8510,13 @@
         <v>478760.0225175738</v>
       </c>
       <c r="E62" t="n">
-        <v>479883.0519637458</v>
+        <v>465736.4612866901</v>
       </c>
       <c r="F62" t="n">
-        <v>492640.0799193382</v>
+        <v>375537.5580692291</v>
       </c>
       <c r="G62" t="n">
-        <v>336739.2599794865</v>
+        <v>203260.8680907488</v>
       </c>
     </row>
     <row r="63">
@@ -8533,13 +8533,13 @@
         <v>496612.218974345</v>
       </c>
       <c r="E63" t="n">
-        <v>487181.3758589794</v>
+        <v>476019.8594119681</v>
       </c>
       <c r="F63" t="n">
-        <v>373981.5947976112</v>
+        <v>174698.3309445977</v>
       </c>
       <c r="G63" t="n">
-        <v>397090.0819680691</v>
+        <v>420164.1595449448</v>
       </c>
     </row>
     <row r="64">
@@ -8556,13 +8556,13 @@
         <v>418548.3216882279</v>
       </c>
       <c r="E64" t="n">
-        <v>406328.0211321546</v>
+        <v>435009.5386954746</v>
       </c>
       <c r="F64" t="n">
-        <v>188766.1301983595</v>
+        <v>410609.197229147</v>
       </c>
       <c r="G64" t="n">
-        <v>233810.6975828409</v>
+        <v>447629.0476107597</v>
       </c>
     </row>
     <row r="65">
@@ -8579,13 +8579,13 @@
         <v>342137.4794889466</v>
       </c>
       <c r="E65" t="n">
-        <v>365778.3625953196</v>
+        <v>350151.8046266999</v>
       </c>
       <c r="F65" t="n">
-        <v>470906.8878068924</v>
+        <v>275129.2039220333</v>
       </c>
       <c r="G65" t="n">
-        <v>277795.6975624561</v>
+        <v>284360.5054600239</v>
       </c>
     </row>
     <row r="66">
@@ -8602,13 +8602,13 @@
         <v>364865.9985341708</v>
       </c>
       <c r="E66" t="n">
-        <v>383175.153703287</v>
+        <v>384418.9709790785</v>
       </c>
       <c r="F66" t="n">
-        <v>418332.5804259777</v>
+        <v>399158.5304470062</v>
       </c>
       <c r="G66" t="n">
-        <v>414024.9740476608</v>
+        <v>492873.5939869881</v>
       </c>
     </row>
     <row r="67">
@@ -8625,13 +8625,13 @@
         <v>384416.0696291471</v>
       </c>
       <c r="E67" t="n">
-        <v>391956.6216494079</v>
+        <v>387135.2831092108</v>
       </c>
       <c r="F67" t="n">
-        <v>421695.493543148</v>
+        <v>161725.9604555592</v>
       </c>
       <c r="G67" t="n">
-        <v>180960.5267232955</v>
+        <v>522097.1906476021</v>
       </c>
     </row>
     <row r="68">
@@ -8648,13 +8648,13 @@
         <v>453637.8714139797</v>
       </c>
       <c r="E68" t="n">
-        <v>452743.9335460525</v>
+        <v>448998.2180252118</v>
       </c>
       <c r="F68" t="n">
-        <v>385230.4264688492</v>
+        <v>383511.6065886021</v>
       </c>
       <c r="G68" t="n">
-        <v>380929.6020643711</v>
+        <v>264988.9572639465</v>
       </c>
     </row>
     <row r="69">
@@ -8671,13 +8671,13 @@
         <v>411710.9009799515</v>
       </c>
       <c r="E69" t="n">
-        <v>408982.6389937825</v>
+        <v>419852.2356359307</v>
       </c>
       <c r="F69" t="n">
-        <v>300896.9655002356</v>
+        <v>485578.5816745758</v>
       </c>
       <c r="G69" t="n">
-        <v>363046.054623127</v>
+        <v>261606.4299645424</v>
       </c>
     </row>
     <row r="70">
@@ -8694,13 +8694,13 @@
         <v>366323.1025829923</v>
       </c>
       <c r="E70" t="n">
-        <v>389790.2956416034</v>
+        <v>375840.0098005606</v>
       </c>
       <c r="F70" t="n">
-        <v>400484.2100121975</v>
+        <v>316945.7302322388</v>
       </c>
       <c r="G70" t="n">
-        <v>440775.6310317516</v>
+        <v>255354.6280069351</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>491920.8462882977</v>
       </c>
       <c r="D2" t="n">
-        <v>486252.9848087049</v>
+        <v>484666.0050912367</v>
       </c>
       <c r="E2" t="n">
-        <v>433564.0965918303</v>
+        <v>415614.717777729</v>
       </c>
       <c r="F2" t="n">
-        <v>425324.7274867296</v>
+        <v>394825.29864645</v>
       </c>
     </row>
     <row r="3">
@@ -8785,13 +8785,13 @@
         <v>442935.5764097042</v>
       </c>
       <c r="D3" t="n">
-        <v>446661.8676645595</v>
+        <v>446030.1399916859</v>
       </c>
       <c r="E3" t="n">
-        <v>424399.075761199</v>
+        <v>409230.5450741053</v>
       </c>
       <c r="F3" t="n">
-        <v>421311.2648669481</v>
+        <v>422688.8615379333</v>
       </c>
     </row>
     <row r="4">
@@ -8805,13 +8805,13 @@
         <v>486801.3117955711</v>
       </c>
       <c r="D4" t="n">
-        <v>477918.1321556754</v>
+        <v>480084.5421822805</v>
       </c>
       <c r="E4" t="n">
-        <v>427890.9555647373</v>
+        <v>424781.67299366</v>
       </c>
       <c r="F4" t="n">
-        <v>385434.5834109783</v>
+        <v>420437.551386714</v>
       </c>
     </row>
     <row r="5">
@@ -8825,13 +8825,13 @@
         <v>556834.5068168781</v>
       </c>
       <c r="D5" t="n">
-        <v>531713.5719772634</v>
+        <v>535554.4855216459</v>
       </c>
       <c r="E5" t="n">
-        <v>400034.2597410679</v>
+        <v>414424.0310863256</v>
       </c>
       <c r="F5" t="n">
-        <v>423508.6056683064</v>
+        <v>432470.322603941</v>
       </c>
     </row>
     <row r="6">
@@ -8845,13 +8845,13 @@
         <v>552904.8483319612</v>
       </c>
       <c r="D6" t="n">
-        <v>537527.8407652797</v>
+        <v>544724.6891848567</v>
       </c>
       <c r="E6" t="n">
-        <v>388003.2052907944</v>
+        <v>441369.8006925583</v>
       </c>
       <c r="F6" t="n">
-        <v>406315.3297082186</v>
+        <v>422117.4441204071</v>
       </c>
     </row>
     <row r="7">
@@ -8865,13 +8865,13 @@
         <v>472178.4318973128</v>
       </c>
       <c r="D7" t="n">
-        <v>473532.7262522716</v>
+        <v>470923.2884152916</v>
       </c>
       <c r="E7" t="n">
-        <v>415040.2537033558</v>
+        <v>381558.631406188</v>
       </c>
       <c r="F7" t="n">
-        <v>426934.3536744118</v>
+        <v>396395.7293519974</v>
       </c>
     </row>
     <row r="8">
@@ -8885,13 +8885,13 @@
         <v>373986.4784261398</v>
       </c>
       <c r="D8" t="n">
-        <v>392583.0342394926</v>
+        <v>394018.6086054475</v>
       </c>
       <c r="E8" t="n">
-        <v>403317.5644496679</v>
+        <v>429955.7426134348</v>
       </c>
       <c r="F8" t="n">
-        <v>403386.2593076229</v>
+        <v>398198.5280916691</v>
       </c>
     </row>
     <row r="9">
@@ -8905,13 +8905,13 @@
         <v>429122.6516695996</v>
       </c>
       <c r="D9" t="n">
-        <v>431957.1428452297</v>
+        <v>428504.1890790135</v>
       </c>
       <c r="E9" t="n">
-        <v>426763.4749130011</v>
+        <v>398638.3831290007</v>
       </c>
       <c r="F9" t="n">
-        <v>438654.0688107014</v>
+        <v>401878.5026857853</v>
       </c>
     </row>
     <row r="10">
@@ -8925,13 +8925,13 @@
         <v>452118.0376585394</v>
       </c>
       <c r="D10" t="n">
-        <v>449115.1305681706</v>
+        <v>445148.1315481919</v>
       </c>
       <c r="E10" t="n">
-        <v>437576.3985804319</v>
+        <v>386819.0229699612</v>
       </c>
       <c r="F10" t="n">
-        <v>424029.3663707972</v>
+        <v>410411.342220664</v>
       </c>
     </row>
     <row r="11">
@@ -8945,13 +8945,13 @@
         <v>536098.1440418881</v>
       </c>
       <c r="D11" t="n">
-        <v>510722.9457064469</v>
+        <v>513636.5785876809</v>
       </c>
       <c r="E11" t="n">
-        <v>393854.8659012318</v>
+        <v>401602.0790264606</v>
       </c>
       <c r="F11" t="n">
-        <v>433679.3859556913</v>
+        <v>438137.7813742161</v>
       </c>
     </row>
     <row r="12">
@@ -8965,13 +8965,13 @@
         <v>454152.7865094586</v>
       </c>
       <c r="D12" t="n">
-        <v>466170.2599612679</v>
+        <v>459232.1087422511</v>
       </c>
       <c r="E12" t="n">
-        <v>469912.6229820251</v>
+        <v>387566.0342130661</v>
       </c>
       <c r="F12" t="n">
-        <v>461381.7903718948</v>
+        <v>438067.7566263676</v>
       </c>
     </row>
     <row r="13">
@@ -8985,13 +8985,13 @@
         <v>391665.510104325</v>
       </c>
       <c r="D13" t="n">
-        <v>415718.8429370738</v>
+        <v>415122.3123036909</v>
       </c>
       <c r="E13" t="n">
-        <v>425585.8695021868</v>
+        <v>421762.2909793854</v>
       </c>
       <c r="F13" t="n">
-        <v>420830.9328172207</v>
+        <v>418910.8619687557</v>
       </c>
     </row>
     <row r="14">
@@ -9005,13 +9005,13 @@
         <v>489228.7464881928</v>
       </c>
       <c r="D14" t="n">
-        <v>490683.1286699229</v>
+        <v>488618.5319083391</v>
       </c>
       <c r="E14" t="n">
-        <v>453065.1425740719</v>
+        <v>439614.9505285025</v>
       </c>
       <c r="F14" t="n">
-        <v>410714.6780154705</v>
+        <v>368080.3182343245</v>
       </c>
     </row>
     <row r="15">
@@ -9025,13 +9025,13 @@
         <v>441220.2119754679</v>
       </c>
       <c r="D15" t="n">
-        <v>454714.1778739695</v>
+        <v>450143.7077413009</v>
       </c>
       <c r="E15" t="n">
-        <v>447373.141290307</v>
+        <v>413082.1721837521</v>
       </c>
       <c r="F15" t="n">
-        <v>462229.7765276432</v>
+        <v>408986.7158070803</v>
       </c>
     </row>
     <row r="16">
@@ -9045,13 +9045,13 @@
         <v>486570.5980690094</v>
       </c>
       <c r="D16" t="n">
-        <v>484097.9660333614</v>
+        <v>486490.497286553</v>
       </c>
       <c r="E16" t="n">
-        <v>418782.6847628355</v>
+        <v>433098.9736465216</v>
       </c>
       <c r="F16" t="n">
-        <v>417032.6463822126</v>
+        <v>421566.2168494463</v>
       </c>
     </row>
     <row r="17">
@@ -9065,13 +9065,13 @@
         <v>556610.6848777183</v>
       </c>
       <c r="D17" t="n">
-        <v>538053.6764008724</v>
+        <v>539400.8705872977</v>
       </c>
       <c r="E17" t="n">
-        <v>417417.0087412596</v>
+        <v>403003.7104347944</v>
       </c>
       <c r="F17" t="n">
-        <v>408271.7670003176</v>
+        <v>411831.9789645672</v>
       </c>
     </row>
     <row r="18">
@@ -9085,13 +9085,13 @@
         <v>552239.2044400155</v>
       </c>
       <c r="D18" t="n">
-        <v>546103.5416772723</v>
+        <v>547413.5393647165</v>
       </c>
       <c r="E18" t="n">
-        <v>419581.0781154633</v>
+        <v>410934.279106617</v>
       </c>
       <c r="F18" t="n">
-        <v>439949.7926238775</v>
+        <v>431067.5789240599</v>
       </c>
     </row>
     <row r="19">
@@ -9105,13 +9105,13 @@
         <v>474435.430379219</v>
       </c>
       <c r="D19" t="n">
-        <v>483508.6012353486</v>
+        <v>482083.1574178577</v>
       </c>
       <c r="E19" t="n">
-        <v>458510.7998899221</v>
+        <v>440115.9563211203</v>
       </c>
       <c r="F19" t="n">
-        <v>425568.7260124683</v>
+        <v>412615.7435283661</v>
       </c>
     </row>
     <row r="20">
@@ -9125,13 +9125,13 @@
         <v>374276.69072755</v>
       </c>
       <c r="D20" t="n">
-        <v>401358.6077282519</v>
+        <v>402228.3922047368</v>
       </c>
       <c r="E20" t="n">
-        <v>421460.8895698786</v>
+        <v>451804.2618761063</v>
       </c>
       <c r="F20" t="n">
-        <v>456889.3981317282</v>
+        <v>436438.7382260561</v>
       </c>
     </row>
     <row r="21">
@@ -9145,13 +9145,13 @@
         <v>430423.675516667</v>
       </c>
       <c r="D21" t="n">
-        <v>435304.0299969942</v>
+        <v>437968.0163128844</v>
       </c>
       <c r="E21" t="n">
-        <v>394054.7604421377</v>
+        <v>433988.4523669481</v>
       </c>
       <c r="F21" t="n">
-        <v>464456.9794020653</v>
+        <v>442680.3467330933</v>
       </c>
     </row>
     <row r="22">
@@ -9165,13 +9165,13 @@
         <v>453691.4458850516</v>
       </c>
       <c r="D22" t="n">
-        <v>461724.8995170518</v>
+        <v>452482.3066443236</v>
       </c>
       <c r="E22" t="n">
-        <v>484037.5044403076</v>
+        <v>390291.7523590326</v>
       </c>
       <c r="F22" t="n">
-        <v>483312.2066721916</v>
+        <v>432006.8197063208</v>
       </c>
     </row>
     <row r="23">
@@ -9185,13 +9185,13 @@
         <v>537835.8753237516</v>
       </c>
       <c r="D23" t="n">
-        <v>522764.9305739696</v>
+        <v>521003.3629447669</v>
       </c>
       <c r="E23" t="n">
-        <v>442341.7084065676</v>
+        <v>396806.20591259</v>
       </c>
       <c r="F23" t="n">
-        <v>451880.1623193026</v>
+        <v>451649.051635623</v>
       </c>
     </row>
     <row r="24">
@@ -9205,13 +9205,13 @@
         <v>455242.570714366</v>
       </c>
       <c r="D24" t="n">
-        <v>465689.1693651812</v>
+        <v>469597.8307734365</v>
       </c>
       <c r="E24" t="n">
-        <v>433498.617649436</v>
+        <v>441952.7760622501</v>
       </c>
       <c r="F24" t="n">
-        <v>405425.6333694458</v>
+        <v>471398.5694096088</v>
       </c>
     </row>
     <row r="25">
@@ -9225,13 +9225,13 @@
         <v>392555.77298608</v>
       </c>
       <c r="D25" t="n">
-        <v>423844.9194362788</v>
+        <v>422085.0920280892</v>
       </c>
       <c r="E25" t="n">
-        <v>425976.059196949</v>
+        <v>436837.9953519106</v>
       </c>
       <c r="F25" t="n">
-        <v>489118.6026666164</v>
+        <v>431446.4041051865</v>
       </c>
     </row>
     <row r="26">
@@ -9245,13 +9245,13 @@
         <v>490017.8009244877</v>
       </c>
       <c r="D26" t="n">
-        <v>497777.6471232391</v>
+        <v>495195.2112003326</v>
       </c>
       <c r="E26" t="n">
-        <v>440338.8700470924</v>
+        <v>418930.1574621201</v>
       </c>
       <c r="F26" t="n">
-        <v>494290.8588001728</v>
+        <v>444691.599668622</v>
       </c>
     </row>
     <row r="27">
@@ -9265,13 +9265,13 @@
         <v>441819.6796264474</v>
       </c>
       <c r="D27" t="n">
-        <v>456249.8325530263</v>
+        <v>456267.4048626889</v>
       </c>
       <c r="E27" t="n">
-        <v>402363.8157776594</v>
+        <v>411341.8540892601</v>
       </c>
       <c r="F27" t="n">
-        <v>465706.1328891516</v>
+        <v>428523.0401412249</v>
       </c>
     </row>
     <row r="28">
@@ -9285,13 +9285,13 @@
         <v>486951.0037053521</v>
       </c>
       <c r="D28" t="n">
-        <v>493465.9944160714</v>
+        <v>492909.6534011069</v>
       </c>
       <c r="E28" t="n">
-        <v>428149.3894407749</v>
+        <v>432784.8294738531</v>
       </c>
       <c r="F28" t="n">
-        <v>480217.7463284731</v>
+        <v>431243.7530652285</v>
       </c>
     </row>
     <row r="29">
@@ -9305,13 +9305,13 @@
         <v>556816.0190279636</v>
       </c>
       <c r="D29" t="n">
-        <v>544661.6190653476</v>
+        <v>548490.157381208</v>
       </c>
       <c r="E29" t="n">
-        <v>424839.9463508129</v>
+        <v>423845.7932058573</v>
       </c>
       <c r="F29" t="n">
-        <v>416976.4283094406</v>
+        <v>457842.5181285143</v>
       </c>
     </row>
     <row r="30">
@@ -9325,13 +9325,13 @@
         <v>552343.5875991565</v>
       </c>
       <c r="D30" t="n">
-        <v>551682.1102828748</v>
+        <v>555921.409041032</v>
       </c>
       <c r="E30" t="n">
-        <v>438741.8415436745</v>
+        <v>456290.5608025789</v>
       </c>
       <c r="F30" t="n">
-        <v>419944.6941921711</v>
+        <v>442757.1660093069</v>
       </c>
     </row>
     <row r="31">
@@ -9345,13 +9345,13 @@
         <v>474499.0571965544</v>
       </c>
       <c r="D31" t="n">
-        <v>489919.5758898265</v>
+        <v>488930.5040663884</v>
       </c>
       <c r="E31" t="n">
-        <v>465747.0209584236</v>
+        <v>433483.4327248335</v>
       </c>
       <c r="F31" t="n">
-        <v>437359.1429314613</v>
+        <v>459275.2689603567</v>
       </c>
     </row>
     <row r="32">
@@ -9365,13 +9365,13 @@
         <v>374329.104858525</v>
       </c>
       <c r="D32" t="n">
-        <v>406105.532315477</v>
+        <v>405289.1156456585</v>
       </c>
       <c r="E32" t="n">
-        <v>426626.665512681</v>
+        <v>417913.1302109957</v>
       </c>
       <c r="F32" t="n">
-        <v>442400.6104389429</v>
+        <v>448659.0964577198</v>
       </c>
     </row>
     <row r="33">
@@ -9385,13 +9385,13 @@
         <v>430470.4884669329</v>
       </c>
       <c r="D33" t="n">
-        <v>446827.1319141872</v>
+        <v>442834.5988913891</v>
       </c>
       <c r="E33" t="n">
-        <v>455165.3530535698</v>
+        <v>450340.8752170801</v>
       </c>
       <c r="F33" t="n">
-        <v>500897.1472958326</v>
+        <v>418204.8596940041</v>
       </c>
     </row>
     <row r="34">
@@ -9405,13 +9405,13 @@
         <v>453728.8477948285</v>
       </c>
       <c r="D34" t="n">
-        <v>460131.218449718</v>
+        <v>464904.4756356585</v>
       </c>
       <c r="E34" t="n">
-        <v>426710.6661943197</v>
+        <v>462297.8185305595</v>
       </c>
       <c r="F34" t="n">
-        <v>434029.2678967714</v>
+        <v>473644.3182030916</v>
       </c>
     </row>
     <row r="35">
@@ -9425,13 +9425,13 @@
         <v>537861.0797997668</v>
       </c>
       <c r="D35" t="n">
-        <v>531334.665674526</v>
+        <v>532330.9307006989</v>
       </c>
       <c r="E35" t="n">
-        <v>450938.0441389084</v>
+        <v>478402.6158825159</v>
       </c>
       <c r="F35" t="n">
-        <v>488953.938117981</v>
+        <v>430864.5168272257</v>
       </c>
     </row>
     <row r="36">
@@ -9445,13 +9445,13 @@
         <v>455256.9372583676</v>
       </c>
       <c r="D36" t="n">
-        <v>475536.0772945691</v>
+        <v>475294.839031051</v>
       </c>
       <c r="E36" t="n">
-        <v>455301.6788575649</v>
+        <v>457471.5755674839</v>
       </c>
       <c r="F36" t="n">
-        <v>487722.7260545492</v>
+        <v>470854.9587807655</v>
       </c>
     </row>
     <row r="37">
@@ -9465,13 +9465,13 @@
         <v>392563.1672092957</v>
       </c>
       <c r="D37" t="n">
-        <v>431044.6205864066</v>
+        <v>426970.3326246731</v>
       </c>
       <c r="E37" t="n">
-        <v>462229.3896505833</v>
+        <v>424480.5375621319</v>
       </c>
       <c r="F37" t="n">
-        <v>467191.6924396753</v>
+        <v>449994.136652112</v>
       </c>
     </row>
     <row r="38">
@@ -9485,13 +9485,13 @@
         <v>490021.9639343567</v>
       </c>
       <c r="D38" t="n">
-        <v>499304.7119706097</v>
+        <v>498210.4138942978</v>
       </c>
       <c r="E38" t="n">
-        <v>425587.9006067514</v>
+        <v>411574.173763752</v>
       </c>
       <c r="F38" t="n">
-        <v>454798.5210613012</v>
+        <v>421299.3200377226</v>
       </c>
     </row>
     <row r="39">
@@ -9505,13 +9505,13 @@
         <v>441822.8028424711</v>
       </c>
       <c r="D39" t="n">
-        <v>463885.7366834442</v>
+        <v>467607.3311682637</v>
       </c>
       <c r="E39" t="n">
-        <v>436317.6215264797</v>
+        <v>470305.0130400658</v>
       </c>
       <c r="F39" t="n">
-        <v>454113.1199899912</v>
+        <v>474833.4815660715</v>
       </c>
     </row>
   </sheetData>
